--- a/NV/moduls/1С.xlsx
+++ b/NV/moduls/1С.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\moduls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\NV\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AC5D34-1771-48A7-8612-19CF2CE92FD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4981BD-A4BC-45CD-BD1C-2DD37F18916D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$401</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$404</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="644">
   <si>
     <t>1С</t>
   </si>
@@ -1957,6 +1957,15 @@
   </si>
   <si>
     <t>7082 СЛИВОЧНЫЕ ПМ сос п/о мгс 1,5*4_50с  Останкино</t>
+  </si>
+  <si>
+    <t>7070 СОЧНЫЕ ПМ сос п/о 1,5*4_А_50с  Останкино</t>
+  </si>
+  <si>
+    <t>7075 МОЛОЧ.ПРЕМИУМ ПМ сос п/о мгс 1,5*4_О_50с  Останкино</t>
+  </si>
+  <si>
+    <t>7073 МОЛОЧ.ПРЕМИУМ ПМ сос п/о в/у 1/350_50с  Останкино</t>
   </si>
 </sst>
 </file>
@@ -2311,11 +2320,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F401"/>
+  <dimension ref="A1:F404"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6665,7 +6674,7 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>622</v>
+        <v>642</v>
       </c>
       <c r="B395" s="3">
         <v>1001022657075</v>
@@ -6676,18 +6685,18 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>640</v>
+        <v>622</v>
       </c>
       <c r="B396" s="3">
-        <v>1001022467082</v>
+        <v>1001022657075</v>
       </c>
       <c r="C396" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>624</v>
+        <v>640</v>
       </c>
       <c r="B397" s="3">
         <v>1001022467082</v>
@@ -6698,50 +6707,83 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B398" s="3">
-        <v>1001022377070</v>
+        <v>1001022467082</v>
       </c>
       <c r="C398" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
       <c r="B399" s="3">
-        <v>1001022657073</v>
+        <v>1001022377070</v>
       </c>
       <c r="C399" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="B400" s="3">
-        <v>1001010027126</v>
+        <v>1001022377070</v>
       </c>
       <c r="C400" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B401" s="3">
+        <v>1001022657073</v>
+      </c>
+      <c r="C401" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B402" s="3">
+        <v>1001022657073</v>
+      </c>
+      <c r="C402" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B403" s="3">
+        <v>1001010027126</v>
+      </c>
+      <c r="C403" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="B401" s="3">
+      <c r="B404" s="3">
         <v>1001010027125</v>
       </c>
-      <c r="C401" t="s">
+      <c r="C404" t="s">
         <v>634</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C401" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C404" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/NV/moduls/1С.xlsx
+++ b/NV/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\NV\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D4981BD-A4BC-45CD-BD1C-2DD37F18916D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E01609E-3390-4AD6-98E3-CC94939FF434}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$404</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$401</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="643">
   <si>
     <t>1С</t>
   </si>
@@ -120,12 +120,6 @@
     <t>ОСОБАЯ СО ШПИКОМ вар п/о</t>
   </si>
   <si>
-    <t>5341 СЕРВЕЛАТ ОХОТНИЧИЙ в/к в/у  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ ОХОТНИЧИЙ в/к в/у</t>
-  </si>
-  <si>
     <t>5483 ЭКСТРА Папа может с/к в/у 1/250 8шт.   ОСТАНКИНО</t>
   </si>
   <si>
@@ -222,21 +216,9 @@
     <t>СЕРВЕЛАТ КАРЕЛЬСКИЙ ПМ в/к в/у 0.28кг</t>
   </si>
   <si>
-    <t>СЕРВЕЛАТ ОХОТНИЧИЙ в/к в/у срез 0.35кг</t>
-  </si>
-  <si>
     <t>СЕРВЕЛАТ ПРИМА в/к в/у 0.28кг 8шт.</t>
   </si>
   <si>
-    <t>БОЯNСКАЯ Папа может п/к в/у 0.28кг 8шт.</t>
-  </si>
-  <si>
-    <t>6415 БАЛЫКОВАЯ Коровино п/к в/у 0.84кг 6шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>БАЛЫКОВАЯ Коровино п/к в/у 0.84кг 6шт.</t>
-  </si>
-  <si>
     <t>6427 КЛАССИЧЕСКАЯ ПМ вар п/о 0.35кг 8шт. ОСТАНКИНО</t>
   </si>
   <si>
@@ -276,9 +258,6 @@
     <t>СЕРВЕЛАТ ФИНСКИЙ в/к в/у срез 0.35кг_45c</t>
   </si>
   <si>
-    <t>СЕРВЕЛАТ ЗЕРНИСТЫЙ ПМ в/к в/у срез 1/350</t>
-  </si>
-  <si>
     <t>6517 БОГАТЫРСКИЕ Папа Может сос п/о 1*6  ОСТАНКИНО</t>
   </si>
   <si>
@@ -411,12 +390,6 @@
     <t>6669 ВЕНСКАЯ САЛЯМИ п/к в/у 0.28кг 8шт  ОСТАНКИНО</t>
   </si>
   <si>
-    <t>6683 СЕРВЕЛАТ ЗЕРНИСТЫЙ ПМ в/к в/у 0,35кг  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6689 СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у 0,35кг 8шт  ОСТАНКИНО</t>
-  </si>
-  <si>
     <t>6697 СЕРВЕЛАТ ФИНСКИЙ ПМ в/к в/у 0,35кг 8шт.  ОСТАНКИНО</t>
   </si>
   <si>
@@ -429,9 +402,6 @@
     <t>6644 СОЧНЫЕ ПМ сос п/о мгс 0,41кг 10шт.  ОСТАНКИНО</t>
   </si>
   <si>
-    <t>6666 БОЯНСКАЯ Папа может п/к в/у 0,28кг 8 шт. ОСТАНКИНО</t>
-  </si>
-  <si>
     <t>ГОВЯЖЬЯ Папа может вар п/о 0.4кг 8шт</t>
   </si>
   <si>
@@ -768,9 +738,6 @@
     <t>С ГОВЯДИНОЙ ПМ сар б/о мгс 0.4кг_45с</t>
   </si>
   <si>
-    <t>6666 БОЯNСКАЯ Папа может п/к в/у 0,28кг 8шт  ОСТАНКИНО</t>
-  </si>
-  <si>
     <t>6669 ВЕНСКАЯ САЛЯМИ п/к в/у 0,28кг 8шт  ОСТАНКИНО</t>
   </si>
   <si>
@@ -843,21 +810,12 @@
     <t>МОЛОЧНЫЕ К ЗАВТРАКУ сос п/о мгс 2*2</t>
   </si>
   <si>
-    <t>6364 СЕРВЕЛАТ ЗЕРНИСТЫЙ ПМ в/к в/у 0.35кг  ОСТАНКИНО</t>
-  </si>
-  <si>
-    <t>6372 СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у 0.35кг 8шт  ОСТАНКИНО</t>
-  </si>
-  <si>
     <t>6375 СЕРВЕЛАТ ПРИМА в/к в/у 0.28кг 8шт.  ОСТАНКИНО</t>
   </si>
   <si>
     <t>6509 СЕРВЕЛАТ ФИНСКИЙ ПМ в/к в/у 0.35кг 8шт.  ОСТАНКИНО</t>
   </si>
   <si>
-    <t>6397 БОЯNСКАЯ Папа может п/к в/у 0.28кг 8шт.  ОСТАНКИНО</t>
-  </si>
-  <si>
     <t>4574 Колбаса вар Мясная со шпиком 1кг Папа может п/о (код покуп. 24784) Останкино</t>
   </si>
   <si>
@@ -1830,9 +1788,6 @@
     <t>ГРУДИНКА ПРЕМИУМ к/в с/н в/у 1/150 8шт.</t>
   </si>
   <si>
-    <t>6415 БАЛЫКОВАЯ Коровино п/к в/у 0.84кг 6шт.</t>
-  </si>
-  <si>
     <t>6724 МОЛОЧНЫЕ ПМ сос п/о мгс 0.41кг 10шт.  ОСТАНКИНО</t>
   </si>
   <si>
@@ -1966,6 +1921,48 @@
   </si>
   <si>
     <t>7073 МОЛОЧ.ПРЕМИУМ ПМ сос п/о в/у 1/350_50с  Останкино</t>
+  </si>
+  <si>
+    <t>7166  СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у_50с</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у_50с</t>
+  </si>
+  <si>
+    <t>7149  БАЛЫКОВАЯ Коровино п/к в/у 0.84кг_50с</t>
+  </si>
+  <si>
+    <t>БАЛЫКОВАЯ Коровино п/к в/у 0.84кг_50с</t>
+  </si>
+  <si>
+    <t>7173  БОЯNСКАЯ ПМ п/к в/у 0.28кг 8шт_50с</t>
+  </si>
+  <si>
+    <t>БОЯNСКАЯ ПМ п/к в/у 0.28кг 8шт_50с</t>
+  </si>
+  <si>
+    <t>7154  СЕРВЕЛАТ ЗЕРНИСТЫЙ ПМ в/к в/у 0.35кг_50с</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ЗЕРНИСТЫЙ ПМ в/к в/у 0.35кг_50с</t>
+  </si>
+  <si>
+    <t>7169  СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у 0.35кг_50с</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у 0.35кг_50с</t>
+  </si>
+  <si>
+    <t>7126 МОЛОЧНАЯ Останкино вар п/о 0,4кг 8шт  Останкино</t>
+  </si>
+  <si>
+    <t>7125 МОЛОЧНАЯ Останкино вар п/о  Останкино</t>
+  </si>
+  <si>
+    <t>6888 С ГРУДИНКОЙ вар б/о в/у срез 0.4кг 8шт.</t>
+  </si>
+  <si>
+    <t>С ГРУДИНКОЙ вар б/о в/у срез 0.4кг 8шт.</t>
   </si>
 </sst>
 </file>
@@ -2320,11 +2317,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F404"/>
+  <dimension ref="A1:F402"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2416,68 +2413,68 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B8" s="3">
         <v>1001095716865</v>
       </c>
       <c r="C8" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="B9" s="3">
         <v>1001095716866</v>
       </c>
       <c r="C9" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="B10" s="3">
         <v>1001095716866</v>
       </c>
       <c r="C10" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="B11" s="3">
         <v>1001095716866</v>
       </c>
       <c r="C11" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="B12" s="3">
         <v>1001095716866</v>
       </c>
       <c r="C12" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="B13" s="3">
         <v>1001095716866</v>
       </c>
       <c r="C13" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2488,12 +2485,12 @@
         <v>1001095716865</v>
       </c>
       <c r="C14" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B15" s="3">
         <v>1001092446756</v>
@@ -2554,29 +2551,29 @@
         <v>1001015646861</v>
       </c>
       <c r="C20" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="B21" s="3">
         <v>1001015706862</v>
       </c>
       <c r="C21" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="B22" s="3">
         <v>1001015706862</v>
       </c>
       <c r="C22" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2587,2076 +2584,2076 @@
         <v>1001015706862</v>
       </c>
       <c r="C23" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>629</v>
       </c>
       <c r="B24" s="3">
-        <v>1001053985341</v>
+        <v>1001303987166</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>630</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B25" s="3">
         <v>1001062505483</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26" s="3">
         <v>1001051875544</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B27" s="3">
         <v>1001193115682</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B28" s="3">
         <v>1001061975706</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B29" s="3">
         <v>1001063145708</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B30" s="3">
         <v>1001022465820</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31" s="3">
         <v>1001012505851</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="B32" s="3">
         <v>1001060755931</v>
       </c>
       <c r="C32" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B33" s="3">
         <v>1001060755931</v>
       </c>
       <c r="C33" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B34" s="3">
         <v>1001012815997</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B35" s="3">
         <v>1001024906042</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B36" s="3">
         <v>1001024976829</v>
       </c>
       <c r="C36" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B37" s="3">
         <v>1001220286279</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="B38" s="3">
         <v>1001084216206</v>
       </c>
       <c r="C38" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B39" s="3">
         <v>1001084216206</v>
       </c>
       <c r="C39" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="B40" s="3">
         <v>1001022556069</v>
       </c>
       <c r="C40" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B41" s="3">
         <v>1001022556069</v>
       </c>
       <c r="C41" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B42" s="3">
         <v>1001010106325</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B43" s="3">
         <v>1001012486333</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B44" s="3">
         <v>1001012506353</v>
       </c>
       <c r="C44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B45" s="3">
         <v>1001304506684</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B46" s="3">
         <v>1001303056692</v>
       </c>
       <c r="C46" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>598</v>
+        <v>631</v>
       </c>
       <c r="B47" s="3">
-        <v>1001303636415</v>
+        <v>1001303637149</v>
       </c>
       <c r="C47" t="s">
-        <v>66</v>
+        <v>632</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B48" s="3">
-        <v>1001303636415</v>
+        <v>1001013956426</v>
       </c>
       <c r="C48" t="s">
-        <v>66</v>
+        <v>432</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B49" s="3">
-        <v>1001013956426</v>
+        <v>1001024636438</v>
       </c>
       <c r="C49" t="s">
-        <v>446</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B50" s="3">
-        <v>1001024636438</v>
+        <v>1001234146448</v>
       </c>
       <c r="C50" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>70</v>
+        <v>291</v>
       </c>
       <c r="B51" s="3">
-        <v>1001234146448</v>
+        <v>1001202506453</v>
       </c>
       <c r="C51" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>305</v>
+        <v>67</v>
       </c>
       <c r="B52" s="3">
         <v>1001202506453</v>
       </c>
       <c r="C52" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B53" s="3">
-        <v>1001202506453</v>
+        <v>1001201976454</v>
       </c>
       <c r="C53" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B54" s="3">
-        <v>1001201976454</v>
+        <v>1001025176475</v>
       </c>
       <c r="C54" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="B55" s="3">
-        <v>1001025176475</v>
+        <v>1001301876697</v>
       </c>
       <c r="C55" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="B56" s="3">
-        <v>1001301876697</v>
+        <v>1001024636517</v>
       </c>
       <c r="C56" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B57" s="3">
-        <v>1001024636517</v>
+        <v>1001031076527</v>
       </c>
       <c r="C57" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B58" s="3">
-        <v>1001031076527</v>
+        <v>1001304506562</v>
       </c>
       <c r="C58" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B59" s="3">
-        <v>1001304506562</v>
+        <v>1001020846563</v>
       </c>
       <c r="C59" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B60" s="3">
-        <v>1001020846563</v>
+        <v>1001020836589</v>
       </c>
       <c r="C60" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B61" s="3">
-        <v>1001020836589</v>
+        <v>6751</v>
       </c>
       <c r="C61" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B62" s="3">
-        <v>6751</v>
+        <v>1001010016592</v>
       </c>
       <c r="C62" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B63" s="3">
-        <v>1001010016592</v>
+        <v>1001010026594</v>
       </c>
       <c r="C63" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B64" s="3">
-        <v>1001010026594</v>
+        <v>1001022296601</v>
       </c>
       <c r="C64" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B65" s="3">
-        <v>1001022296601</v>
+        <v>1001031896648</v>
       </c>
       <c r="C65" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B66" s="3">
-        <v>1001031896648</v>
+        <v>1001035266650</v>
       </c>
       <c r="C66" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B67" s="3">
-        <v>1001035266650</v>
+        <v>1001305256658</v>
       </c>
       <c r="C67" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B68" s="3">
-        <v>1001305256658</v>
+        <v>1001010016593</v>
       </c>
       <c r="C68" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B69" s="3">
-        <v>1001010016593</v>
+        <v>1001010026595</v>
       </c>
       <c r="C69" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B70" s="3">
+        <v>1001010036597</v>
+      </c>
+      <c r="C70" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B71" s="3">
+        <v>1001020886646</v>
+      </c>
+      <c r="C71" t="s">
         <v>111</v>
-      </c>
-      <c r="B70" s="3">
-        <v>1001010026595</v>
-      </c>
-      <c r="C70" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B71" s="3">
-        <v>1001010036597</v>
-      </c>
-      <c r="C71" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>119</v>
+        <v>317</v>
       </c>
       <c r="B72" s="3">
-        <v>1001020886646</v>
+        <v>1001305306566</v>
       </c>
       <c r="C72" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>331</v>
+      <c r="A73" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="B73" s="3">
         <v>1001305306566</v>
       </c>
       <c r="C73" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>120</v>
+        <v>635</v>
       </c>
       <c r="B74" s="3">
-        <v>1001305306566</v>
+        <v>1001300387154</v>
       </c>
       <c r="C74" t="s">
-        <v>121</v>
+        <v>636</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>125</v>
+        <v>637</v>
       </c>
       <c r="B75" s="3">
-        <v>1001300386683</v>
+        <v>1001303987169</v>
       </c>
       <c r="C75" t="s">
-        <v>80</v>
+        <v>638</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>126</v>
+        <v>234</v>
       </c>
       <c r="B76" s="3">
-        <v>1001303986689</v>
+        <v>1001303106773</v>
       </c>
       <c r="C76" t="s">
-        <v>62</v>
+        <v>340</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B77" s="3">
+        <v>347</v>
+      </c>
+      <c r="B77" s="5">
         <v>1001303106773</v>
       </c>
       <c r="C77" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>361</v>
+        <v>266</v>
       </c>
       <c r="B78" s="5">
         <v>1001303106773</v>
       </c>
       <c r="C78" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B79" s="5">
+        <v>117</v>
+      </c>
+      <c r="B79" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C79" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>124</v>
+        <v>387</v>
       </c>
       <c r="B80" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C80" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="B81" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C81" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="B82" s="3">
         <v>1001303106773</v>
       </c>
       <c r="C82" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>396</v>
+        <v>223</v>
       </c>
       <c r="B83" s="3">
-        <v>1001303106773</v>
+        <v>1001012566392</v>
       </c>
       <c r="C83" t="s">
-        <v>354</v>
+        <v>56</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>233</v>
+        <v>417</v>
       </c>
       <c r="B84" s="3">
         <v>1001012566392</v>
       </c>
       <c r="C84" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>431</v>
+        <v>120</v>
       </c>
       <c r="B85" s="3">
         <v>1001012566392</v>
       </c>
       <c r="C85" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>129</v>
+        <v>633</v>
       </c>
       <c r="B86" s="3">
-        <v>1001012566392</v>
+        <v>1001302277173</v>
       </c>
       <c r="C86" t="s">
-        <v>58</v>
+        <v>634</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B87" s="3">
-        <v>1001302276666</v>
+        <v>1001012426268</v>
       </c>
       <c r="C87" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B88" s="3">
-        <v>1001012426268</v>
+        <v>1001024906041</v>
       </c>
       <c r="C88" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B89" s="3">
-        <v>1001024906041</v>
+        <v>1001011086247</v>
       </c>
       <c r="C89" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="B90" s="3">
-        <v>1001011086247</v>
+        <v>1001014486158</v>
       </c>
       <c r="C90" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B91" s="3">
-        <v>1001014486158</v>
+        <v>1001015356259</v>
       </c>
       <c r="C91" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B92" s="3">
-        <v>1001015356259</v>
+        <v>1001012816716</v>
       </c>
       <c r="C92" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>162</v>
+        <v>322</v>
       </c>
       <c r="B93" s="3">
-        <v>1001012816716</v>
+        <v>1001020966227</v>
       </c>
       <c r="C93" t="s">
-        <v>153</v>
+        <v>321</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>336</v>
+        <v>129</v>
       </c>
       <c r="B94" s="3">
         <v>1001020966227</v>
       </c>
       <c r="C94" t="s">
-        <v>335</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>139</v>
+        <v>221</v>
       </c>
       <c r="B95" s="3">
-        <v>1001020966227</v>
+        <v>1001022726303</v>
       </c>
       <c r="C95" t="s">
-        <v>140</v>
+        <v>254</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="B96" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C96" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>264</v>
+        <v>339</v>
       </c>
       <c r="B97" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C97" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>353</v>
+        <v>153</v>
       </c>
       <c r="B98" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C98" t="s">
-        <v>265</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>163</v>
+        <v>108</v>
       </c>
       <c r="B99" s="3">
-        <v>1001022726303</v>
+        <v>1001022466726</v>
       </c>
       <c r="C99" t="s">
-        <v>165</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="B100" s="3">
-        <v>1001022466726</v>
+        <v>1001020966144</v>
       </c>
       <c r="C100" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="B101" s="3">
-        <v>1001020966144</v>
+        <v>1001022376722</v>
       </c>
       <c r="C101" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>130</v>
+        <v>577</v>
       </c>
       <c r="B102" s="3">
-        <v>1001022376722</v>
+        <v>1001022376955</v>
       </c>
       <c r="C102" t="s">
-        <v>128</v>
+        <v>568</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="B103" s="3">
         <v>1001022376955</v>
       </c>
       <c r="C103" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>589</v>
+        <v>134</v>
       </c>
       <c r="B104" s="3">
         <v>1001022376955</v>
       </c>
       <c r="C104" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>144</v>
+        <v>246</v>
       </c>
       <c r="B105" s="3">
-        <v>1001022376955</v>
+        <v>1001022246661</v>
       </c>
       <c r="C105" t="s">
-        <v>582</v>
+        <v>247</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>257</v>
+        <v>318</v>
       </c>
       <c r="B106" s="3">
         <v>1001022246661</v>
       </c>
       <c r="C106" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>332</v>
+        <v>133</v>
       </c>
       <c r="B107" s="3">
         <v>1001022246661</v>
       </c>
       <c r="C107" t="s">
-        <v>258</v>
+        <v>135</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B108" s="3">
-        <v>1001022246661</v>
+        <v>1001022246713</v>
       </c>
       <c r="C108" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B109" s="3">
-        <v>1001022246713</v>
+        <v>1001025166241</v>
       </c>
       <c r="C109" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B110" s="3">
-        <v>1001025166241</v>
+        <v>6606</v>
       </c>
       <c r="C110" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="B111" s="3">
-        <v>6606</v>
+        <v>1001035326217</v>
       </c>
       <c r="C111" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B112" s="3">
-        <v>1001035326217</v>
+        <v>1001303636301</v>
       </c>
       <c r="C112" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>161</v>
+        <v>94</v>
       </c>
       <c r="B113" s="3">
-        <v>1001303636301</v>
+        <v>1001303636302</v>
       </c>
       <c r="C113" t="s">
-        <v>155</v>
+        <v>95</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="B114" s="3">
-        <v>1001303636302</v>
+        <v>1001305196215</v>
       </c>
       <c r="C114" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B115" s="3">
-        <v>1001305196215</v>
+        <v>1001301876212</v>
       </c>
       <c r="C115" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="B116" s="3">
-        <v>1001301876212</v>
+        <v>1001301876213</v>
       </c>
       <c r="C116" t="s">
-        <v>156</v>
+        <v>78</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B117" s="3">
-        <v>1001301876213</v>
+        <v>1001303636302</v>
       </c>
       <c r="C117" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B118" s="3">
-        <v>1001303636302</v>
+        <v>6645</v>
       </c>
       <c r="C118" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B119" s="3">
-        <v>6645</v>
+        <v>1001225416228</v>
       </c>
       <c r="C119" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B120" s="3">
-        <v>1001225416228</v>
+        <v>6225</v>
       </c>
       <c r="C120" t="s">
-        <v>170</v>
+        <v>270</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B121" s="3">
-        <v>6225</v>
+        <v>1001022376722</v>
       </c>
       <c r="C121" t="s">
-        <v>284</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B122" s="3">
         <v>1001022376722</v>
       </c>
       <c r="C122" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B123" s="3">
-        <v>1001022376722</v>
+        <v>3297</v>
       </c>
       <c r="C123" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>174</v>
+        <v>312</v>
       </c>
       <c r="B124" s="3">
-        <v>3297</v>
+        <v>1001022466726</v>
       </c>
       <c r="C124" t="s">
-        <v>175</v>
+        <v>288</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="B125" s="3">
         <v>1001022466726</v>
       </c>
       <c r="C125" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>303</v>
+        <v>168</v>
       </c>
       <c r="B126" s="3">
         <v>1001022466726</v>
       </c>
       <c r="C126" t="s">
-        <v>302</v>
+        <v>109</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B127" s="3">
-        <v>1001022466726</v>
+        <v>1001021966602</v>
       </c>
       <c r="C127" t="s">
-        <v>116</v>
+        <v>281</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B128" s="3">
-        <v>1001021966602</v>
+        <v>6233</v>
       </c>
       <c r="C128" t="s">
-        <v>295</v>
+        <v>170</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>181</v>
+        <v>261</v>
       </c>
       <c r="B129" s="3">
-        <v>6233</v>
+        <v>1001012816341</v>
       </c>
       <c r="C129" t="s">
-        <v>180</v>
+        <v>442</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>275</v>
+        <v>488</v>
       </c>
       <c r="B130" s="3">
         <v>1001012816341</v>
       </c>
       <c r="C130" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="B131" s="3">
         <v>1001012816341</v>
       </c>
       <c r="C131" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>505</v>
+        <v>172</v>
       </c>
       <c r="B132" s="3">
         <v>1001012816341</v>
       </c>
       <c r="C132" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B133" s="3">
-        <v>1001012816341</v>
+        <v>6750</v>
       </c>
       <c r="C133" t="s">
-        <v>456</v>
+        <v>85</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B134" s="3">
-        <v>6750</v>
+        <v>6751</v>
       </c>
       <c r="C134" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B135" s="3">
-        <v>6751</v>
+        <v>5982</v>
       </c>
       <c r="C135" t="s">
-        <v>94</v>
+        <v>176</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>185</v>
+        <v>539</v>
       </c>
       <c r="B136" s="3">
-        <v>5982</v>
+        <v>1001022656854</v>
       </c>
       <c r="C136" t="s">
-        <v>186</v>
+        <v>431</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="B137" s="3">
         <v>1001022656854</v>
       </c>
       <c r="C137" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>570</v>
+        <v>455</v>
       </c>
       <c r="B138" s="3">
         <v>1001022656854</v>
       </c>
       <c r="C138" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>469</v>
+        <v>177</v>
       </c>
       <c r="B139" s="3">
         <v>1001022656854</v>
       </c>
       <c r="C139" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B140" s="3">
-        <v>1001022656854</v>
+        <v>1001094966025</v>
       </c>
       <c r="C140" t="s">
-        <v>445</v>
+        <v>179</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="B141" s="3">
-        <v>1001094966025</v>
+        <v>6025</v>
       </c>
       <c r="C141" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B142" s="3">
-        <v>6025</v>
+        <v>6221</v>
       </c>
       <c r="C142" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B143" s="3">
-        <v>6221</v>
+        <v>1001205376221</v>
       </c>
       <c r="C143" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B144" s="3">
-        <v>1001205376221</v>
+        <v>1001022373812</v>
       </c>
       <c r="C144" t="s">
-        <v>191</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B145" s="3">
-        <v>1001022373812</v>
+        <v>1001100606827</v>
       </c>
       <c r="C145" t="s">
-        <v>3</v>
+        <v>329</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>197</v>
+        <v>341</v>
       </c>
       <c r="B146" s="3">
         <v>1001100606827</v>
       </c>
       <c r="C146" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>355</v>
+        <v>188</v>
       </c>
       <c r="B147" s="3">
-        <v>1001100606827</v>
+        <v>1001100616826</v>
       </c>
       <c r="C147" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>198</v>
+        <v>342</v>
       </c>
       <c r="B148" s="3">
         <v>1001100616826</v>
       </c>
       <c r="C148" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>356</v>
+        <v>189</v>
       </c>
       <c r="B149" s="3">
-        <v>1001100616826</v>
+        <v>1001100626828</v>
       </c>
       <c r="C149" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>199</v>
+        <v>343</v>
       </c>
       <c r="B150" s="3">
         <v>1001100626828</v>
       </c>
       <c r="C150" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>357</v>
+        <v>190</v>
       </c>
       <c r="B151" s="3">
-        <v>1001100626828</v>
+        <v>1001035026308</v>
       </c>
       <c r="C151" t="s">
-        <v>345</v>
+        <v>191</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>200</v>
+        <v>560</v>
       </c>
       <c r="B152" s="3">
-        <v>1001035026308</v>
+        <v>1001014486159</v>
       </c>
       <c r="C152" t="s">
-        <v>201</v>
+        <v>561</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>574</v>
+        <v>192</v>
       </c>
       <c r="B153" s="3">
         <v>1001014486159</v>
       </c>
       <c r="C153" t="s">
-        <v>575</v>
+        <v>193</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B154" s="3">
-        <v>1001014486159</v>
+        <v>1001035326217</v>
       </c>
       <c r="C154" t="s">
-        <v>203</v>
+        <v>285</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>204</v>
+        <v>506</v>
       </c>
       <c r="B155" s="3">
-        <v>1001035326217</v>
+        <v>1001012426220</v>
       </c>
       <c r="C155" t="s">
-        <v>299</v>
+        <v>196</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>520</v>
+        <v>195</v>
       </c>
       <c r="B156" s="3">
         <v>1001012426220</v>
       </c>
       <c r="C156" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B157" s="3">
-        <v>1001012426220</v>
+        <v>1001022466236</v>
       </c>
       <c r="C157" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B158" s="3">
-        <v>1001022466236</v>
+        <v>1001021966602</v>
       </c>
       <c r="C158" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B159" s="3">
-        <v>1001021966602</v>
+        <v>1001022296656</v>
       </c>
       <c r="C159" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B160" s="3">
-        <v>1001022296656</v>
+        <v>1001304506684</v>
       </c>
       <c r="C160" t="s">
-        <v>212</v>
+        <v>59</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B161" s="3">
-        <v>1001304506684</v>
+        <v>1001301876697</v>
       </c>
       <c r="C161" t="s">
-        <v>61</v>
+        <v>205</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B162" s="3">
-        <v>1001301876697</v>
+        <v>1001022246713</v>
       </c>
       <c r="C162" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B163" s="3">
-        <v>1001022246713</v>
+        <v>1001022376722</v>
       </c>
       <c r="C163" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B164" s="3">
-        <v>1001022376722</v>
+        <v>1001020846751</v>
       </c>
       <c r="C164" t="s">
-        <v>220</v>
+        <v>87</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B165" s="3">
-        <v>1001020846751</v>
+        <v>1001022725819</v>
       </c>
       <c r="C165" t="s">
-        <v>94</v>
+        <v>213</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B166" s="3">
-        <v>1001022725819</v>
+        <v>1001012825337</v>
       </c>
       <c r="C166" t="s">
-        <v>223</v>
+        <v>27</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B167" s="3">
-        <v>1001012825337</v>
+        <v>1001012815336</v>
       </c>
       <c r="C167" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B168" s="3">
-        <v>1001012815336</v>
+        <v>1001234146448</v>
       </c>
       <c r="C168" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B169" s="3">
-        <v>1001234146448</v>
+        <v>1001022725819</v>
       </c>
       <c r="C169" t="s">
-        <v>71</v>
+        <v>213</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B170" s="3">
-        <v>1001022725819</v>
+        <v>1001092676027</v>
       </c>
       <c r="C170" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B171" s="3">
-        <v>1001092676027</v>
+        <v>1001301876213</v>
       </c>
       <c r="C171" t="s">
-        <v>229</v>
+        <v>78</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B172" s="3">
-        <v>1001301876213</v>
+        <v>1001035026308</v>
       </c>
       <c r="C172" t="s">
-        <v>85</v>
+        <v>407</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B173" s="3">
-        <v>1001035026308</v>
+        <v>1001234146448</v>
       </c>
       <c r="C173" t="s">
-        <v>421</v>
+        <v>65</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B174" s="3">
-        <v>1001234146448</v>
+        <v>1001201976454</v>
       </c>
       <c r="C174" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B175" s="3">
-        <v>1001201976454</v>
+        <v>1001025176475</v>
       </c>
       <c r="C175" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B176" s="3">
-        <v>1001025176475</v>
+        <v>1001012456498</v>
       </c>
       <c r="C176" t="s">
-        <v>78</v>
+        <v>229</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B177" s="3">
-        <v>1001012456498</v>
+        <v>1001010036596</v>
       </c>
       <c r="C177" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>240</v>
+        <v>571</v>
       </c>
       <c r="B178" s="3">
-        <v>1001010036596</v>
+        <v>1001033856608</v>
       </c>
       <c r="C178" t="s">
-        <v>241</v>
+        <v>562</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>585</v>
+        <v>564</v>
       </c>
       <c r="B179" s="3">
         <v>1001033856608</v>
       </c>
       <c r="C179" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B180" s="3">
-        <v>1001033856608</v>
+        <v>1001033856609</v>
       </c>
       <c r="C180" t="s">
-        <v>576</v>
+        <v>233</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>586</v>
+        <v>232</v>
       </c>
       <c r="B181" s="3">
         <v>1001033856609</v>
       </c>
       <c r="C181" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B182" s="3">
-        <v>1001033856609</v>
+        <v>1001093345495</v>
       </c>
       <c r="C182" t="s">
-        <v>243</v>
+        <v>443</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B183" s="3">
-        <v>1001302276666</v>
+        <v>6550</v>
       </c>
       <c r="C183" t="s">
-        <v>64</v>
+        <v>238</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B184" s="3">
-        <v>1001093345495</v>
+        <v>1001304506684</v>
       </c>
       <c r="C184" t="s">
-        <v>457</v>
+        <v>59</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B185" s="3">
-        <v>6550</v>
+        <v>1001010113248</v>
       </c>
       <c r="C185" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>250</v>
+        <v>415</v>
       </c>
       <c r="B186" s="3">
-        <v>1001304506684</v>
+        <v>1001063926780</v>
       </c>
       <c r="C186" t="s">
-        <v>61</v>
+        <v>416</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B187" s="3">
-        <v>1001010113248</v>
+        <v>6586</v>
       </c>
       <c r="C187" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>429</v>
+        <v>244</v>
       </c>
       <c r="B188" s="3">
-        <v>1001063926780</v>
+        <v>1001303636467</v>
       </c>
       <c r="C188" t="s">
-        <v>430</v>
+        <v>245</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B189" s="3">
-        <v>6586</v>
+        <v>1001304496701</v>
       </c>
       <c r="C189" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B190" s="3">
-        <v>1001303636467</v>
+        <v>6144</v>
       </c>
       <c r="C190" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B191" s="3">
-        <v>1001304496701</v>
+        <v>1001022725819</v>
       </c>
       <c r="C191" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B192" s="3">
-        <v>6144</v>
+        <v>1001022373812</v>
       </c>
       <c r="C192" t="s">
-        <v>262</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B193" s="3">
-        <v>1001022725819</v>
+        <v>1001024906062</v>
       </c>
       <c r="C193" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B194" s="3">
-        <v>1001022373812</v>
+        <v>1001303056692</v>
       </c>
       <c r="C194" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B195" s="3">
-        <v>1001024906062</v>
+        <v>1001301876697</v>
       </c>
       <c r="C195" t="s">
-        <v>268</v>
+        <v>205</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B196" s="3">
-        <v>1001300386683</v>
+        <v>1001012634574</v>
       </c>
       <c r="C196" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B197" s="3">
-        <v>1001303986689</v>
+        <v>1001092485452</v>
       </c>
       <c r="C197" t="s">
-        <v>62</v>
+        <v>263</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B198" s="3">
-        <v>1001303056692</v>
+        <v>1001020966144</v>
       </c>
       <c r="C198" t="s">
-        <v>63</v>
+        <v>144</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B199" s="3">
-        <v>1001301876697</v>
+        <v>6586</v>
       </c>
       <c r="C199" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B200" s="3">
-        <v>1001302276666</v>
+        <v>1001304496701</v>
       </c>
       <c r="C200" t="s">
-        <v>64</v>
+        <v>249</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B201" s="3">
-        <v>1001012634574</v>
+        <v>1001063655015</v>
       </c>
       <c r="C201" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B202" s="3">
-        <v>1001092485452</v>
+        <v>1001060763287</v>
       </c>
       <c r="C202" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B203" s="3">
-        <v>1001020966144</v>
+        <v>1001225416228</v>
       </c>
       <c r="C203" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B204" s="3">
-        <v>6586</v>
+        <v>1001032736550</v>
       </c>
       <c r="C204" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B205" s="3">
-        <v>1001304496701</v>
+        <v>6758</v>
       </c>
       <c r="C205" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B206" s="3">
-        <v>1001063655015</v>
+        <v>1001020965976</v>
       </c>
       <c r="C206" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B207" s="3">
-        <v>1001060763287</v>
+        <v>1001215576586</v>
       </c>
       <c r="C207" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B208" s="3">
-        <v>1001225416228</v>
+        <v>1001094896026</v>
       </c>
       <c r="C208" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>288</v>
+        <v>496</v>
       </c>
       <c r="B209" s="3">
-        <v>1001032736550</v>
+        <v>1001215576586</v>
       </c>
       <c r="C209" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B210" s="3">
-        <v>6758</v>
+        <v>1001215576586</v>
       </c>
       <c r="C210" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B211" s="3">
-        <v>1001020965976</v>
+        <v>1001092436470</v>
       </c>
       <c r="C211" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -4664,29 +4661,29 @@
         <v>293</v>
       </c>
       <c r="B212" s="3">
-        <v>1001215576586</v>
+        <v>1001203146555</v>
       </c>
       <c r="C212" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="B213" s="3">
-        <v>1001094896026</v>
+        <v>1001014765992</v>
       </c>
       <c r="C213" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>510</v>
+        <v>295</v>
       </c>
       <c r="B214" s="3">
-        <v>1001215576586</v>
+        <v>1001014765992</v>
       </c>
       <c r="C214" t="s">
         <v>294</v>
@@ -4694,266 +4691,266 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B215" s="3">
-        <v>1001215576586</v>
+        <v>1001014765993</v>
       </c>
       <c r="C215" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B216" s="3">
-        <v>1001092436470</v>
+        <v>1001025166776</v>
       </c>
       <c r="C216" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B217" s="3">
-        <v>1001203146555</v>
+        <v>1001025506777</v>
       </c>
       <c r="C217" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B218" s="3">
-        <v>1001014765992</v>
+        <v>1001025546822</v>
       </c>
       <c r="C218" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="B219" s="3">
-        <v>1001014765992</v>
+        <v>1001025546822</v>
       </c>
       <c r="C219" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="B220" s="3">
-        <v>1001014765993</v>
+        <v>1001025546822</v>
       </c>
       <c r="C220" t="s">
-        <v>310</v>
+        <v>554</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="B221" s="3">
-        <v>1001025166776</v>
+        <v>1001025546822</v>
       </c>
       <c r="C221" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B222" s="3">
-        <v>1001025506777</v>
+        <v>1001024976616</v>
       </c>
       <c r="C222" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="B223" s="3">
-        <v>1001025546822</v>
+        <v>1001010855247</v>
       </c>
       <c r="C223" t="s">
-        <v>317</v>
+        <v>23</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>338</v>
+        <v>386</v>
       </c>
       <c r="B224" s="3">
-        <v>1001025546822</v>
+        <v>1001223296919</v>
       </c>
       <c r="C224" t="s">
-        <v>317</v>
+        <v>389</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>350</v>
+        <v>66</v>
       </c>
       <c r="B225" s="3">
-        <v>1001025546822</v>
+        <v>1001223296919</v>
       </c>
       <c r="C225" t="s">
-        <v>568</v>
+        <v>389</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>316</v>
+        <v>225</v>
       </c>
       <c r="B226" s="3">
-        <v>1001025546822</v>
+        <v>1001223296919</v>
       </c>
       <c r="C226" t="s">
-        <v>317</v>
+        <v>389</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>321</v>
+        <v>459</v>
       </c>
       <c r="B227" s="3">
-        <v>1001024976616</v>
+        <v>1001223296919</v>
       </c>
       <c r="C227" t="s">
-        <v>320</v>
+        <v>475</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>322</v>
+        <v>481</v>
       </c>
       <c r="B228" s="3">
-        <v>1001010855247</v>
+        <v>1001223296919</v>
       </c>
       <c r="C228" t="s">
-        <v>23</v>
+        <v>389</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>400</v>
+        <v>309</v>
       </c>
       <c r="B229" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C229" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>72</v>
+        <v>311</v>
       </c>
       <c r="B230" s="3">
-        <v>1001223296919</v>
+        <v>1001014765993</v>
       </c>
       <c r="C230" t="s">
-        <v>403</v>
+        <v>296</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>235</v>
+        <v>313</v>
       </c>
       <c r="B231" s="3">
-        <v>1001223296919</v>
+        <v>1001025166776</v>
       </c>
       <c r="C231" t="s">
-        <v>403</v>
+        <v>299</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>473</v>
+        <v>314</v>
       </c>
       <c r="B232" s="3">
-        <v>1001223296919</v>
+        <v>1001025506777</v>
       </c>
       <c r="C232" t="s">
-        <v>489</v>
+        <v>301</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>495</v>
+        <v>315</v>
       </c>
       <c r="B233" s="3">
-        <v>1001223296919</v>
+        <v>1001025526778</v>
       </c>
       <c r="C233" t="s">
-        <v>403</v>
+        <v>316</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B234" s="3">
-        <v>1001223296919</v>
+        <v>1001304236685</v>
       </c>
       <c r="C234" t="s">
-        <v>403</v>
+        <v>320</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B235" s="3">
+        <v>1001015496769</v>
+      </c>
+      <c r="C235" t="s">
         <v>325</v>
-      </c>
-      <c r="B235" s="3">
-        <v>1001014765993</v>
-      </c>
-      <c r="C235" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B236" s="3">
-        <v>1001025166776</v>
+        <v>1001015496769</v>
       </c>
       <c r="C236" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B237" s="3">
+        <v>1001014766798</v>
+      </c>
+      <c r="C237" t="s">
         <v>328</v>
-      </c>
-      <c r="B237" s="3">
-        <v>1001025506777</v>
-      </c>
-      <c r="C237" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B238" s="3">
-        <v>1001025526778</v>
+        <v>1001015026797</v>
       </c>
       <c r="C238" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -4961,65 +4958,65 @@
         <v>333</v>
       </c>
       <c r="B239" s="3">
-        <v>1001304236685</v>
+        <v>1001205386222</v>
       </c>
       <c r="C239" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="B240" s="3">
-        <v>1001015496769</v>
+        <v>1001092675224</v>
       </c>
       <c r="C240" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B241" s="3">
-        <v>1001015496769</v>
+        <v>1001225406223</v>
       </c>
       <c r="C241" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="B242" s="3">
-        <v>1001014766798</v>
+        <v>1001300366790</v>
       </c>
       <c r="C242" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>346</v>
+        <v>477</v>
       </c>
       <c r="B243" s="3">
-        <v>1001015026797</v>
+        <v>1001304096792</v>
       </c>
       <c r="C243" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B244" s="3">
-        <v>1001205386222</v>
+        <v>1001304096792</v>
       </c>
       <c r="C244" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -5027,538 +5024,538 @@
         <v>351</v>
       </c>
       <c r="B245" s="3">
-        <v>1001092675224</v>
+        <v>1001303636793</v>
       </c>
       <c r="C245" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="B246" s="3">
-        <v>1001225406223</v>
+        <v>1001303636794</v>
       </c>
       <c r="C246" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>362</v>
+        <v>497</v>
       </c>
       <c r="B247" s="3">
-        <v>1001300366790</v>
+        <v>1001303636794</v>
       </c>
       <c r="C247" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>491</v>
+        <v>352</v>
       </c>
       <c r="B248" s="3">
-        <v>1001304096792</v>
+        <v>1001303636794</v>
       </c>
       <c r="C248" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B249" s="3">
+        <v>1001302596795</v>
+      </c>
+      <c r="C249" t="s">
         <v>364</v>
-      </c>
-      <c r="B249" s="3">
-        <v>1001304096792</v>
-      </c>
-      <c r="C249" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B250" s="3">
+        <v>1001302596796</v>
+      </c>
+      <c r="C250" t="s">
         <v>365</v>
-      </c>
-      <c r="B250" s="3">
-        <v>1001303636793</v>
-      </c>
-      <c r="C250" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>411</v>
+        <v>355</v>
       </c>
       <c r="B251" s="3">
-        <v>1001303636794</v>
+        <v>1001300456804</v>
       </c>
       <c r="C251" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>511</v>
+        <v>446</v>
       </c>
       <c r="B252" s="3">
-        <v>1001303636794</v>
+        <v>1001300366806</v>
       </c>
       <c r="C252" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="B253" s="3">
-        <v>1001303636794</v>
+        <v>1001300366806</v>
       </c>
       <c r="C253" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B254" s="3">
-        <v>1001302596795</v>
+        <v>1001300516803</v>
       </c>
       <c r="C254" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B255" s="3">
-        <v>1001302596796</v>
+        <v>1001300366807</v>
       </c>
       <c r="C255" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B256" s="3">
-        <v>1001300456804</v>
+        <v>1001300366807</v>
       </c>
       <c r="C256" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>460</v>
+        <v>372</v>
       </c>
       <c r="B257" s="3">
-        <v>1001300366806</v>
+        <v>1001300516785</v>
       </c>
       <c r="C257" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>370</v>
+        <v>540</v>
       </c>
       <c r="B258" s="3">
-        <v>1001300366806</v>
+        <v>1001300456787</v>
       </c>
       <c r="C258" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>371</v>
+        <v>555</v>
       </c>
       <c r="B259" s="3">
-        <v>1001300516803</v>
+        <v>1001300456787</v>
       </c>
       <c r="C259" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B260" s="3">
-        <v>1001300366807</v>
+        <v>1001300456787</v>
       </c>
       <c r="C260" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B261" s="3">
-        <v>1001300366807</v>
+        <v>1001303636793</v>
       </c>
       <c r="C261" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="B262" s="3">
-        <v>1001300516785</v>
+        <v>1001302596795</v>
       </c>
       <c r="C262" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>554</v>
+        <v>378</v>
       </c>
       <c r="B263" s="3">
-        <v>1001300456787</v>
+        <v>1001012486332</v>
       </c>
       <c r="C263" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>569</v>
+        <v>380</v>
       </c>
       <c r="B264" s="3">
-        <v>1001300456787</v>
+        <v>1001012566345</v>
       </c>
       <c r="C264" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B265" s="3">
-        <v>1001300456787</v>
+        <v>1001031076528</v>
       </c>
       <c r="C265" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="B266" s="3">
-        <v>1001303636793</v>
+        <v>1001020836761</v>
       </c>
       <c r="C266" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B267" s="3">
+        <v>1001020836761</v>
+      </c>
+      <c r="C267" t="s">
         <v>391</v>
-      </c>
-      <c r="B267" s="3">
-        <v>1001302596795</v>
-      </c>
-      <c r="C267" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B268" s="3">
-        <v>1001012486332</v>
+        <v>1001020836761</v>
       </c>
       <c r="C268" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B269" s="3">
-        <v>1001012566345</v>
+        <v>1001020846764</v>
       </c>
       <c r="C269" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="B270" s="3">
-        <v>1001031076528</v>
+        <v>1001020846764</v>
       </c>
       <c r="C270" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>428</v>
+        <v>392</v>
       </c>
       <c r="B271" s="3">
-        <v>1001020836761</v>
+        <v>1001020846764</v>
       </c>
       <c r="C271" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>433</v>
+        <v>493</v>
       </c>
       <c r="B272" s="3">
-        <v>1001020836761</v>
+        <v>1001300366790</v>
       </c>
       <c r="C272" t="s">
-        <v>405</v>
+        <v>359</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="B273" s="3">
-        <v>1001020836761</v>
+        <v>1001300366790</v>
       </c>
       <c r="C273" t="s">
-        <v>405</v>
+        <v>359</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>424</v>
+        <v>349</v>
       </c>
       <c r="B274" s="3">
-        <v>1001020846764</v>
+        <v>1001304096791</v>
       </c>
       <c r="C274" t="s">
-        <v>407</v>
+        <v>360</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>434</v>
+        <v>468</v>
       </c>
       <c r="B275" s="3">
-        <v>1001020846764</v>
+        <v>1001304096791</v>
       </c>
       <c r="C275" t="s">
-        <v>407</v>
+        <v>360</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="B276" s="3">
-        <v>1001020846764</v>
+        <v>1001304096791</v>
       </c>
       <c r="C276" t="s">
-        <v>407</v>
+        <v>360</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>507</v>
+        <v>396</v>
       </c>
       <c r="B277" s="3">
-        <v>1001300366790</v>
+        <v>1001303636793</v>
       </c>
       <c r="C277" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="B278" s="3">
-        <v>1001300366790</v>
+        <v>1001302596795</v>
       </c>
       <c r="C278" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>363</v>
+        <v>399</v>
       </c>
       <c r="B279" s="3">
-        <v>1001304096791</v>
+        <v>1001300516803</v>
       </c>
       <c r="C279" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>482</v>
+        <v>400</v>
       </c>
       <c r="B280" s="3">
-        <v>1001304096791</v>
+        <v>1001300456804</v>
       </c>
       <c r="C280" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B281" s="3">
-        <v>1001304096791</v>
+        <v>1001300366807</v>
       </c>
       <c r="C281" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B282" s="3">
-        <v>1001303636793</v>
+        <v>1001302596796</v>
       </c>
       <c r="C282" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>412</v>
+        <v>452</v>
       </c>
       <c r="B283" s="3">
-        <v>1001302596795</v>
+        <v>1001023696765</v>
       </c>
       <c r="C283" t="s">
-        <v>378</v>
+        <v>405</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>413</v>
+        <v>471</v>
       </c>
       <c r="B284" s="3">
-        <v>1001300516803</v>
+        <v>1001023696765</v>
       </c>
       <c r="C284" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="B285" s="3">
-        <v>1001300456804</v>
+        <v>1001023696765</v>
       </c>
       <c r="C285" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B286" s="3">
-        <v>1001300366807</v>
+        <v>1001023696767</v>
       </c>
       <c r="C286" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B287" s="3">
-        <v>1001302596796</v>
+        <v>1001023696767</v>
       </c>
       <c r="C287" t="s">
-        <v>379</v>
+        <v>409</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>466</v>
+        <v>408</v>
       </c>
       <c r="B288" s="3">
-        <v>1001023696765</v>
+        <v>1001023696767</v>
       </c>
       <c r="C288" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>485</v>
+        <v>411</v>
       </c>
       <c r="B289" s="3">
-        <v>1001023696765</v>
+        <v>1001024976829</v>
       </c>
       <c r="C289" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B290" s="3">
-        <v>1001023696765</v>
+        <v>1001024976829</v>
       </c>
       <c r="C290" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B291" s="3">
-        <v>1001023696767</v>
+        <v>1001022376722</v>
       </c>
       <c r="C291" t="s">
-        <v>423</v>
+        <v>119</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="B292" s="3">
-        <v>1001023696767</v>
+        <v>1001020846762</v>
       </c>
       <c r="C292" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>422</v>
+        <v>470</v>
       </c>
       <c r="B293" s="3">
-        <v>1001023696767</v>
+        <v>1001020846762</v>
       </c>
       <c r="C293" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -5566,417 +5563,417 @@
         <v>425</v>
       </c>
       <c r="B294" s="3">
-        <v>1001024976829</v>
+        <v>1001020846762</v>
       </c>
       <c r="C294" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>426</v>
+        <v>124</v>
       </c>
       <c r="B295" s="3">
-        <v>1001024976829</v>
+        <v>1001022656853</v>
       </c>
       <c r="C295" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>438</v>
+        <v>492</v>
       </c>
       <c r="B296" s="3">
-        <v>1001022376722</v>
+        <v>1001022656853</v>
       </c>
       <c r="C296" t="s">
-        <v>128</v>
+        <v>429</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>465</v>
+        <v>576</v>
       </c>
       <c r="B297" s="3">
-        <v>1001020846762</v>
+        <v>1001022656948</v>
       </c>
       <c r="C297" t="s">
-        <v>440</v>
+        <v>567</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>484</v>
+        <v>570</v>
       </c>
       <c r="B298" s="3">
-        <v>1001020846762</v>
+        <v>1001022656948</v>
       </c>
       <c r="C298" t="s">
-        <v>440</v>
+        <v>567</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="B299" s="3">
-        <v>1001020846762</v>
+        <v>1001022656948</v>
       </c>
       <c r="C299" t="s">
-        <v>440</v>
+        <v>567</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>134</v>
+        <v>434</v>
       </c>
       <c r="B300" s="3">
-        <v>1001022656853</v>
+        <v>1001022656852</v>
       </c>
       <c r="C300" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="B301" s="3">
-        <v>1001022656853</v>
+        <v>1001020836759</v>
       </c>
       <c r="C301" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>590</v>
+        <v>469</v>
       </c>
       <c r="B302" s="3">
-        <v>1001022656948</v>
+        <v>1001020836759</v>
       </c>
       <c r="C302" t="s">
-        <v>581</v>
+        <v>437</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>584</v>
+        <v>436</v>
       </c>
       <c r="B303" s="3">
-        <v>1001022656948</v>
+        <v>1001020836759</v>
       </c>
       <c r="C303" t="s">
-        <v>581</v>
+        <v>437</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B304" s="3">
-        <v>1001022656948</v>
+        <v>1001023856870</v>
       </c>
       <c r="C304" t="s">
-        <v>581</v>
+        <v>439</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B305" s="3">
-        <v>1001022656852</v>
+        <v>1001013956426</v>
       </c>
       <c r="C305" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="B306" s="3">
-        <v>1001020836759</v>
+        <v>1001093345495</v>
       </c>
       <c r="C306" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B307" s="3">
-        <v>1001020836759</v>
+        <v>1001022656868</v>
       </c>
       <c r="C307" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="B308" s="3">
-        <v>1001020836759</v>
+        <v>1001022656868</v>
       </c>
       <c r="C308" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>452</v>
+        <v>166</v>
       </c>
       <c r="B309" s="3">
-        <v>1001023856870</v>
+        <v>1001034065698</v>
       </c>
       <c r="C309" t="s">
-        <v>453</v>
+        <v>430</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>468</v>
+        <v>185</v>
       </c>
       <c r="B310" s="3">
-        <v>1001013956426</v>
+        <v>1001034065698</v>
       </c>
       <c r="C310" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="B311" s="3">
-        <v>1001093345495</v>
+        <v>1001034065698</v>
       </c>
       <c r="C311" t="s">
-        <v>457</v>
+        <v>430</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>499</v>
+        <v>461</v>
       </c>
       <c r="B312" s="3">
-        <v>1001022656868</v>
+        <v>1001034065698</v>
       </c>
       <c r="C312" t="s">
-        <v>472</v>
+        <v>430</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="B313" s="3">
-        <v>1001022656868</v>
+        <v>1001084216206</v>
       </c>
       <c r="C313" t="s">
-        <v>472</v>
+        <v>388</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>176</v>
+        <v>474</v>
       </c>
       <c r="B314" s="3">
-        <v>1001034065698</v>
+        <v>1001015646861</v>
       </c>
       <c r="C314" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>195</v>
+        <v>463</v>
       </c>
       <c r="B315" s="3">
-        <v>1001034065698</v>
+        <v>1001015646861</v>
       </c>
       <c r="C315" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>497</v>
+        <v>449</v>
       </c>
       <c r="B316" s="3">
-        <v>1001034065698</v>
+        <v>1001025176768</v>
       </c>
       <c r="C316" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B317" s="3">
-        <v>1001034065698</v>
+        <v>1001025176768</v>
       </c>
       <c r="C317" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="B318" s="3">
-        <v>1001084216206</v>
+        <v>1001025176768</v>
       </c>
       <c r="C318" t="s">
-        <v>402</v>
+        <v>450</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
       <c r="B319" s="3">
-        <v>1001015646861</v>
+        <v>1001025486770</v>
       </c>
       <c r="C319" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B320" s="3">
-        <v>1001015646861</v>
+        <v>1001025486770</v>
       </c>
       <c r="C320" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B321" s="3">
-        <v>1001025176768</v>
+        <v>1001025486770</v>
       </c>
       <c r="C321" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>486</v>
+        <v>208</v>
       </c>
       <c r="B322" s="3">
-        <v>1001025176768</v>
+        <v>1001012816340</v>
       </c>
       <c r="C322" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="B323" s="3">
-        <v>1001025176768</v>
+        <v>1001012816340</v>
       </c>
       <c r="C323" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B324" s="3">
-        <v>1001025486770</v>
+        <v>1001012816340</v>
       </c>
       <c r="C324" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>487</v>
+        <v>310</v>
       </c>
       <c r="B325" s="3">
-        <v>1001025486770</v>
+        <v>1001203146834</v>
       </c>
       <c r="C325" t="s">
-        <v>461</v>
+        <v>433</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="B326" s="3">
-        <v>1001025486770</v>
+        <v>1001203146834</v>
       </c>
       <c r="C326" t="s">
-        <v>461</v>
+        <v>433</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>218</v>
+        <v>484</v>
       </c>
       <c r="B327" s="3">
-        <v>1001012816340</v>
+        <v>1001203146834</v>
       </c>
       <c r="C327" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>501</v>
+        <v>467</v>
       </c>
       <c r="B328" s="3">
-        <v>1001012816340</v>
+        <v>1001203146834</v>
       </c>
       <c r="C328" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B329" s="3">
+        <v>1001300456788</v>
+      </c>
+      <c r="C329" t="s">
         <v>480</v>
-      </c>
-      <c r="B329" s="3">
-        <v>1001012816340</v>
-      </c>
-      <c r="C329" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>324</v>
+        <v>489</v>
       </c>
       <c r="B330" s="3">
-        <v>1001203146834</v>
+        <v>1001022556837</v>
       </c>
       <c r="C330" t="s">
-        <v>447</v>
+        <v>490</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="B331" s="3">
-        <v>1001203146834</v>
+        <v>1001300516786</v>
       </c>
       <c r="C331" t="s">
-        <v>447</v>
+        <v>495</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
@@ -5984,318 +5981,318 @@
         <v>498</v>
       </c>
       <c r="B332" s="3">
-        <v>1001203146834</v>
+        <v>1001214196459</v>
       </c>
       <c r="C332" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>481</v>
+        <v>551</v>
       </c>
       <c r="B333" s="3">
-        <v>1001203146834</v>
+        <v>1001092436495</v>
       </c>
       <c r="C333" t="s">
-        <v>447</v>
+        <v>501</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>493</v>
+        <v>558</v>
       </c>
       <c r="B334" s="3">
-        <v>1001300456788</v>
+        <v>1001092436495</v>
       </c>
       <c r="C334" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B335" s="3">
-        <v>1001022556837</v>
+        <v>1001092436495</v>
       </c>
       <c r="C335" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B336" s="3">
-        <v>1001300516786</v>
+        <v>1001025526901</v>
       </c>
       <c r="C336" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="B337" s="3">
-        <v>1001214196459</v>
+        <v>1001025546931</v>
       </c>
       <c r="C337" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>565</v>
+        <v>514</v>
       </c>
       <c r="B338" s="3">
-        <v>1001092436495</v>
+        <v>1001010016324</v>
       </c>
       <c r="C338" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>572</v>
+        <v>544</v>
       </c>
       <c r="B339" s="3">
-        <v>1001092436495</v>
+        <v>1001010016324</v>
       </c>
       <c r="C339" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B340" s="3">
-        <v>1001092436495</v>
+        <v>1001010016324</v>
       </c>
       <c r="C340" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B341" s="3">
-        <v>1001025526901</v>
+        <v>1001025766909</v>
       </c>
       <c r="C341" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>518</v>
+        <v>545</v>
       </c>
       <c r="B342" s="3">
-        <v>1001025546931</v>
+        <v>1001025766909</v>
       </c>
       <c r="C342" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="B343" s="3">
-        <v>1001010016324</v>
+        <v>1001025766909</v>
       </c>
       <c r="C343" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="B344" s="3">
-        <v>1001010016324</v>
+        <v>1001010014558</v>
       </c>
       <c r="C344" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="B345" s="3">
-        <v>1001010016324</v>
+        <v>1001010014558</v>
       </c>
       <c r="C345" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="B346" s="3">
-        <v>1001025766909</v>
+        <v>1001012596802</v>
       </c>
       <c r="C346" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="B347" s="3">
-        <v>1001025766909</v>
+        <v>1001012596802</v>
       </c>
       <c r="C347" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="B348" s="3">
-        <v>1001025766909</v>
+        <v>1001012596802</v>
       </c>
       <c r="C348" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>557</v>
+        <v>533</v>
       </c>
       <c r="B349" s="3">
-        <v>1001010014558</v>
+        <v>1001012596801</v>
       </c>
       <c r="C349" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="B350" s="3">
-        <v>1001010014558</v>
+        <v>1001012596801</v>
       </c>
       <c r="C350" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>552</v>
+        <v>517</v>
       </c>
       <c r="B351" s="3">
-        <v>1001012596802</v>
+        <v>1001012596801</v>
       </c>
       <c r="C351" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>561</v>
+        <v>519</v>
       </c>
       <c r="B352" s="3">
-        <v>1001012596802</v>
+        <v>1001062353684</v>
       </c>
       <c r="C352" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="B353" s="3">
-        <v>1001012596802</v>
+        <v>1001010014555</v>
       </c>
       <c r="C353" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="B354" s="3">
-        <v>1001012596801</v>
+        <v>1001083424691</v>
       </c>
       <c r="C354" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>560</v>
+        <v>525</v>
       </c>
       <c r="B355" s="3">
-        <v>1001012596801</v>
+        <v>1001190765679</v>
       </c>
       <c r="C355" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B356" s="3">
-        <v>1001012596801</v>
+        <v>1001085636200</v>
       </c>
       <c r="C356" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B357" s="3">
-        <v>1001062353684</v>
+        <v>1001020836253</v>
       </c>
       <c r="C357" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B358" s="3">
-        <v>1001010014555</v>
+        <v>1001084226492</v>
       </c>
       <c r="C358" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B359" s="3">
-        <v>1001083424691</v>
+        <v>1001223296921</v>
       </c>
       <c r="C359" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B360" s="3">
-        <v>1001190765679</v>
+        <v>1001053944786</v>
       </c>
       <c r="C360" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -6303,7 +6300,7 @@
         <v>541</v>
       </c>
       <c r="B361" s="3">
-        <v>1001085636200</v>
+        <v>1001010016839</v>
       </c>
       <c r="C361" t="s">
         <v>542</v>
@@ -6311,479 +6308,457 @@
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="B362" s="3">
-        <v>1001020836253</v>
+        <v>1001023857038</v>
       </c>
       <c r="C362" t="s">
-        <v>544</v>
+        <v>589</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="B363" s="3">
-        <v>1001084226492</v>
+        <v>1001040434903</v>
       </c>
       <c r="C363" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B364" s="3">
-        <v>1001223296921</v>
+        <v>1001080216842</v>
       </c>
       <c r="C364" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="B365" s="3">
-        <v>1001053944786</v>
+        <v>1001022466951</v>
       </c>
       <c r="C365" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="B366" s="3">
-        <v>1001010016839</v>
+        <v>1001022466951</v>
       </c>
       <c r="C366" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="B367" s="3">
-        <v>1001023857038</v>
+        <v>1001035276653</v>
       </c>
       <c r="C367" t="s">
-        <v>604</v>
+        <v>574</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="B368" s="3">
-        <v>1001040434903</v>
+        <v>1001062353680</v>
       </c>
       <c r="C368" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
       <c r="B369" s="3">
-        <v>1001080216842</v>
+        <v>1001061971146</v>
       </c>
       <c r="C369" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="B370" s="3">
-        <v>1001022466951</v>
+        <v>1001225636201</v>
       </c>
       <c r="C370" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B371" s="3">
-        <v>1001022466951</v>
+        <v>1001020836724</v>
       </c>
       <c r="C371" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B372" s="3">
+        <v>1001095227035</v>
+      </c>
+      <c r="C372" t="s">
         <v>587</v>
-      </c>
-      <c r="B372" s="3">
-        <v>1001035276653</v>
-      </c>
-      <c r="C372" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B373" s="3">
-        <v>1001062353680</v>
+        <v>1001023857038</v>
       </c>
       <c r="C373" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B374" s="3">
-        <v>1001061971146</v>
+        <v>1001025027040</v>
       </c>
       <c r="C374" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B375" s="3">
-        <v>1001225636201</v>
+        <v>1001223297103</v>
       </c>
       <c r="C375" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="B376" s="3">
-        <v>1001020836724</v>
+        <v>1001223297103</v>
       </c>
       <c r="C376" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="B377" s="3">
-        <v>1001095227035</v>
+        <v>1001223297103</v>
       </c>
       <c r="C377" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="B378" s="3">
-        <v>1001023857038</v>
+        <v>1001010032675</v>
       </c>
       <c r="C378" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="B379" s="3">
-        <v>1001025027040</v>
+        <v>1001010032675</v>
       </c>
       <c r="C379" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>607</v>
+        <v>620</v>
       </c>
       <c r="B380" s="3">
-        <v>1001223297103</v>
+        <v>1001035937001</v>
       </c>
       <c r="C380" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="B381" s="3">
-        <v>1001223297103</v>
+        <v>1001035937001</v>
       </c>
       <c r="C381" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>608</v>
+        <v>621</v>
       </c>
       <c r="B382" s="3">
-        <v>1001223297103</v>
+        <v>1001084217090</v>
       </c>
       <c r="C382" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>630</v>
+        <v>599</v>
       </c>
       <c r="B383" s="3">
-        <v>1001010032675</v>
+        <v>1001084217090</v>
       </c>
       <c r="C383" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="B384" s="3">
-        <v>1001010032675</v>
+        <v>1001022377066</v>
       </c>
       <c r="C384" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>635</v>
+        <v>601</v>
       </c>
       <c r="B385" s="3">
-        <v>1001035937001</v>
+        <v>1001022377066</v>
       </c>
       <c r="C385" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="B386" s="3">
-        <v>1001035937001</v>
+        <v>1001022467080</v>
       </c>
       <c r="C386" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>636</v>
+        <v>603</v>
       </c>
       <c r="B387" s="3">
-        <v>1001084217090</v>
+        <v>1001022467080</v>
       </c>
       <c r="C387" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="B388" s="3">
-        <v>1001084217090</v>
+        <v>1001025507077</v>
       </c>
       <c r="C388" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>637</v>
+        <v>605</v>
       </c>
       <c r="B389" s="3">
-        <v>1001022377066</v>
+        <v>1001025507077</v>
       </c>
       <c r="C389" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="B390" s="3">
-        <v>1001022377066</v>
+        <v>1001022657075</v>
       </c>
       <c r="C390" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>638</v>
+        <v>607</v>
       </c>
       <c r="B391" s="3">
-        <v>1001022467080</v>
+        <v>1001022657075</v>
       </c>
       <c r="C391" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="B392" s="3">
-        <v>1001022467080</v>
+        <v>1001022467082</v>
       </c>
       <c r="C392" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>639</v>
+        <v>609</v>
       </c>
       <c r="B393" s="3">
-        <v>1001025507077</v>
+        <v>1001022467082</v>
       </c>
       <c r="C393" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="B394" s="3">
-        <v>1001025507077</v>
+        <v>1001022377070</v>
       </c>
       <c r="C394" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>642</v>
+        <v>611</v>
       </c>
       <c r="B395" s="3">
-        <v>1001022657075</v>
+        <v>1001022377070</v>
       </c>
       <c r="C395" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="B396" s="3">
-        <v>1001022657075</v>
+        <v>1001022657073</v>
       </c>
       <c r="C396" t="s">
-        <v>623</v>
+        <v>614</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>640</v>
+        <v>613</v>
       </c>
       <c r="B397" s="3">
-        <v>1001022467082</v>
+        <v>1001022657073</v>
       </c>
       <c r="C397" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="B398" s="3">
-        <v>1001022467082</v>
+        <v>1001010027126</v>
       </c>
       <c r="C398" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>641</v>
+        <v>616</v>
       </c>
       <c r="B399" s="3">
-        <v>1001022377070</v>
+        <v>1001010027126</v>
       </c>
       <c r="C399" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="B400" s="3">
-        <v>1001022377070</v>
+        <v>1001010027125</v>
       </c>
       <c r="C400" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B401" s="3">
-        <v>1001022657073</v>
+        <v>1001010027125</v>
       </c>
       <c r="C401" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>628</v>
+        <v>641</v>
       </c>
       <c r="B402" s="3">
-        <v>1001022657073</v>
+        <v>1001016366888</v>
       </c>
       <c r="C402" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A403" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="B403" s="3">
-        <v>1001010027126</v>
-      </c>
-      <c r="C403" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A404" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="B404" s="3">
-        <v>1001010027125</v>
-      </c>
-      <c r="C404" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C404" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C401" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/NV/moduls/1С.xlsx
+++ b/NV/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\NV\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E01609E-3390-4AD6-98E3-CC94939FF434}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FED85F0-C333-413F-B15A-4A4B089C1CB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$401</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$412</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="659">
   <si>
     <t>1С</t>
   </si>
@@ -1963,6 +1963,54 @@
   </si>
   <si>
     <t>С ГРУДИНКОЙ вар б/о в/у срез 0.4кг 8шт.</t>
+  </si>
+  <si>
+    <t>7133 СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у 0.84кг</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у 0.84кг</t>
+  </si>
+  <si>
+    <t>7131 БАЛЫКОВАЯ в/к в/у 0.84кг</t>
+  </si>
+  <si>
+    <t>БАЛЫКОВАЯ в/к в/у 0.84кг</t>
+  </si>
+  <si>
+    <t>7146 МРАМОРНАЯ ПРЕМИУМ в/к в/у</t>
+  </si>
+  <si>
+    <t>МРАМОРНАЯ ПРЕМИУМ в/к в/у</t>
+  </si>
+  <si>
+    <t>7134 САЛЯМИ ВЕНСКАЯ п/к в/у 0.84кг 6шт.</t>
+  </si>
+  <si>
+    <t>САЛЯМИ ВЕНСКАЯ п/к в/у 0.84кг 6шт.</t>
+  </si>
+  <si>
+    <t>7135 СЕРВЕЛАТ КРЕМЛЕВСКИЙ в/к в/у 0.84кг 6шт.</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ КРЕМЛЕВСКИЙ в/к в/у 0.84кг 6шт.</t>
+  </si>
+  <si>
+    <t>7144 МРАМОРНАЯ ПРЕМИУМ в/к в/у 0.33кг 8шт.</t>
+  </si>
+  <si>
+    <t>МРАМОРНАЯ ПРЕМИУМ в/к в/у 0.33кг 8шт.</t>
+  </si>
+  <si>
+    <t>7166 СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у_50с  Останкино</t>
+  </si>
+  <si>
+    <t>7154 СЕРВЕЛАТ ЗЕРНИСТЫЙ ПМ в/к в/у 0,35кг_50с  Останкино</t>
+  </si>
+  <si>
+    <t>7169 СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у 0,35кг_50с  Останкино</t>
+  </si>
+  <si>
+    <t>7149 БАЛЫКОВАЯ Коровино п/к в/у 0,84кг_50с  Останкино</t>
   </si>
 </sst>
 </file>
@@ -2317,11 +2365,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F402"/>
+  <dimension ref="A1:F412"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2589,7 +2637,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>629</v>
+        <v>655</v>
       </c>
       <c r="B24" s="3">
         <v>1001303987166</v>
@@ -2600,95 +2648,95 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>629</v>
       </c>
       <c r="B25" s="3">
-        <v>1001062505483</v>
+        <v>1001303987166</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>630</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>1001051875544</v>
+        <v>1001062505483</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B27" s="3">
-        <v>1001193115682</v>
+        <v>1001051875544</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B28" s="3">
-        <v>1001061975706</v>
+        <v>1001193115682</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B29" s="3">
-        <v>1001063145708</v>
+        <v>1001061975706</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B30" s="3">
-        <v>1001022465820</v>
+        <v>1001063145708</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B31" s="3">
-        <v>1001012505851</v>
+        <v>1001022465820</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>290</v>
+        <v>40</v>
       </c>
       <c r="B32" s="3">
-        <v>1001060755931</v>
+        <v>1001012505851</v>
       </c>
       <c r="C32" t="s">
-        <v>418</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>290</v>
       </c>
       <c r="B33" s="3">
         <v>1001060755931</v>
@@ -2699,62 +2747,62 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34" s="3">
-        <v>1001012815997</v>
+        <v>1001060755931</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>418</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B35" s="3">
-        <v>1001024906042</v>
+        <v>1001012815997</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B36" s="3">
-        <v>1001024976829</v>
+        <v>1001024906042</v>
       </c>
       <c r="C36" t="s">
-        <v>403</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B37" s="3">
-        <v>1001220286279</v>
+        <v>1001024976829</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>403</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>445</v>
+        <v>48</v>
       </c>
       <c r="B38" s="3">
-        <v>1001084216206</v>
+        <v>1001220286279</v>
       </c>
       <c r="C38" t="s">
-        <v>388</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>50</v>
+        <v>445</v>
       </c>
       <c r="B39" s="3">
         <v>1001084216206</v>
@@ -2765,18 +2813,18 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>486</v>
+        <v>50</v>
       </c>
       <c r="B40" s="3">
-        <v>1001022556069</v>
+        <v>1001084216206</v>
       </c>
       <c r="C40" t="s">
-        <v>476</v>
+        <v>388</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>51</v>
+        <v>486</v>
       </c>
       <c r="B41" s="3">
         <v>1001022556069</v>
@@ -2784,429 +2832,429 @@
       <c r="C41" t="s">
         <v>476</v>
       </c>
-      <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42" s="3">
-        <v>1001010106325</v>
+        <v>1001022556069</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="F42" s="3"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B43" s="3">
-        <v>1001012486333</v>
+        <v>1001010106325</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B44" s="3">
-        <v>1001012506353</v>
+        <v>1001012486333</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="B45" s="3">
-        <v>1001304506684</v>
+        <v>1001012506353</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B46" s="3">
-        <v>1001303056692</v>
+        <v>1001304506684</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>631</v>
+        <v>116</v>
       </c>
       <c r="B47" s="3">
-        <v>1001303637149</v>
+        <v>1001303056692</v>
       </c>
       <c r="C47" t="s">
-        <v>632</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>61</v>
+        <v>658</v>
       </c>
       <c r="B48" s="3">
-        <v>1001013956426</v>
+        <v>1001303637149</v>
       </c>
       <c r="C48" t="s">
-        <v>432</v>
+        <v>632</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>62</v>
+        <v>631</v>
       </c>
       <c r="B49" s="3">
-        <v>1001024636438</v>
+        <v>1001303637149</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>632</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B50" s="3">
-        <v>1001234146448</v>
+        <v>1001013956426</v>
       </c>
       <c r="C50" t="s">
-        <v>65</v>
+        <v>432</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>291</v>
+        <v>62</v>
       </c>
       <c r="B51" s="3">
-        <v>1001202506453</v>
+        <v>1001024636438</v>
       </c>
       <c r="C51" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B52" s="3">
-        <v>1001202506453</v>
+        <v>1001234146448</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>69</v>
+        <v>291</v>
       </c>
       <c r="B53" s="3">
-        <v>1001201976454</v>
+        <v>1001202506453</v>
       </c>
       <c r="C53" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B54" s="3">
-        <v>1001025176475</v>
+        <v>1001202506453</v>
       </c>
       <c r="C54" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="B55" s="3">
-        <v>1001301876697</v>
+        <v>1001201976454</v>
       </c>
       <c r="C55" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B56" s="3">
-        <v>1001024636517</v>
+        <v>1001025176475</v>
       </c>
       <c r="C56" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="B57" s="3">
-        <v>1001031076527</v>
+        <v>1001301876697</v>
       </c>
       <c r="C57" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B58" s="3">
-        <v>1001304506562</v>
+        <v>1001024636517</v>
       </c>
       <c r="C58" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B59" s="3">
-        <v>1001020846563</v>
+        <v>1001031076527</v>
       </c>
       <c r="C59" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B60" s="3">
-        <v>1001020836589</v>
+        <v>1001304506562</v>
       </c>
       <c r="C60" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B61" s="3">
-        <v>6751</v>
+        <v>1001020846563</v>
       </c>
       <c r="C61" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B62" s="3">
-        <v>1001010016592</v>
+        <v>1001020836589</v>
       </c>
       <c r="C62" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B63" s="3">
-        <v>1001010026594</v>
+        <v>6751</v>
       </c>
       <c r="C63" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B64" s="3">
-        <v>1001022296601</v>
+        <v>1001010016592</v>
       </c>
       <c r="C64" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B65" s="3">
-        <v>1001031896648</v>
+        <v>1001010026594</v>
       </c>
       <c r="C65" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B66" s="3">
-        <v>1001035266650</v>
+        <v>1001022296601</v>
       </c>
       <c r="C66" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B67" s="3">
-        <v>1001305256658</v>
+        <v>1001031896648</v>
       </c>
       <c r="C67" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B68" s="3">
-        <v>1001010016593</v>
+        <v>1001035266650</v>
       </c>
       <c r="C68" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B69" s="3">
-        <v>1001010026595</v>
+        <v>1001305256658</v>
       </c>
       <c r="C69" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B70" s="3">
+        <v>1001010016593</v>
+      </c>
+      <c r="C70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B71" s="3">
+        <v>1001010026595</v>
+      </c>
+      <c r="C71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B72" s="3">
         <v>1001010036597</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C72" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B73" s="3">
         <v>1001020886646</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C73" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B74" s="3">
         <v>1001305306566</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C74" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B73" s="3">
-        <v>1001305306566</v>
-      </c>
-      <c r="C73" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="B74" s="3">
-        <v>1001300387154</v>
-      </c>
-      <c r="C74" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>637</v>
+        <v>113</v>
       </c>
       <c r="B75" s="3">
-        <v>1001303987169</v>
+        <v>1001305306566</v>
       </c>
       <c r="C75" t="s">
-        <v>638</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>234</v>
+        <v>656</v>
       </c>
       <c r="B76" s="3">
-        <v>1001303106773</v>
+        <v>1001300387154</v>
       </c>
       <c r="C76" t="s">
-        <v>340</v>
+        <v>636</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B77" s="5">
-        <v>1001303106773</v>
+        <v>635</v>
+      </c>
+      <c r="B77" s="3">
+        <v>1001300387154</v>
       </c>
       <c r="C77" t="s">
-        <v>340</v>
+        <v>636</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B78" s="5">
-        <v>1001303106773</v>
+        <v>657</v>
+      </c>
+      <c r="B78" s="3">
+        <v>1001303987169</v>
       </c>
       <c r="C78" t="s">
-        <v>340</v>
+        <v>638</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>117</v>
+        <v>637</v>
       </c>
       <c r="B79" s="3">
-        <v>1001303106773</v>
+        <v>1001303987169</v>
       </c>
       <c r="C79" t="s">
-        <v>340</v>
+        <v>638</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>387</v>
+        <v>234</v>
       </c>
       <c r="B80" s="3">
         <v>1001303106773</v>
@@ -3217,9 +3265,9 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B81" s="3">
+        <v>347</v>
+      </c>
+      <c r="B81" s="5">
         <v>1001303106773</v>
       </c>
       <c r="C81" t="s">
@@ -3228,9 +3276,9 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B82" s="3">
+        <v>266</v>
+      </c>
+      <c r="B82" s="5">
         <v>1001303106773</v>
       </c>
       <c r="C82" t="s">
@@ -3239,381 +3287,381 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>223</v>
+        <v>117</v>
       </c>
       <c r="B83" s="3">
-        <v>1001012566392</v>
+        <v>1001303106773</v>
       </c>
       <c r="C83" t="s">
-        <v>56</v>
+        <v>340</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="B84" s="3">
-        <v>1001012566392</v>
+        <v>1001303106773</v>
       </c>
       <c r="C84" t="s">
-        <v>56</v>
+        <v>340</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>120</v>
+        <v>385</v>
       </c>
       <c r="B85" s="3">
-        <v>1001012566392</v>
+        <v>1001303106773</v>
       </c>
       <c r="C85" t="s">
-        <v>56</v>
+        <v>340</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>633</v>
+        <v>382</v>
       </c>
       <c r="B86" s="3">
-        <v>1001302277173</v>
+        <v>1001303106773</v>
       </c>
       <c r="C86" t="s">
-        <v>634</v>
+        <v>340</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>123</v>
+        <v>223</v>
       </c>
       <c r="B87" s="3">
-        <v>1001012426268</v>
+        <v>1001012566392</v>
       </c>
       <c r="C87" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>128</v>
+        <v>417</v>
       </c>
       <c r="B88" s="3">
-        <v>1001024906041</v>
+        <v>1001012566392</v>
       </c>
       <c r="C88" t="s">
-        <v>127</v>
+        <v>56</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B89" s="3">
-        <v>1001011086247</v>
+        <v>1001012566392</v>
       </c>
       <c r="C89" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>148</v>
+        <v>633</v>
       </c>
       <c r="B90" s="3">
-        <v>1001014486158</v>
+        <v>1001302277173</v>
       </c>
       <c r="C90" t="s">
-        <v>141</v>
+        <v>634</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="B91" s="3">
-        <v>1001015356259</v>
+        <v>1001012426268</v>
       </c>
       <c r="C91" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="B92" s="3">
-        <v>1001012816716</v>
+        <v>1001024906041</v>
       </c>
       <c r="C92" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>322</v>
+        <v>125</v>
       </c>
       <c r="B93" s="3">
-        <v>1001020966227</v>
+        <v>1001011086247</v>
       </c>
       <c r="C93" t="s">
-        <v>321</v>
+        <v>126</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="B94" s="3">
-        <v>1001020966227</v>
+        <v>1001014486158</v>
       </c>
       <c r="C94" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>221</v>
+        <v>150</v>
       </c>
       <c r="B95" s="3">
-        <v>1001022726303</v>
+        <v>1001015356259</v>
       </c>
       <c r="C95" t="s">
-        <v>254</v>
+        <v>142</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>253</v>
+        <v>152</v>
       </c>
       <c r="B96" s="3">
-        <v>1001022726303</v>
+        <v>1001012816716</v>
       </c>
       <c r="C96" t="s">
-        <v>254</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="B97" s="3">
-        <v>1001022726303</v>
+        <v>1001020966227</v>
       </c>
       <c r="C97" t="s">
-        <v>254</v>
+        <v>321</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="B98" s="3">
-        <v>1001022726303</v>
+        <v>1001020966227</v>
       </c>
       <c r="C98" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>108</v>
+        <v>221</v>
       </c>
       <c r="B99" s="3">
-        <v>1001022466726</v>
+        <v>1001022726303</v>
       </c>
       <c r="C99" t="s">
-        <v>109</v>
+        <v>254</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>147</v>
+        <v>253</v>
       </c>
       <c r="B100" s="3">
-        <v>1001020966144</v>
+        <v>1001022726303</v>
       </c>
       <c r="C100" t="s">
-        <v>144</v>
+        <v>254</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>121</v>
+        <v>339</v>
       </c>
       <c r="B101" s="3">
-        <v>1001022376722</v>
+        <v>1001022726303</v>
       </c>
       <c r="C101" t="s">
-        <v>119</v>
+        <v>254</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>577</v>
+        <v>153</v>
       </c>
       <c r="B102" s="3">
-        <v>1001022376955</v>
+        <v>1001022726303</v>
       </c>
       <c r="C102" t="s">
-        <v>568</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>575</v>
+        <v>108</v>
       </c>
       <c r="B103" s="3">
-        <v>1001022376955</v>
+        <v>1001022466726</v>
       </c>
       <c r="C103" t="s">
-        <v>568</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="B104" s="3">
-        <v>1001022376955</v>
+        <v>1001020966144</v>
       </c>
       <c r="C104" t="s">
-        <v>568</v>
+        <v>144</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>246</v>
+        <v>121</v>
       </c>
       <c r="B105" s="3">
-        <v>1001022246661</v>
+        <v>1001022376722</v>
       </c>
       <c r="C105" t="s">
-        <v>247</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>318</v>
+        <v>577</v>
       </c>
       <c r="B106" s="3">
-        <v>1001022246661</v>
+        <v>1001022376955</v>
       </c>
       <c r="C106" t="s">
-        <v>247</v>
+        <v>568</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>133</v>
+        <v>575</v>
       </c>
       <c r="B107" s="3">
-        <v>1001022246661</v>
+        <v>1001022376955</v>
       </c>
       <c r="C107" t="s">
-        <v>135</v>
+        <v>568</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B108" s="3">
-        <v>1001022246713</v>
+        <v>1001022376955</v>
       </c>
       <c r="C108" t="s">
-        <v>110</v>
+        <v>568</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>136</v>
+        <v>246</v>
       </c>
       <c r="B109" s="3">
-        <v>1001025166241</v>
+        <v>1001022246661</v>
       </c>
       <c r="C109" t="s">
-        <v>140</v>
+        <v>247</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>154</v>
+        <v>318</v>
       </c>
       <c r="B110" s="3">
-        <v>6606</v>
+        <v>1001022246661</v>
       </c>
       <c r="C110" t="s">
-        <v>156</v>
+        <v>247</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B111" s="3">
-        <v>1001035326217</v>
+        <v>1001022246661</v>
       </c>
       <c r="C111" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B112" s="3">
-        <v>1001303636301</v>
+        <v>1001022246713</v>
       </c>
       <c r="C112" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="B113" s="3">
-        <v>1001303636302</v>
+        <v>1001025166241</v>
       </c>
       <c r="C113" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="B114" s="3">
-        <v>1001305196215</v>
+        <v>6606</v>
       </c>
       <c r="C114" t="s">
-        <v>79</v>
+        <v>156</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B115" s="3">
-        <v>1001301876212</v>
+        <v>1001035326217</v>
       </c>
       <c r="C115" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="B116" s="3">
-        <v>1001301876213</v>
+        <v>1001303636301</v>
       </c>
       <c r="C116" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="B117" s="3">
         <v>1001303636302</v>
@@ -3624,568 +3672,568 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="B118" s="3">
-        <v>6645</v>
+        <v>1001305196215</v>
       </c>
       <c r="C118" t="s">
-        <v>158</v>
+        <v>79</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B119" s="3">
-        <v>1001225416228</v>
+        <v>1001301876212</v>
       </c>
       <c r="C119" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="B120" s="3">
-        <v>6225</v>
+        <v>1001301876213</v>
       </c>
       <c r="C120" t="s">
-        <v>270</v>
+        <v>78</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B121" s="3">
-        <v>1001022376722</v>
+        <v>1001303636302</v>
       </c>
       <c r="C121" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B122" s="3">
-        <v>1001022376722</v>
+        <v>6645</v>
       </c>
       <c r="C122" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B123" s="3">
-        <v>3297</v>
+        <v>1001225416228</v>
       </c>
       <c r="C123" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>312</v>
+        <v>162</v>
       </c>
       <c r="B124" s="3">
-        <v>1001022466726</v>
+        <v>6225</v>
       </c>
       <c r="C124" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>289</v>
+        <v>163</v>
       </c>
       <c r="B125" s="3">
-        <v>1001022466726</v>
+        <v>1001022376722</v>
       </c>
       <c r="C125" t="s">
-        <v>288</v>
+        <v>119</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B126" s="3">
-        <v>1001022466726</v>
+        <v>1001022376722</v>
       </c>
       <c r="C126" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B127" s="3">
-        <v>1001021966602</v>
+        <v>3297</v>
       </c>
       <c r="C127" t="s">
-        <v>281</v>
+        <v>165</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>171</v>
+        <v>312</v>
       </c>
       <c r="B128" s="3">
-        <v>6233</v>
+        <v>1001022466726</v>
       </c>
       <c r="C128" t="s">
-        <v>170</v>
+        <v>288</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="B129" s="3">
-        <v>1001012816341</v>
+        <v>1001022466726</v>
       </c>
       <c r="C129" t="s">
-        <v>442</v>
+        <v>288</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>488</v>
+        <v>168</v>
       </c>
       <c r="B130" s="3">
-        <v>1001012816341</v>
+        <v>1001022466726</v>
       </c>
       <c r="C130" t="s">
-        <v>442</v>
+        <v>109</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>491</v>
+        <v>169</v>
       </c>
       <c r="B131" s="3">
-        <v>1001012816341</v>
+        <v>1001021966602</v>
       </c>
       <c r="C131" t="s">
-        <v>442</v>
+        <v>281</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B132" s="3">
-        <v>1001012816341</v>
+        <v>6233</v>
       </c>
       <c r="C132" t="s">
-        <v>442</v>
+        <v>170</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="B133" s="3">
-        <v>6750</v>
+        <v>1001012816341</v>
       </c>
       <c r="C133" t="s">
-        <v>85</v>
+        <v>442</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>174</v>
+        <v>488</v>
       </c>
       <c r="B134" s="3">
-        <v>6751</v>
+        <v>1001012816341</v>
       </c>
       <c r="C134" t="s">
-        <v>87</v>
+        <v>442</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>175</v>
+        <v>491</v>
       </c>
       <c r="B135" s="3">
-        <v>5982</v>
+        <v>1001012816341</v>
       </c>
       <c r="C135" t="s">
-        <v>176</v>
+        <v>442</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>539</v>
+        <v>172</v>
       </c>
       <c r="B136" s="3">
-        <v>1001022656854</v>
+        <v>1001012816341</v>
       </c>
       <c r="C136" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>556</v>
+        <v>173</v>
       </c>
       <c r="B137" s="3">
-        <v>1001022656854</v>
+        <v>6750</v>
       </c>
       <c r="C137" t="s">
-        <v>431</v>
+        <v>85</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>455</v>
+        <v>174</v>
       </c>
       <c r="B138" s="3">
-        <v>1001022656854</v>
+        <v>6751</v>
       </c>
       <c r="C138" t="s">
-        <v>431</v>
+        <v>87</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B139" s="3">
-        <v>1001022656854</v>
+        <v>5982</v>
       </c>
       <c r="C139" t="s">
-        <v>431</v>
+        <v>176</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>183</v>
+        <v>539</v>
       </c>
       <c r="B140" s="3">
-        <v>1001094966025</v>
+        <v>1001022656854</v>
       </c>
       <c r="C140" t="s">
-        <v>179</v>
+        <v>431</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>178</v>
+        <v>556</v>
       </c>
       <c r="B141" s="3">
-        <v>6025</v>
+        <v>1001022656854</v>
       </c>
       <c r="C141" t="s">
-        <v>179</v>
+        <v>431</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>182</v>
+        <v>455</v>
       </c>
       <c r="B142" s="3">
-        <v>6221</v>
+        <v>1001022656854</v>
       </c>
       <c r="C142" t="s">
-        <v>181</v>
+        <v>431</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B143" s="3">
-        <v>1001205376221</v>
+        <v>1001022656854</v>
       </c>
       <c r="C143" t="s">
-        <v>181</v>
+        <v>431</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B144" s="3">
-        <v>1001022373812</v>
+        <v>1001094966025</v>
       </c>
       <c r="C144" t="s">
-        <v>3</v>
+        <v>179</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B145" s="3">
-        <v>1001100606827</v>
+        <v>6025</v>
       </c>
       <c r="C145" t="s">
-        <v>329</v>
+        <v>179</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>341</v>
+        <v>182</v>
       </c>
       <c r="B146" s="3">
-        <v>1001100606827</v>
+        <v>6221</v>
       </c>
       <c r="C146" t="s">
-        <v>329</v>
+        <v>181</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B147" s="3">
-        <v>1001100616826</v>
+        <v>1001205376221</v>
       </c>
       <c r="C147" t="s">
-        <v>330</v>
+        <v>181</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>342</v>
+        <v>186</v>
       </c>
       <c r="B148" s="3">
-        <v>1001100616826</v>
+        <v>1001022373812</v>
       </c>
       <c r="C148" t="s">
-        <v>330</v>
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B149" s="3">
-        <v>1001100626828</v>
+        <v>1001100606827</v>
       </c>
       <c r="C149" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B150" s="3">
-        <v>1001100626828</v>
+        <v>1001100606827</v>
       </c>
       <c r="C150" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B151" s="3">
-        <v>1001035026308</v>
+        <v>1001100616826</v>
       </c>
       <c r="C151" t="s">
-        <v>191</v>
+        <v>330</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>560</v>
+        <v>342</v>
       </c>
       <c r="B152" s="3">
-        <v>1001014486159</v>
+        <v>1001100616826</v>
       </c>
       <c r="C152" t="s">
-        <v>561</v>
+        <v>330</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B153" s="3">
-        <v>1001014486159</v>
+        <v>1001100626828</v>
       </c>
       <c r="C153" t="s">
-        <v>193</v>
+        <v>331</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>194</v>
+        <v>343</v>
       </c>
       <c r="B154" s="3">
-        <v>1001035326217</v>
+        <v>1001100626828</v>
       </c>
       <c r="C154" t="s">
-        <v>285</v>
+        <v>331</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>506</v>
+        <v>190</v>
       </c>
       <c r="B155" s="3">
-        <v>1001012426220</v>
+        <v>1001035026308</v>
       </c>
       <c r="C155" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>195</v>
+        <v>560</v>
       </c>
       <c r="B156" s="3">
-        <v>1001012426220</v>
+        <v>1001014486159</v>
       </c>
       <c r="C156" t="s">
-        <v>196</v>
+        <v>561</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B157" s="3">
-        <v>1001022466236</v>
+        <v>1001014486159</v>
       </c>
       <c r="C157" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B158" s="3">
-        <v>1001021966602</v>
+        <v>1001035326217</v>
       </c>
       <c r="C158" t="s">
-        <v>200</v>
+        <v>285</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>201</v>
+        <v>506</v>
       </c>
       <c r="B159" s="3">
-        <v>1001022296656</v>
+        <v>1001012426220</v>
       </c>
       <c r="C159" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B160" s="3">
-        <v>1001304506684</v>
+        <v>1001012426220</v>
       </c>
       <c r="C160" t="s">
-        <v>59</v>
+        <v>196</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B161" s="3">
-        <v>1001301876697</v>
+        <v>1001022466236</v>
       </c>
       <c r="C161" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B162" s="3">
-        <v>1001022246713</v>
+        <v>1001021966602</v>
       </c>
       <c r="C162" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B163" s="3">
-        <v>1001022376722</v>
+        <v>1001022296656</v>
       </c>
       <c r="C163" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B164" s="3">
-        <v>1001020846751</v>
+        <v>1001304506684</v>
       </c>
       <c r="C164" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B165" s="3">
-        <v>1001022725819</v>
+        <v>1001301876697</v>
       </c>
       <c r="C165" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B166" s="3">
-        <v>1001012825337</v>
+        <v>1001022246713</v>
       </c>
       <c r="C166" t="s">
-        <v>27</v>
+        <v>207</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B167" s="3">
-        <v>1001012815336</v>
+        <v>1001022376722</v>
       </c>
       <c r="C167" t="s">
-        <v>25</v>
+        <v>210</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B168" s="3">
-        <v>1001234146448</v>
+        <v>1001020846751</v>
       </c>
       <c r="C168" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B169" s="3">
         <v>1001022725819</v>
@@ -4196,645 +4244,645 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B170" s="3">
-        <v>1001092676027</v>
+        <v>1001012825337</v>
       </c>
       <c r="C170" t="s">
-        <v>219</v>
+        <v>27</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B171" s="3">
-        <v>1001301876213</v>
+        <v>1001012815336</v>
       </c>
       <c r="C171" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B172" s="3">
-        <v>1001035026308</v>
+        <v>1001234146448</v>
       </c>
       <c r="C172" t="s">
-        <v>407</v>
+        <v>65</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B173" s="3">
-        <v>1001234146448</v>
+        <v>1001022725819</v>
       </c>
       <c r="C173" t="s">
-        <v>65</v>
+        <v>213</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B174" s="3">
-        <v>1001201976454</v>
+        <v>1001092676027</v>
       </c>
       <c r="C174" t="s">
-        <v>70</v>
+        <v>219</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B175" s="3">
-        <v>1001025176475</v>
+        <v>1001301876213</v>
       </c>
       <c r="C175" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B176" s="3">
-        <v>1001012456498</v>
+        <v>1001035026308</v>
       </c>
       <c r="C176" t="s">
-        <v>229</v>
+        <v>407</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B177" s="3">
-        <v>1001010036596</v>
+        <v>1001234146448</v>
       </c>
       <c r="C177" t="s">
-        <v>231</v>
+        <v>65</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>571</v>
+        <v>226</v>
       </c>
       <c r="B178" s="3">
-        <v>1001033856608</v>
+        <v>1001201976454</v>
       </c>
       <c r="C178" t="s">
-        <v>562</v>
+        <v>70</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>564</v>
+        <v>227</v>
       </c>
       <c r="B179" s="3">
-        <v>1001033856608</v>
+        <v>1001025176475</v>
       </c>
       <c r="C179" t="s">
-        <v>562</v>
+        <v>72</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>572</v>
+        <v>228</v>
       </c>
       <c r="B180" s="3">
-        <v>1001033856609</v>
+        <v>1001012456498</v>
       </c>
       <c r="C180" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B181" s="3">
-        <v>1001033856609</v>
+        <v>1001010036596</v>
       </c>
       <c r="C181" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>235</v>
+        <v>571</v>
       </c>
       <c r="B182" s="3">
-        <v>1001093345495</v>
+        <v>1001033856608</v>
       </c>
       <c r="C182" t="s">
-        <v>443</v>
+        <v>562</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>237</v>
+        <v>564</v>
       </c>
       <c r="B183" s="3">
-        <v>6550</v>
+        <v>1001033856608</v>
       </c>
       <c r="C183" t="s">
-        <v>238</v>
+        <v>562</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>239</v>
+        <v>572</v>
       </c>
       <c r="B184" s="3">
-        <v>1001304506684</v>
+        <v>1001033856609</v>
       </c>
       <c r="C184" t="s">
-        <v>59</v>
+        <v>233</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B185" s="3">
-        <v>1001010113248</v>
+        <v>1001033856609</v>
       </c>
       <c r="C185" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>415</v>
+        <v>235</v>
       </c>
       <c r="B186" s="3">
-        <v>1001063926780</v>
+        <v>1001093345495</v>
       </c>
       <c r="C186" t="s">
-        <v>416</v>
+        <v>443</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B187" s="3">
-        <v>6586</v>
+        <v>6550</v>
       </c>
       <c r="C187" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B188" s="3">
-        <v>1001303636467</v>
+        <v>1001304506684</v>
       </c>
       <c r="C188" t="s">
-        <v>245</v>
+        <v>59</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B189" s="3">
-        <v>1001304496701</v>
+        <v>1001010113248</v>
       </c>
       <c r="C189" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>250</v>
+        <v>415</v>
       </c>
       <c r="B190" s="3">
-        <v>6144</v>
+        <v>1001063926780</v>
       </c>
       <c r="C190" t="s">
-        <v>251</v>
+        <v>416</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B191" s="3">
-        <v>1001022725819</v>
+        <v>6586</v>
       </c>
       <c r="C191" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="B192" s="3">
-        <v>1001022373812</v>
+        <v>1001303636467</v>
       </c>
       <c r="C192" t="s">
-        <v>3</v>
+        <v>245</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B193" s="3">
-        <v>1001024906062</v>
+        <v>1001304496701</v>
       </c>
       <c r="C193" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B194" s="3">
-        <v>1001303056692</v>
+        <v>6144</v>
       </c>
       <c r="C194" t="s">
-        <v>60</v>
+        <v>251</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B195" s="3">
-        <v>1001301876697</v>
+        <v>1001022725819</v>
       </c>
       <c r="C195" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B196" s="3">
-        <v>1001012634574</v>
+        <v>1001022373812</v>
       </c>
       <c r="C196" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B197" s="3">
-        <v>1001092485452</v>
+        <v>1001024906062</v>
       </c>
       <c r="C197" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B198" s="3">
-        <v>1001020966144</v>
+        <v>1001303056692</v>
       </c>
       <c r="C198" t="s">
-        <v>144</v>
+        <v>60</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B199" s="3">
-        <v>6586</v>
+        <v>1001301876697</v>
       </c>
       <c r="C199" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B200" s="3">
-        <v>1001304496701</v>
+        <v>1001012634574</v>
       </c>
       <c r="C200" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B201" s="3">
-        <v>1001063655015</v>
+        <v>1001092485452</v>
       </c>
       <c r="C201" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B202" s="3">
-        <v>1001060763287</v>
+        <v>1001020966144</v>
       </c>
       <c r="C202" t="s">
-        <v>272</v>
+        <v>144</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B203" s="3">
-        <v>1001225416228</v>
+        <v>6586</v>
       </c>
       <c r="C203" t="s">
-        <v>160</v>
+        <v>243</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B204" s="3">
-        <v>1001032736550</v>
+        <v>1001304496701</v>
       </c>
       <c r="C204" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B205" s="3">
-        <v>6758</v>
+        <v>1001063655015</v>
       </c>
       <c r="C205" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B206" s="3">
-        <v>1001020965976</v>
+        <v>1001060763287</v>
       </c>
       <c r="C206" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B207" s="3">
-        <v>1001215576586</v>
+        <v>1001225416228</v>
       </c>
       <c r="C207" t="s">
-        <v>280</v>
+        <v>160</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B208" s="3">
-        <v>1001094896026</v>
+        <v>1001032736550</v>
       </c>
       <c r="C208" t="s">
-        <v>283</v>
+        <v>238</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>496</v>
+        <v>275</v>
       </c>
       <c r="B209" s="3">
-        <v>1001215576586</v>
+        <v>6758</v>
       </c>
       <c r="C209" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B210" s="3">
-        <v>1001215576586</v>
+        <v>1001020965976</v>
       </c>
       <c r="C210" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B211" s="3">
-        <v>1001092436470</v>
+        <v>1001215576586</v>
       </c>
       <c r="C211" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="B212" s="3">
-        <v>1001203146555</v>
+        <v>1001094896026</v>
       </c>
       <c r="C212" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>305</v>
+        <v>496</v>
       </c>
       <c r="B213" s="3">
-        <v>1001014765992</v>
+        <v>1001215576586</v>
       </c>
       <c r="C213" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="B214" s="3">
-        <v>1001014765992</v>
+        <v>1001215576586</v>
       </c>
       <c r="C214" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="B215" s="3">
-        <v>1001014765993</v>
+        <v>1001092436470</v>
       </c>
       <c r="C215" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B216" s="3">
-        <v>1001025166776</v>
+        <v>1001203146555</v>
       </c>
       <c r="C216" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B217" s="3">
-        <v>1001025506777</v>
+        <v>1001014765992</v>
       </c>
       <c r="C217" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="B218" s="3">
-        <v>1001025546822</v>
+        <v>1001014765992</v>
       </c>
       <c r="C218" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="B219" s="3">
-        <v>1001025546822</v>
+        <v>1001014765993</v>
       </c>
       <c r="C219" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="B220" s="3">
-        <v>1001025546822</v>
+        <v>1001025166776</v>
       </c>
       <c r="C220" t="s">
-        <v>554</v>
+        <v>299</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B221" s="3">
-        <v>1001025546822</v>
+        <v>1001025506777</v>
       </c>
       <c r="C221" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="B222" s="3">
-        <v>1001024976616</v>
+        <v>1001025546822</v>
       </c>
       <c r="C222" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="B223" s="3">
-        <v>1001010855247</v>
+        <v>1001025546822</v>
       </c>
       <c r="C223" t="s">
-        <v>23</v>
+        <v>303</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>386</v>
+        <v>336</v>
       </c>
       <c r="B224" s="3">
-        <v>1001223296919</v>
+        <v>1001025546822</v>
       </c>
       <c r="C224" t="s">
-        <v>389</v>
+        <v>554</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>66</v>
+        <v>302</v>
       </c>
       <c r="B225" s="3">
-        <v>1001223296919</v>
+        <v>1001025546822</v>
       </c>
       <c r="C225" t="s">
-        <v>389</v>
+        <v>303</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>225</v>
+        <v>307</v>
       </c>
       <c r="B226" s="3">
-        <v>1001223296919</v>
+        <v>1001024976616</v>
       </c>
       <c r="C226" t="s">
-        <v>389</v>
+        <v>306</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>459</v>
+        <v>308</v>
       </c>
       <c r="B227" s="3">
-        <v>1001223296919</v>
+        <v>1001010855247</v>
       </c>
       <c r="C227" t="s">
-        <v>475</v>
+        <v>23</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>481</v>
+        <v>386</v>
       </c>
       <c r="B228" s="3">
         <v>1001223296919</v>
@@ -4845,7 +4893,7 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>309</v>
+        <v>66</v>
       </c>
       <c r="B229" s="3">
         <v>1001223296919</v>
@@ -4856,1909 +4904,2019 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>311</v>
+        <v>225</v>
       </c>
       <c r="B230" s="3">
-        <v>1001014765993</v>
+        <v>1001223296919</v>
       </c>
       <c r="C230" t="s">
-        <v>296</v>
+        <v>389</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>313</v>
+        <v>459</v>
       </c>
       <c r="B231" s="3">
-        <v>1001025166776</v>
+        <v>1001223296919</v>
       </c>
       <c r="C231" t="s">
-        <v>299</v>
+        <v>475</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>314</v>
+        <v>481</v>
       </c>
       <c r="B232" s="3">
-        <v>1001025506777</v>
+        <v>1001223296919</v>
       </c>
       <c r="C232" t="s">
-        <v>301</v>
+        <v>389</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B233" s="3">
-        <v>1001025526778</v>
+        <v>1001223296919</v>
       </c>
       <c r="C233" t="s">
-        <v>316</v>
+        <v>389</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B234" s="3">
-        <v>1001304236685</v>
+        <v>1001014765993</v>
       </c>
       <c r="C234" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="B235" s="3">
-        <v>1001015496769</v>
+        <v>1001025166776</v>
       </c>
       <c r="C235" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="B236" s="3">
-        <v>1001015496769</v>
+        <v>1001025506777</v>
       </c>
       <c r="C236" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="B237" s="3">
-        <v>1001014766798</v>
+        <v>1001025526778</v>
       </c>
       <c r="C237" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="B238" s="3">
-        <v>1001015026797</v>
+        <v>1001304236685</v>
       </c>
       <c r="C238" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="B239" s="3">
-        <v>1001205386222</v>
+        <v>1001015496769</v>
       </c>
       <c r="C239" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B240" s="3">
-        <v>1001092675224</v>
+        <v>1001015496769</v>
       </c>
       <c r="C240" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="B241" s="3">
-        <v>1001225406223</v>
+        <v>1001014766798</v>
       </c>
       <c r="C241" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="B242" s="3">
-        <v>1001300366790</v>
+        <v>1001015026797</v>
       </c>
       <c r="C242" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>477</v>
+        <v>333</v>
       </c>
       <c r="B243" s="3">
-        <v>1001304096792</v>
+        <v>1001205386222</v>
       </c>
       <c r="C243" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="B244" s="3">
-        <v>1001304096792</v>
+        <v>1001092675224</v>
       </c>
       <c r="C244" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B245" s="3">
-        <v>1001303636793</v>
+        <v>1001225406223</v>
       </c>
       <c r="C245" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>397</v>
+        <v>348</v>
       </c>
       <c r="B246" s="3">
-        <v>1001303636794</v>
+        <v>1001300366790</v>
       </c>
       <c r="C246" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="B247" s="3">
-        <v>1001303636794</v>
+        <v>1001304096792</v>
       </c>
       <c r="C247" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B248" s="3">
-        <v>1001303636794</v>
+        <v>1001304096792</v>
       </c>
       <c r="C248" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B249" s="3">
-        <v>1001302596795</v>
+        <v>1001303636793</v>
       </c>
       <c r="C249" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="B250" s="3">
-        <v>1001302596796</v>
+        <v>1001303636794</v>
       </c>
       <c r="C250" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>355</v>
+        <v>497</v>
       </c>
       <c r="B251" s="3">
-        <v>1001300456804</v>
+        <v>1001303636794</v>
       </c>
       <c r="C251" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>446</v>
+        <v>352</v>
       </c>
       <c r="B252" s="3">
-        <v>1001300366806</v>
+        <v>1001303636794</v>
       </c>
       <c r="C252" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B253" s="3">
-        <v>1001300366806</v>
+        <v>1001302596795</v>
       </c>
       <c r="C253" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B254" s="3">
-        <v>1001300516803</v>
+        <v>1001302596796</v>
       </c>
       <c r="C254" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B255" s="3">
-        <v>1001300366807</v>
+        <v>1001300456804</v>
       </c>
       <c r="C255" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>370</v>
+        <v>446</v>
       </c>
       <c r="B256" s="3">
-        <v>1001300366807</v>
+        <v>1001300366806</v>
       </c>
       <c r="C256" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="B257" s="3">
-        <v>1001300516785</v>
+        <v>1001300366806</v>
       </c>
       <c r="C257" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>540</v>
+        <v>357</v>
       </c>
       <c r="B258" s="3">
-        <v>1001300456787</v>
+        <v>1001300516803</v>
       </c>
       <c r="C258" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>555</v>
+        <v>358</v>
       </c>
       <c r="B259" s="3">
-        <v>1001300456787</v>
+        <v>1001300366807</v>
       </c>
       <c r="C259" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B260" s="3">
-        <v>1001300456787</v>
+        <v>1001300366807</v>
       </c>
       <c r="C260" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B261" s="3">
-        <v>1001303636793</v>
+        <v>1001300516785</v>
       </c>
       <c r="C261" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>377</v>
+        <v>540</v>
       </c>
       <c r="B262" s="3">
-        <v>1001302596795</v>
+        <v>1001300456787</v>
       </c>
       <c r="C262" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>378</v>
+        <v>555</v>
       </c>
       <c r="B263" s="3">
-        <v>1001012486332</v>
+        <v>1001300456787</v>
       </c>
       <c r="C263" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B264" s="3">
-        <v>1001012566345</v>
+        <v>1001300456787</v>
       </c>
       <c r="C264" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B265" s="3">
-        <v>1001031076528</v>
+        <v>1001303636793</v>
       </c>
       <c r="C265" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>414</v>
+        <v>377</v>
       </c>
       <c r="B266" s="3">
-        <v>1001020836761</v>
+        <v>1001302596795</v>
       </c>
       <c r="C266" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>419</v>
+        <v>378</v>
       </c>
       <c r="B267" s="3">
-        <v>1001020836761</v>
+        <v>1001012486332</v>
       </c>
       <c r="C267" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="B268" s="3">
-        <v>1001020836761</v>
+        <v>1001012566345</v>
       </c>
       <c r="C268" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
       <c r="B269" s="3">
-        <v>1001020846764</v>
+        <v>1001031076528</v>
       </c>
       <c r="C269" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B270" s="3">
-        <v>1001020846764</v>
+        <v>1001020836761</v>
       </c>
       <c r="C270" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="B271" s="3">
-        <v>1001020846764</v>
+        <v>1001020836761</v>
       </c>
       <c r="C271" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>493</v>
+        <v>390</v>
       </c>
       <c r="B272" s="3">
-        <v>1001300366790</v>
+        <v>1001020836761</v>
       </c>
       <c r="C272" t="s">
-        <v>359</v>
+        <v>391</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="B273" s="3">
-        <v>1001300366790</v>
+        <v>1001020846764</v>
       </c>
       <c r="C273" t="s">
-        <v>359</v>
+        <v>393</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>349</v>
+        <v>420</v>
       </c>
       <c r="B274" s="3">
-        <v>1001304096791</v>
+        <v>1001020846764</v>
       </c>
       <c r="C274" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>468</v>
+        <v>392</v>
       </c>
       <c r="B275" s="3">
-        <v>1001304096791</v>
+        <v>1001020846764</v>
       </c>
       <c r="C275" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>395</v>
+        <v>493</v>
       </c>
       <c r="B276" s="3">
-        <v>1001304096791</v>
+        <v>1001300366790</v>
       </c>
       <c r="C276" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B277" s="3">
-        <v>1001303636793</v>
+        <v>1001300366790</v>
       </c>
       <c r="C277" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>398</v>
+        <v>349</v>
       </c>
       <c r="B278" s="3">
-        <v>1001302596795</v>
+        <v>1001304096791</v>
       </c>
       <c r="C278" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>399</v>
+        <v>468</v>
       </c>
       <c r="B279" s="3">
-        <v>1001300516803</v>
+        <v>1001304096791</v>
       </c>
       <c r="C279" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B280" s="3">
-        <v>1001300456804</v>
+        <v>1001304096791</v>
       </c>
       <c r="C280" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B281" s="3">
-        <v>1001300366807</v>
+        <v>1001303636793</v>
       </c>
       <c r="C281" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B282" s="3">
-        <v>1001302596796</v>
+        <v>1001302596795</v>
       </c>
       <c r="C282" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>452</v>
+        <v>399</v>
       </c>
       <c r="B283" s="3">
-        <v>1001023696765</v>
+        <v>1001300516803</v>
       </c>
       <c r="C283" t="s">
-        <v>405</v>
+        <v>368</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>471</v>
+        <v>400</v>
       </c>
       <c r="B284" s="3">
-        <v>1001023696765</v>
+        <v>1001300456804</v>
       </c>
       <c r="C284" t="s">
-        <v>405</v>
+        <v>366</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B285" s="3">
-        <v>1001023696765</v>
+        <v>1001300366807</v>
       </c>
       <c r="C285" t="s">
-        <v>405</v>
+        <v>369</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="B286" s="3">
-        <v>1001023696767</v>
+        <v>1001302596796</v>
       </c>
       <c r="C286" t="s">
-        <v>409</v>
+        <v>365</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>421</v>
+        <v>452</v>
       </c>
       <c r="B287" s="3">
-        <v>1001023696767</v>
+        <v>1001023696765</v>
       </c>
       <c r="C287" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>408</v>
+        <v>471</v>
       </c>
       <c r="B288" s="3">
-        <v>1001023696767</v>
+        <v>1001023696765</v>
       </c>
       <c r="C288" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B289" s="3">
-        <v>1001024976829</v>
+        <v>1001023696765</v>
       </c>
       <c r="C289" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B290" s="3">
-        <v>1001024976829</v>
+        <v>1001023696767</v>
       </c>
       <c r="C290" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B291" s="3">
-        <v>1001022376722</v>
+        <v>1001023696767</v>
       </c>
       <c r="C291" t="s">
-        <v>119</v>
+        <v>409</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>451</v>
+        <v>408</v>
       </c>
       <c r="B292" s="3">
-        <v>1001020846762</v>
+        <v>1001023696767</v>
       </c>
       <c r="C292" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>470</v>
+        <v>411</v>
       </c>
       <c r="B293" s="3">
-        <v>1001020846762</v>
+        <v>1001024976829</v>
       </c>
       <c r="C293" t="s">
-        <v>426</v>
+        <v>403</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="B294" s="3">
-        <v>1001020846762</v>
+        <v>1001024976829</v>
       </c>
       <c r="C294" t="s">
-        <v>426</v>
+        <v>403</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>124</v>
+        <v>424</v>
       </c>
       <c r="B295" s="3">
-        <v>1001022656853</v>
+        <v>1001022376722</v>
       </c>
       <c r="C295" t="s">
-        <v>429</v>
+        <v>119</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>492</v>
+        <v>451</v>
       </c>
       <c r="B296" s="3">
-        <v>1001022656853</v>
+        <v>1001020846762</v>
       </c>
       <c r="C296" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>576</v>
+        <v>470</v>
       </c>
       <c r="B297" s="3">
-        <v>1001022656948</v>
+        <v>1001020846762</v>
       </c>
       <c r="C297" t="s">
-        <v>567</v>
+        <v>426</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>570</v>
+        <v>425</v>
       </c>
       <c r="B298" s="3">
-        <v>1001022656948</v>
+        <v>1001020846762</v>
       </c>
       <c r="C298" t="s">
-        <v>567</v>
+        <v>426</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>428</v>
+        <v>124</v>
       </c>
       <c r="B299" s="3">
-        <v>1001022656948</v>
+        <v>1001022656853</v>
       </c>
       <c r="C299" t="s">
-        <v>567</v>
+        <v>429</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>434</v>
+        <v>492</v>
       </c>
       <c r="B300" s="3">
-        <v>1001022656852</v>
+        <v>1001022656853</v>
       </c>
       <c r="C300" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>453</v>
+        <v>576</v>
       </c>
       <c r="B301" s="3">
-        <v>1001020836759</v>
+        <v>1001022656948</v>
       </c>
       <c r="C301" t="s">
-        <v>437</v>
+        <v>567</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>469</v>
+        <v>570</v>
       </c>
       <c r="B302" s="3">
-        <v>1001020836759</v>
+        <v>1001022656948</v>
       </c>
       <c r="C302" t="s">
-        <v>437</v>
+        <v>567</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B303" s="3">
-        <v>1001020836759</v>
+        <v>1001022656948</v>
       </c>
       <c r="C303" t="s">
-        <v>437</v>
+        <v>567</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B304" s="3">
-        <v>1001023856870</v>
+        <v>1001022656852</v>
       </c>
       <c r="C304" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B305" s="3">
-        <v>1001013956426</v>
+        <v>1001020836759</v>
       </c>
       <c r="C305" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="B306" s="3">
-        <v>1001093345495</v>
+        <v>1001020836759</v>
       </c>
       <c r="C306" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>485</v>
+        <v>436</v>
       </c>
       <c r="B307" s="3">
-        <v>1001022656868</v>
+        <v>1001020836759</v>
       </c>
       <c r="C307" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="B308" s="3">
-        <v>1001022656868</v>
+        <v>1001023856870</v>
       </c>
       <c r="C308" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>166</v>
+        <v>454</v>
       </c>
       <c r="B309" s="3">
-        <v>1001034065698</v>
+        <v>1001013956426</v>
       </c>
       <c r="C309" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>185</v>
+        <v>456</v>
       </c>
       <c r="B310" s="3">
-        <v>1001034065698</v>
+        <v>1001093345495</v>
       </c>
       <c r="C310" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B311" s="3">
-        <v>1001034065698</v>
+        <v>1001022656868</v>
       </c>
       <c r="C311" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B312" s="3">
-        <v>1001034065698</v>
+        <v>1001022656868</v>
       </c>
       <c r="C312" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>462</v>
+        <v>166</v>
       </c>
       <c r="B313" s="3">
-        <v>1001084216206</v>
+        <v>1001034065698</v>
       </c>
       <c r="C313" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>474</v>
+        <v>185</v>
       </c>
       <c r="B314" s="3">
-        <v>1001015646861</v>
+        <v>1001034065698</v>
       </c>
       <c r="C314" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>463</v>
+        <v>483</v>
       </c>
       <c r="B315" s="3">
-        <v>1001015646861</v>
+        <v>1001034065698</v>
       </c>
       <c r="C315" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="B316" s="3">
-        <v>1001025176768</v>
+        <v>1001034065698</v>
       </c>
       <c r="C316" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="B317" s="3">
-        <v>1001025176768</v>
+        <v>1001084216206</v>
       </c>
       <c r="C317" t="s">
-        <v>450</v>
+        <v>388</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="B318" s="3">
-        <v>1001025176768</v>
+        <v>1001015646861</v>
       </c>
       <c r="C318" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="B319" s="3">
-        <v>1001025486770</v>
+        <v>1001015646861</v>
       </c>
       <c r="C319" t="s">
-        <v>447</v>
+        <v>427</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="B320" s="3">
-        <v>1001025486770</v>
+        <v>1001025176768</v>
       </c>
       <c r="C320" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="B321" s="3">
-        <v>1001025486770</v>
+        <v>1001025176768</v>
       </c>
       <c r="C321" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>208</v>
+        <v>464</v>
       </c>
       <c r="B322" s="3">
-        <v>1001012816340</v>
+        <v>1001025176768</v>
       </c>
       <c r="C322" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>487</v>
+        <v>448</v>
       </c>
       <c r="B323" s="3">
-        <v>1001012816340</v>
+        <v>1001025486770</v>
       </c>
       <c r="C323" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="B324" s="3">
-        <v>1001012816340</v>
+        <v>1001025486770</v>
       </c>
       <c r="C324" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>310</v>
+        <v>465</v>
       </c>
       <c r="B325" s="3">
-        <v>1001203146834</v>
+        <v>1001025486770</v>
       </c>
       <c r="C325" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>460</v>
+        <v>208</v>
       </c>
       <c r="B326" s="3">
-        <v>1001203146834</v>
+        <v>1001012816340</v>
       </c>
       <c r="C326" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B327" s="3">
-        <v>1001203146834</v>
+        <v>1001012816340</v>
       </c>
       <c r="C327" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B328" s="3">
-        <v>1001203146834</v>
+        <v>1001012816340</v>
       </c>
       <c r="C328" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>479</v>
+        <v>310</v>
       </c>
       <c r="B329" s="3">
-        <v>1001300456788</v>
+        <v>1001203146834</v>
       </c>
       <c r="C329" t="s">
-        <v>480</v>
+        <v>433</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>489</v>
+        <v>460</v>
       </c>
       <c r="B330" s="3">
-        <v>1001022556837</v>
+        <v>1001203146834</v>
       </c>
       <c r="C330" t="s">
-        <v>490</v>
+        <v>433</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="B331" s="3">
-        <v>1001300516786</v>
+        <v>1001203146834</v>
       </c>
       <c r="C331" t="s">
-        <v>495</v>
+        <v>433</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>498</v>
+        <v>467</v>
       </c>
       <c r="B332" s="3">
-        <v>1001214196459</v>
+        <v>1001203146834</v>
       </c>
       <c r="C332" t="s">
-        <v>499</v>
+        <v>433</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>551</v>
+        <v>479</v>
       </c>
       <c r="B333" s="3">
-        <v>1001092436495</v>
+        <v>1001300456788</v>
       </c>
       <c r="C333" t="s">
-        <v>501</v>
+        <v>480</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>558</v>
+        <v>489</v>
       </c>
       <c r="B334" s="3">
-        <v>1001092436495</v>
+        <v>1001022556837</v>
       </c>
       <c r="C334" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B335" s="3">
-        <v>1001092436495</v>
+        <v>1001300516786</v>
       </c>
       <c r="C335" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B336" s="3">
-        <v>1001025526901</v>
+        <v>1001214196459</v>
       </c>
       <c r="C336" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>504</v>
+        <v>551</v>
       </c>
       <c r="B337" s="3">
-        <v>1001025546931</v>
+        <v>1001092436495</v>
       </c>
       <c r="C337" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>514</v>
+        <v>558</v>
       </c>
       <c r="B338" s="3">
-        <v>1001010016324</v>
+        <v>1001092436495</v>
       </c>
       <c r="C338" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>544</v>
+        <v>500</v>
       </c>
       <c r="B339" s="3">
-        <v>1001010016324</v>
+        <v>1001092436495</v>
       </c>
       <c r="C339" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B340" s="3">
-        <v>1001010016324</v>
+        <v>1001025526901</v>
       </c>
       <c r="C340" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B341" s="3">
-        <v>1001025766909</v>
+        <v>1001025546931</v>
       </c>
       <c r="C341" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>545</v>
+        <v>514</v>
       </c>
       <c r="B342" s="3">
-        <v>1001025766909</v>
+        <v>1001010016324</v>
       </c>
       <c r="C342" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>509</v>
+        <v>544</v>
       </c>
       <c r="B343" s="3">
-        <v>1001025766909</v>
+        <v>1001010016324</v>
       </c>
       <c r="C343" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>543</v>
+        <v>507</v>
       </c>
       <c r="B344" s="3">
-        <v>1001010014558</v>
+        <v>1001010016324</v>
       </c>
       <c r="C344" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B345" s="3">
-        <v>1001010014558</v>
+        <v>1001025766909</v>
       </c>
       <c r="C345" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="B346" s="3">
-        <v>1001012596802</v>
+        <v>1001025766909</v>
       </c>
       <c r="C346" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>547</v>
+        <v>509</v>
       </c>
       <c r="B347" s="3">
-        <v>1001012596802</v>
+        <v>1001025766909</v>
       </c>
       <c r="C347" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>515</v>
+        <v>543</v>
       </c>
       <c r="B348" s="3">
-        <v>1001012596802</v>
+        <v>1001010014558</v>
       </c>
       <c r="C348" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>533</v>
+        <v>512</v>
       </c>
       <c r="B349" s="3">
-        <v>1001012596801</v>
+        <v>1001010014558</v>
       </c>
       <c r="C349" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="B350" s="3">
-        <v>1001012596801</v>
+        <v>1001012596802</v>
       </c>
       <c r="C350" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>517</v>
+        <v>547</v>
       </c>
       <c r="B351" s="3">
-        <v>1001012596801</v>
+        <v>1001012596802</v>
       </c>
       <c r="C351" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B352" s="3">
-        <v>1001062353684</v>
+        <v>1001012596802</v>
       </c>
       <c r="C352" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="B353" s="3">
-        <v>1001010014555</v>
+        <v>1001012596801</v>
       </c>
       <c r="C353" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>523</v>
+        <v>546</v>
       </c>
       <c r="B354" s="3">
-        <v>1001083424691</v>
+        <v>1001012596801</v>
       </c>
       <c r="C354" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="B355" s="3">
-        <v>1001190765679</v>
+        <v>1001012596801</v>
       </c>
       <c r="C355" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="B356" s="3">
-        <v>1001085636200</v>
+        <v>1001062353684</v>
       </c>
       <c r="C356" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="B357" s="3">
-        <v>1001020836253</v>
+        <v>1001010014555</v>
       </c>
       <c r="C357" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="B358" s="3">
-        <v>1001084226492</v>
+        <v>1001083424691</v>
       </c>
       <c r="C358" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="B359" s="3">
-        <v>1001223296921</v>
+        <v>1001190765679</v>
       </c>
       <c r="C359" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="B360" s="3">
-        <v>1001053944786</v>
+        <v>1001085636200</v>
       </c>
       <c r="C360" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="B361" s="3">
-        <v>1001010016839</v>
+        <v>1001020836253</v>
       </c>
       <c r="C361" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>548</v>
+        <v>531</v>
       </c>
       <c r="B362" s="3">
-        <v>1001023857038</v>
+        <v>1001084226492</v>
       </c>
       <c r="C362" t="s">
-        <v>589</v>
+        <v>532</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="B363" s="3">
-        <v>1001040434903</v>
+        <v>1001223296921</v>
       </c>
       <c r="C363" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="B364" s="3">
-        <v>1001080216842</v>
+        <v>1001053944786</v>
       </c>
       <c r="C364" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
       <c r="B365" s="3">
-        <v>1001022466951</v>
+        <v>1001010016839</v>
       </c>
       <c r="C365" t="s">
-        <v>566</v>
+        <v>542</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>569</v>
+        <v>548</v>
       </c>
       <c r="B366" s="3">
-        <v>1001022466951</v>
+        <v>1001023857038</v>
       </c>
       <c r="C366" t="s">
-        <v>566</v>
+        <v>589</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="B367" s="3">
-        <v>1001035276653</v>
+        <v>1001040434903</v>
       </c>
       <c r="C367" t="s">
-        <v>574</v>
+        <v>550</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>578</v>
+        <v>552</v>
       </c>
       <c r="B368" s="3">
-        <v>1001062353680</v>
+        <v>1001080216842</v>
       </c>
       <c r="C368" t="s">
-        <v>579</v>
+        <v>553</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="B369" s="3">
-        <v>1001061971146</v>
+        <v>1001022466951</v>
       </c>
       <c r="C369" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="B370" s="3">
-        <v>1001225636201</v>
+        <v>1001022466951</v>
       </c>
       <c r="C370" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="B371" s="3">
-        <v>1001020836724</v>
+        <v>1001035276653</v>
       </c>
       <c r="C371" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="B372" s="3">
-        <v>1001095227035</v>
+        <v>1001062353680</v>
       </c>
       <c r="C372" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="B373" s="3">
-        <v>1001023857038</v>
+        <v>1001061971146</v>
       </c>
       <c r="C373" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="B374" s="3">
-        <v>1001025027040</v>
+        <v>1001225636201</v>
       </c>
       <c r="C374" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="B375" s="3">
-        <v>1001223297103</v>
+        <v>1001020836724</v>
       </c>
       <c r="C375" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="B376" s="3">
-        <v>1001223297103</v>
+        <v>1001095227035</v>
       </c>
       <c r="C376" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B377" s="3">
-        <v>1001223297103</v>
+        <v>1001023857038</v>
       </c>
       <c r="C377" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>615</v>
+        <v>590</v>
       </c>
       <c r="B378" s="3">
-        <v>1001010032675</v>
+        <v>1001025027040</v>
       </c>
       <c r="C378" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B379" s="3">
-        <v>1001010032675</v>
+        <v>1001223297103</v>
       </c>
       <c r="C379" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>620</v>
+        <v>594</v>
       </c>
       <c r="B380" s="3">
-        <v>1001035937001</v>
+        <v>1001223297103</v>
       </c>
       <c r="C380" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B381" s="3">
-        <v>1001035937001</v>
+        <v>1001223297103</v>
       </c>
       <c r="C381" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B382" s="3">
-        <v>1001084217090</v>
+        <v>1001010032675</v>
       </c>
       <c r="C382" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B383" s="3">
-        <v>1001084217090</v>
+        <v>1001010032675</v>
       </c>
       <c r="C383" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B384" s="3">
-        <v>1001022377066</v>
+        <v>1001035937001</v>
       </c>
       <c r="C384" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B385" s="3">
-        <v>1001022377066</v>
+        <v>1001035937001</v>
       </c>
       <c r="C385" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B386" s="3">
-        <v>1001022467080</v>
+        <v>1001084217090</v>
       </c>
       <c r="C386" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B387" s="3">
-        <v>1001022467080</v>
+        <v>1001084217090</v>
       </c>
       <c r="C387" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B388" s="3">
-        <v>1001025507077</v>
+        <v>1001022377066</v>
       </c>
       <c r="C388" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B389" s="3">
-        <v>1001025507077</v>
+        <v>1001022377066</v>
       </c>
       <c r="C389" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B390" s="3">
-        <v>1001022657075</v>
+        <v>1001022467080</v>
       </c>
       <c r="C390" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B391" s="3">
-        <v>1001022657075</v>
+        <v>1001022467080</v>
       </c>
       <c r="C391" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B392" s="3">
-        <v>1001022467082</v>
+        <v>1001025507077</v>
       </c>
       <c r="C392" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B393" s="3">
-        <v>1001022467082</v>
+        <v>1001025507077</v>
       </c>
       <c r="C393" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B394" s="3">
-        <v>1001022377070</v>
+        <v>1001022657075</v>
       </c>
       <c r="C394" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B395" s="3">
-        <v>1001022377070</v>
+        <v>1001022657075</v>
       </c>
       <c r="C395" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B396" s="3">
-        <v>1001022657073</v>
+        <v>1001022467082</v>
       </c>
       <c r="C396" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B397" s="3">
-        <v>1001022657073</v>
+        <v>1001022467082</v>
       </c>
       <c r="C397" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="B398" s="3">
-        <v>1001010027126</v>
+        <v>1001022377070</v>
       </c>
       <c r="C398" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B399" s="3">
-        <v>1001010027126</v>
+        <v>1001022377070</v>
       </c>
       <c r="C399" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="B400" s="3">
-        <v>1001010027125</v>
+        <v>1001022657073</v>
       </c>
       <c r="C400" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>640</v>
+        <v>613</v>
       </c>
       <c r="B401" s="3">
-        <v>1001010027125</v>
+        <v>1001022657073</v>
       </c>
       <c r="C401" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B402" s="3">
+        <v>1001010027126</v>
+      </c>
+      <c r="C402" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B403" s="3">
+        <v>1001010027126</v>
+      </c>
+      <c r="C403" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B404" s="3">
+        <v>1001010027125</v>
+      </c>
+      <c r="C404" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B405" s="3">
+        <v>1001010027125</v>
+      </c>
+      <c r="C405" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="B402" s="3">
+      <c r="B406" s="3">
         <v>1001016366888</v>
       </c>
-      <c r="C402" t="s">
+      <c r="C406" t="s">
         <v>642</v>
       </c>
     </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B407" s="3">
+        <v>1001300367133</v>
+      </c>
+      <c r="C407" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B408" s="3">
+        <v>1001303637131</v>
+      </c>
+      <c r="C408" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B409" s="3">
+        <v>1001304527146</v>
+      </c>
+      <c r="C409" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B410" s="3">
+        <v>1001300517134</v>
+      </c>
+      <c r="C410" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B411" s="3">
+        <v>1001300457135</v>
+      </c>
+      <c r="C411" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B412" s="3">
+        <v>1001304527144</v>
+      </c>
+      <c r="C412" t="s">
+        <v>654</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C401" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C412" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/NV/moduls/1С.xlsx
+++ b/NV/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\NV\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FED85F0-C333-413F-B15A-4A4B089C1CB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E90DA45-7A0D-44C0-AD57-9A5C016B6937}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$412</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$413</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="660">
   <si>
     <t>1С</t>
   </si>
@@ -2011,6 +2011,9 @@
   </si>
   <si>
     <t>7149 БАЛЫКОВАЯ Коровино п/к в/у 0,84кг_50с  Останкино</t>
+  </si>
+  <si>
+    <t>7173 БОЯNСКАЯ ПМ п/к в/у 0,28кг 8шт_50с  Останкино</t>
   </si>
 </sst>
 </file>
@@ -2365,11 +2368,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F412"/>
+  <dimension ref="A1:F413"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3364,7 +3367,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>633</v>
+        <v>659</v>
       </c>
       <c r="B90" s="3">
         <v>1001302277173</v>
@@ -3375,106 +3378,106 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>123</v>
+        <v>633</v>
       </c>
       <c r="B91" s="3">
-        <v>1001012426268</v>
+        <v>1001302277173</v>
       </c>
       <c r="C91" t="s">
-        <v>122</v>
+        <v>634</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B92" s="3">
-        <v>1001024906041</v>
+        <v>1001012426268</v>
       </c>
       <c r="C92" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B93" s="3">
-        <v>1001011086247</v>
+        <v>1001024906041</v>
       </c>
       <c r="C93" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="B94" s="3">
-        <v>1001014486158</v>
+        <v>1001011086247</v>
       </c>
       <c r="C94" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B95" s="3">
-        <v>1001015356259</v>
+        <v>1001014486158</v>
       </c>
       <c r="C95" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B96" s="3">
-        <v>1001012816716</v>
+        <v>1001015356259</v>
       </c>
       <c r="C96" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>322</v>
+        <v>152</v>
       </c>
       <c r="B97" s="3">
-        <v>1001020966227</v>
+        <v>1001012816716</v>
       </c>
       <c r="C97" t="s">
-        <v>321</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>129</v>
+        <v>322</v>
       </c>
       <c r="B98" s="3">
         <v>1001020966227</v>
       </c>
       <c r="C98" t="s">
-        <v>130</v>
+        <v>321</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="B99" s="3">
-        <v>1001022726303</v>
+        <v>1001020966227</v>
       </c>
       <c r="C99" t="s">
-        <v>254</v>
+        <v>130</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="B100" s="3">
         <v>1001022726303</v>
@@ -3485,7 +3488,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>339</v>
+        <v>253</v>
       </c>
       <c r="B101" s="3">
         <v>1001022726303</v>
@@ -3496,62 +3499,62 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>153</v>
+        <v>339</v>
       </c>
       <c r="B102" s="3">
         <v>1001022726303</v>
       </c>
       <c r="C102" t="s">
-        <v>155</v>
+        <v>254</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="B103" s="3">
-        <v>1001022466726</v>
+        <v>1001022726303</v>
       </c>
       <c r="C103" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="B104" s="3">
-        <v>1001020966144</v>
+        <v>1001022466726</v>
       </c>
       <c r="C104" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="B105" s="3">
-        <v>1001022376722</v>
+        <v>1001020966144</v>
       </c>
       <c r="C105" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>577</v>
+        <v>121</v>
       </c>
       <c r="B106" s="3">
-        <v>1001022376955</v>
+        <v>1001022376722</v>
       </c>
       <c r="C106" t="s">
-        <v>568</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B107" s="3">
         <v>1001022376955</v>
@@ -3562,7 +3565,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>134</v>
+        <v>575</v>
       </c>
       <c r="B108" s="3">
         <v>1001022376955</v>
@@ -3573,18 +3576,18 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>246</v>
+        <v>134</v>
       </c>
       <c r="B109" s="3">
-        <v>1001022246661</v>
+        <v>1001022376955</v>
       </c>
       <c r="C109" t="s">
-        <v>247</v>
+        <v>568</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>318</v>
+        <v>246</v>
       </c>
       <c r="B110" s="3">
         <v>1001022246661</v>
@@ -3595,172 +3598,172 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="B111" s="3">
         <v>1001022246661</v>
       </c>
       <c r="C111" t="s">
-        <v>135</v>
+        <v>247</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B112" s="3">
-        <v>1001022246713</v>
+        <v>1001022246661</v>
       </c>
       <c r="C112" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B113" s="3">
-        <v>1001025166241</v>
+        <v>1001022246713</v>
       </c>
       <c r="C113" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="B114" s="3">
-        <v>6606</v>
+        <v>1001025166241</v>
       </c>
       <c r="C114" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="B115" s="3">
-        <v>1001035326217</v>
+        <v>6606</v>
       </c>
       <c r="C115" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="B116" s="3">
-        <v>1001303636301</v>
+        <v>1001035326217</v>
       </c>
       <c r="C116" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>94</v>
+        <v>151</v>
       </c>
       <c r="B117" s="3">
-        <v>1001303636302</v>
+        <v>1001303636301</v>
       </c>
       <c r="C117" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="B118" s="3">
-        <v>1001305196215</v>
+        <v>1001303636302</v>
       </c>
       <c r="C118" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B119" s="3">
-        <v>1001301876212</v>
+        <v>1001305196215</v>
       </c>
       <c r="C119" t="s">
-        <v>146</v>
+        <v>79</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B120" s="3">
-        <v>1001301876213</v>
+        <v>1001301876212</v>
       </c>
       <c r="C120" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="B121" s="3">
-        <v>1001303636302</v>
+        <v>1001301876213</v>
       </c>
       <c r="C121" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B122" s="3">
-        <v>6645</v>
+        <v>1001303636302</v>
       </c>
       <c r="C122" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B123" s="3">
-        <v>1001225416228</v>
+        <v>6645</v>
       </c>
       <c r="C123" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B124" s="3">
-        <v>6225</v>
+        <v>1001225416228</v>
       </c>
       <c r="C124" t="s">
-        <v>270</v>
+        <v>160</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B125" s="3">
-        <v>1001022376722</v>
+        <v>6225</v>
       </c>
       <c r="C125" t="s">
-        <v>119</v>
+        <v>270</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B126" s="3">
         <v>1001022376722</v>
@@ -3771,29 +3774,29 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B127" s="3">
-        <v>3297</v>
+        <v>1001022376722</v>
       </c>
       <c r="C127" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>312</v>
+        <v>164</v>
       </c>
       <c r="B128" s="3">
-        <v>1001022466726</v>
+        <v>3297</v>
       </c>
       <c r="C128" t="s">
-        <v>288</v>
+        <v>165</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="B129" s="3">
         <v>1001022466726</v>
@@ -3804,51 +3807,51 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>168</v>
+        <v>289</v>
       </c>
       <c r="B130" s="3">
         <v>1001022466726</v>
       </c>
       <c r="C130" t="s">
-        <v>109</v>
+        <v>288</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B131" s="3">
-        <v>1001021966602</v>
+        <v>1001022466726</v>
       </c>
       <c r="C131" t="s">
-        <v>281</v>
+        <v>109</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B132" s="3">
-        <v>6233</v>
+        <v>1001021966602</v>
       </c>
       <c r="C132" t="s">
-        <v>170</v>
+        <v>281</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>261</v>
+        <v>171</v>
       </c>
       <c r="B133" s="3">
-        <v>1001012816341</v>
+        <v>6233</v>
       </c>
       <c r="C133" t="s">
-        <v>442</v>
+        <v>170</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>488</v>
+        <v>261</v>
       </c>
       <c r="B134" s="3">
         <v>1001012816341</v>
@@ -3859,7 +3862,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B135" s="3">
         <v>1001012816341</v>
@@ -3870,7 +3873,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>172</v>
+        <v>491</v>
       </c>
       <c r="B136" s="3">
         <v>1001012816341</v>
@@ -3881,51 +3884,51 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B137" s="3">
-        <v>6750</v>
+        <v>1001012816341</v>
       </c>
       <c r="C137" t="s">
-        <v>85</v>
+        <v>442</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B138" s="3">
-        <v>6751</v>
+        <v>6750</v>
       </c>
       <c r="C138" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B139" s="3">
-        <v>5982</v>
+        <v>6751</v>
       </c>
       <c r="C139" t="s">
-        <v>176</v>
+        <v>87</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>539</v>
+        <v>175</v>
       </c>
       <c r="B140" s="3">
-        <v>1001022656854</v>
+        <v>5982</v>
       </c>
       <c r="C140" t="s">
-        <v>431</v>
+        <v>176</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>556</v>
+        <v>539</v>
       </c>
       <c r="B141" s="3">
         <v>1001022656854</v>
@@ -3936,7 +3939,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>455</v>
+        <v>556</v>
       </c>
       <c r="B142" s="3">
         <v>1001022656854</v>
@@ -3947,7 +3950,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>177</v>
+        <v>455</v>
       </c>
       <c r="B143" s="3">
         <v>1001022656854</v>
@@ -3958,21 +3961,21 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B144" s="3">
-        <v>1001094966025</v>
+        <v>1001022656854</v>
       </c>
       <c r="C144" t="s">
-        <v>179</v>
+        <v>431</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B145" s="3">
-        <v>6025</v>
+        <v>1001094966025</v>
       </c>
       <c r="C145" t="s">
         <v>179</v>
@@ -3980,21 +3983,21 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B146" s="3">
-        <v>6221</v>
+        <v>6025</v>
       </c>
       <c r="C146" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B147" s="3">
-        <v>1001205376221</v>
+        <v>6221</v>
       </c>
       <c r="C147" t="s">
         <v>181</v>
@@ -4002,29 +4005,29 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B148" s="3">
-        <v>1001022373812</v>
+        <v>1001205376221</v>
       </c>
       <c r="C148" t="s">
-        <v>3</v>
+        <v>181</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B149" s="3">
-        <v>1001100606827</v>
+        <v>1001022373812</v>
       </c>
       <c r="C149" t="s">
-        <v>329</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>341</v>
+        <v>187</v>
       </c>
       <c r="B150" s="3">
         <v>1001100606827</v>
@@ -4035,18 +4038,18 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>188</v>
+        <v>341</v>
       </c>
       <c r="B151" s="3">
-        <v>1001100616826</v>
+        <v>1001100606827</v>
       </c>
       <c r="C151" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>342</v>
+        <v>188</v>
       </c>
       <c r="B152" s="3">
         <v>1001100616826</v>
@@ -4057,18 +4060,18 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>189</v>
+        <v>342</v>
       </c>
       <c r="B153" s="3">
-        <v>1001100626828</v>
+        <v>1001100616826</v>
       </c>
       <c r="C153" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>343</v>
+        <v>189</v>
       </c>
       <c r="B154" s="3">
         <v>1001100626828</v>
@@ -4079,62 +4082,62 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>190</v>
+        <v>343</v>
       </c>
       <c r="B155" s="3">
-        <v>1001035026308</v>
+        <v>1001100626828</v>
       </c>
       <c r="C155" t="s">
-        <v>191</v>
+        <v>331</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>560</v>
+        <v>190</v>
       </c>
       <c r="B156" s="3">
-        <v>1001014486159</v>
+        <v>1001035026308</v>
       </c>
       <c r="C156" t="s">
-        <v>561</v>
+        <v>191</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>192</v>
+        <v>560</v>
       </c>
       <c r="B157" s="3">
         <v>1001014486159</v>
       </c>
       <c r="C157" t="s">
-        <v>193</v>
+        <v>561</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B158" s="3">
-        <v>1001035326217</v>
+        <v>1001014486159</v>
       </c>
       <c r="C158" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>506</v>
+        <v>194</v>
       </c>
       <c r="B159" s="3">
-        <v>1001012426220</v>
+        <v>1001035326217</v>
       </c>
       <c r="C159" t="s">
-        <v>196</v>
+        <v>285</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>195</v>
+        <v>506</v>
       </c>
       <c r="B160" s="3">
         <v>1001012426220</v>
@@ -4145,249 +4148,249 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B161" s="3">
-        <v>1001022466236</v>
+        <v>1001012426220</v>
       </c>
       <c r="C161" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B162" s="3">
-        <v>1001021966602</v>
+        <v>1001022466236</v>
       </c>
       <c r="C162" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B163" s="3">
-        <v>1001022296656</v>
+        <v>1001021966602</v>
       </c>
       <c r="C163" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B164" s="3">
-        <v>1001304506684</v>
+        <v>1001022296656</v>
       </c>
       <c r="C164" t="s">
-        <v>59</v>
+        <v>202</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B165" s="3">
-        <v>1001301876697</v>
+        <v>1001304506684</v>
       </c>
       <c r="C165" t="s">
-        <v>205</v>
+        <v>59</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B166" s="3">
-        <v>1001022246713</v>
+        <v>1001301876697</v>
       </c>
       <c r="C166" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B167" s="3">
-        <v>1001022376722</v>
+        <v>1001022246713</v>
       </c>
       <c r="C167" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B168" s="3">
-        <v>1001020846751</v>
+        <v>1001022376722</v>
       </c>
       <c r="C168" t="s">
-        <v>87</v>
+        <v>210</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B169" s="3">
-        <v>1001022725819</v>
+        <v>1001020846751</v>
       </c>
       <c r="C169" t="s">
-        <v>213</v>
+        <v>87</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B170" s="3">
-        <v>1001012825337</v>
+        <v>1001022725819</v>
       </c>
       <c r="C170" t="s">
-        <v>27</v>
+        <v>213</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B171" s="3">
-        <v>1001012815336</v>
+        <v>1001012825337</v>
       </c>
       <c r="C171" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B172" s="3">
-        <v>1001234146448</v>
+        <v>1001012815336</v>
       </c>
       <c r="C172" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B173" s="3">
-        <v>1001022725819</v>
+        <v>1001234146448</v>
       </c>
       <c r="C173" t="s">
-        <v>213</v>
+        <v>65</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B174" s="3">
-        <v>1001092676027</v>
+        <v>1001022725819</v>
       </c>
       <c r="C174" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B175" s="3">
-        <v>1001301876213</v>
+        <v>1001092676027</v>
       </c>
       <c r="C175" t="s">
-        <v>78</v>
+        <v>219</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B176" s="3">
-        <v>1001035026308</v>
+        <v>1001301876213</v>
       </c>
       <c r="C176" t="s">
-        <v>407</v>
+        <v>78</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B177" s="3">
-        <v>1001234146448</v>
+        <v>1001035026308</v>
       </c>
       <c r="C177" t="s">
-        <v>65</v>
+        <v>407</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B178" s="3">
-        <v>1001201976454</v>
+        <v>1001234146448</v>
       </c>
       <c r="C178" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B179" s="3">
-        <v>1001025176475</v>
+        <v>1001201976454</v>
       </c>
       <c r="C179" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B180" s="3">
-        <v>1001012456498</v>
+        <v>1001025176475</v>
       </c>
       <c r="C180" t="s">
-        <v>229</v>
+        <v>72</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B181" s="3">
-        <v>1001010036596</v>
+        <v>1001012456498</v>
       </c>
       <c r="C181" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>571</v>
+        <v>230</v>
       </c>
       <c r="B182" s="3">
-        <v>1001033856608</v>
+        <v>1001010036596</v>
       </c>
       <c r="C182" t="s">
-        <v>562</v>
+        <v>231</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="B183" s="3">
         <v>1001033856608</v>
@@ -4398,18 +4401,18 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="B184" s="3">
-        <v>1001033856609</v>
+        <v>1001033856608</v>
       </c>
       <c r="C184" t="s">
-        <v>233</v>
+        <v>562</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>232</v>
+        <v>572</v>
       </c>
       <c r="B185" s="3">
         <v>1001033856609</v>
@@ -4420,315 +4423,315 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B186" s="3">
-        <v>1001093345495</v>
+        <v>1001033856609</v>
       </c>
       <c r="C186" t="s">
-        <v>443</v>
+        <v>233</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B187" s="3">
-        <v>6550</v>
+        <v>1001093345495</v>
       </c>
       <c r="C187" t="s">
-        <v>238</v>
+        <v>443</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B188" s="3">
-        <v>1001304506684</v>
+        <v>6550</v>
       </c>
       <c r="C188" t="s">
-        <v>59</v>
+        <v>238</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B189" s="3">
-        <v>1001010113248</v>
+        <v>1001304506684</v>
       </c>
       <c r="C189" t="s">
-        <v>241</v>
+        <v>59</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>415</v>
+        <v>240</v>
       </c>
       <c r="B190" s="3">
-        <v>1001063926780</v>
+        <v>1001010113248</v>
       </c>
       <c r="C190" t="s">
-        <v>416</v>
+        <v>241</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>242</v>
+        <v>415</v>
       </c>
       <c r="B191" s="3">
-        <v>6586</v>
+        <v>1001063926780</v>
       </c>
       <c r="C191" t="s">
-        <v>243</v>
+        <v>416</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B192" s="3">
-        <v>1001303636467</v>
+        <v>6586</v>
       </c>
       <c r="C192" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B193" s="3">
-        <v>1001304496701</v>
+        <v>1001303636467</v>
       </c>
       <c r="C193" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B194" s="3">
-        <v>6144</v>
+        <v>1001304496701</v>
       </c>
       <c r="C194" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B195" s="3">
-        <v>1001022725819</v>
+        <v>6144</v>
       </c>
       <c r="C195" t="s">
-        <v>213</v>
+        <v>251</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B196" s="3">
-        <v>1001022373812</v>
+        <v>1001022725819</v>
       </c>
       <c r="C196" t="s">
-        <v>3</v>
+        <v>213</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B197" s="3">
-        <v>1001024906062</v>
+        <v>1001022373812</v>
       </c>
       <c r="C197" t="s">
-        <v>257</v>
+        <v>3</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B198" s="3">
-        <v>1001303056692</v>
+        <v>1001024906062</v>
       </c>
       <c r="C198" t="s">
-        <v>60</v>
+        <v>257</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B199" s="3">
-        <v>1001301876697</v>
+        <v>1001303056692</v>
       </c>
       <c r="C199" t="s">
-        <v>205</v>
+        <v>60</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B200" s="3">
-        <v>1001012634574</v>
+        <v>1001301876697</v>
       </c>
       <c r="C200" t="s">
-        <v>11</v>
+        <v>205</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B201" s="3">
-        <v>1001092485452</v>
+        <v>1001012634574</v>
       </c>
       <c r="C201" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B202" s="3">
-        <v>1001020966144</v>
+        <v>1001092485452</v>
       </c>
       <c r="C202" t="s">
-        <v>144</v>
+        <v>263</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B203" s="3">
-        <v>6586</v>
+        <v>1001020966144</v>
       </c>
       <c r="C203" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B204" s="3">
-        <v>1001304496701</v>
+        <v>6586</v>
       </c>
       <c r="C204" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B205" s="3">
-        <v>1001063655015</v>
+        <v>1001304496701</v>
       </c>
       <c r="C205" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B206" s="3">
-        <v>1001060763287</v>
+        <v>1001063655015</v>
       </c>
       <c r="C206" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B207" s="3">
-        <v>1001225416228</v>
+        <v>1001060763287</v>
       </c>
       <c r="C207" t="s">
-        <v>160</v>
+        <v>272</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B208" s="3">
-        <v>1001032736550</v>
+        <v>1001225416228</v>
       </c>
       <c r="C208" t="s">
-        <v>238</v>
+        <v>160</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B209" s="3">
-        <v>6758</v>
+        <v>1001032736550</v>
       </c>
       <c r="C209" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B210" s="3">
-        <v>1001020965976</v>
+        <v>6758</v>
       </c>
       <c r="C210" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B211" s="3">
-        <v>1001215576586</v>
+        <v>1001020965976</v>
       </c>
       <c r="C211" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B212" s="3">
-        <v>1001094896026</v>
+        <v>1001215576586</v>
       </c>
       <c r="C212" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>496</v>
+        <v>282</v>
       </c>
       <c r="B213" s="3">
-        <v>1001215576586</v>
+        <v>1001094896026</v>
       </c>
       <c r="C213" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>284</v>
+        <v>496</v>
       </c>
       <c r="B214" s="3">
         <v>1001215576586</v>
@@ -4739,95 +4742,95 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B215" s="3">
-        <v>1001092436470</v>
+        <v>1001215576586</v>
       </c>
       <c r="C215" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B216" s="3">
-        <v>1001203146555</v>
+        <v>1001092436470</v>
       </c>
       <c r="C216" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="B217" s="3">
-        <v>1001014765992</v>
+        <v>1001203146555</v>
       </c>
       <c r="C217" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="B218" s="3">
         <v>1001014765992</v>
       </c>
       <c r="C218" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B219" s="3">
-        <v>1001014765993</v>
+        <v>1001014765992</v>
       </c>
       <c r="C219" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B220" s="3">
-        <v>1001025166776</v>
+        <v>1001014765993</v>
       </c>
       <c r="C220" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B221" s="3">
-        <v>1001025506777</v>
+        <v>1001025166776</v>
       </c>
       <c r="C221" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="B222" s="3">
-        <v>1001025546822</v>
+        <v>1001025506777</v>
       </c>
       <c r="C222" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B223" s="3">
         <v>1001025546822</v>
@@ -4838,62 +4841,62 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="B224" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C224" t="s">
-        <v>554</v>
+        <v>303</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="B225" s="3">
         <v>1001025546822</v>
       </c>
       <c r="C225" t="s">
-        <v>303</v>
+        <v>554</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B226" s="3">
-        <v>1001024976616</v>
+        <v>1001025546822</v>
       </c>
       <c r="C226" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B227" s="3">
-        <v>1001010855247</v>
+        <v>1001024976616</v>
       </c>
       <c r="C227" t="s">
-        <v>23</v>
+        <v>306</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>386</v>
+        <v>308</v>
       </c>
       <c r="B228" s="3">
-        <v>1001223296919</v>
+        <v>1001010855247</v>
       </c>
       <c r="C228" t="s">
-        <v>389</v>
+        <v>23</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>66</v>
+        <v>386</v>
       </c>
       <c r="B229" s="3">
         <v>1001223296919</v>
@@ -4904,7 +4907,7 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>225</v>
+        <v>66</v>
       </c>
       <c r="B230" s="3">
         <v>1001223296919</v>
@@ -4915,29 +4918,29 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>459</v>
+        <v>225</v>
       </c>
       <c r="B231" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C231" t="s">
-        <v>475</v>
+        <v>389</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="B232" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C232" t="s">
-        <v>389</v>
+        <v>475</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>309</v>
+        <v>481</v>
       </c>
       <c r="B233" s="3">
         <v>1001223296919</v>
@@ -4948,73 +4951,73 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B234" s="3">
-        <v>1001014765993</v>
+        <v>1001223296919</v>
       </c>
       <c r="C234" t="s">
-        <v>296</v>
+        <v>389</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B235" s="3">
-        <v>1001025166776</v>
+        <v>1001014765993</v>
       </c>
       <c r="C235" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B236" s="3">
-        <v>1001025506777</v>
+        <v>1001025166776</v>
       </c>
       <c r="C236" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B237" s="3">
-        <v>1001025526778</v>
+        <v>1001025506777</v>
       </c>
       <c r="C237" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B238" s="3">
-        <v>1001304236685</v>
+        <v>1001025526778</v>
       </c>
       <c r="C238" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="B239" s="3">
-        <v>1001015496769</v>
+        <v>1001304236685</v>
       </c>
       <c r="C239" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="B240" s="3">
         <v>1001015496769</v>
@@ -5025,84 +5028,84 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B241" s="3">
-        <v>1001014766798</v>
+        <v>1001015496769</v>
       </c>
       <c r="C241" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B242" s="3">
-        <v>1001015026797</v>
+        <v>1001014766798</v>
       </c>
       <c r="C242" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B243" s="3">
-        <v>1001205386222</v>
+        <v>1001015026797</v>
       </c>
       <c r="C243" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B244" s="3">
-        <v>1001092675224</v>
+        <v>1001205386222</v>
       </c>
       <c r="C244" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B245" s="3">
-        <v>1001225406223</v>
+        <v>1001092675224</v>
       </c>
       <c r="C245" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B246" s="3">
-        <v>1001300366790</v>
+        <v>1001225406223</v>
       </c>
       <c r="C246" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>477</v>
+        <v>348</v>
       </c>
       <c r="B247" s="3">
-        <v>1001304096792</v>
+        <v>1001300366790</v>
       </c>
       <c r="C247" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>350</v>
+        <v>477</v>
       </c>
       <c r="B248" s="3">
         <v>1001304096792</v>
@@ -5113,29 +5116,29 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B249" s="3">
-        <v>1001303636793</v>
+        <v>1001304096792</v>
       </c>
       <c r="C249" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>397</v>
+        <v>351</v>
       </c>
       <c r="B250" s="3">
-        <v>1001303636794</v>
+        <v>1001303636793</v>
       </c>
       <c r="C250" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>497</v>
+        <v>397</v>
       </c>
       <c r="B251" s="3">
         <v>1001303636794</v>
@@ -5146,7 +5149,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>352</v>
+        <v>497</v>
       </c>
       <c r="B252" s="3">
         <v>1001303636794</v>
@@ -5157,51 +5160,51 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B253" s="3">
-        <v>1001302596795</v>
+        <v>1001303636794</v>
       </c>
       <c r="C253" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B254" s="3">
-        <v>1001302596796</v>
+        <v>1001302596795</v>
       </c>
       <c r="C254" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B255" s="3">
-        <v>1001300456804</v>
+        <v>1001302596796</v>
       </c>
       <c r="C255" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>446</v>
+        <v>355</v>
       </c>
       <c r="B256" s="3">
-        <v>1001300366806</v>
+        <v>1001300456804</v>
       </c>
       <c r="C256" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>356</v>
+        <v>446</v>
       </c>
       <c r="B257" s="3">
         <v>1001300366806</v>
@@ -5212,62 +5215,62 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B258" s="3">
-        <v>1001300516803</v>
+        <v>1001300366806</v>
       </c>
       <c r="C258" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B259" s="3">
-        <v>1001300366807</v>
+        <v>1001300516803</v>
       </c>
       <c r="C259" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="B260" s="3">
         <v>1001300366807</v>
       </c>
       <c r="C260" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B261" s="3">
-        <v>1001300516785</v>
+        <v>1001300366807</v>
       </c>
       <c r="C261" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>540</v>
+        <v>372</v>
       </c>
       <c r="B262" s="3">
-        <v>1001300456787</v>
+        <v>1001300516785</v>
       </c>
       <c r="C262" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="B263" s="3">
         <v>1001300456787</v>
@@ -5278,7 +5281,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>374</v>
+        <v>555</v>
       </c>
       <c r="B264" s="3">
         <v>1001300456787</v>
@@ -5289,73 +5292,73 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B265" s="3">
-        <v>1001303636793</v>
+        <v>1001300456787</v>
       </c>
       <c r="C265" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B266" s="3">
-        <v>1001302596795</v>
+        <v>1001303636793</v>
       </c>
       <c r="C266" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B267" s="3">
-        <v>1001012486332</v>
+        <v>1001302596795</v>
       </c>
       <c r="C267" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B268" s="3">
-        <v>1001012566345</v>
+        <v>1001012486332</v>
       </c>
       <c r="C268" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B269" s="3">
-        <v>1001031076528</v>
+        <v>1001012566345</v>
       </c>
       <c r="C269" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>414</v>
+        <v>383</v>
       </c>
       <c r="B270" s="3">
-        <v>1001020836761</v>
+        <v>1001031076528</v>
       </c>
       <c r="C270" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B271" s="3">
         <v>1001020836761</v>
@@ -5366,7 +5369,7 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>390</v>
+        <v>419</v>
       </c>
       <c r="B272" s="3">
         <v>1001020836761</v>
@@ -5377,18 +5380,18 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="B273" s="3">
-        <v>1001020846764</v>
+        <v>1001020836761</v>
       </c>
       <c r="C273" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B274" s="3">
         <v>1001020846764</v>
@@ -5399,7 +5402,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
       <c r="B275" s="3">
         <v>1001020846764</v>
@@ -5410,18 +5413,18 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>493</v>
+        <v>392</v>
       </c>
       <c r="B276" s="3">
-        <v>1001300366790</v>
+        <v>1001020846764</v>
       </c>
       <c r="C276" t="s">
-        <v>359</v>
+        <v>393</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>394</v>
+        <v>493</v>
       </c>
       <c r="B277" s="3">
         <v>1001300366790</v>
@@ -5432,18 +5435,18 @@
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>349</v>
+        <v>394</v>
       </c>
       <c r="B278" s="3">
-        <v>1001304096791</v>
+        <v>1001300366790</v>
       </c>
       <c r="C278" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>468</v>
+        <v>349</v>
       </c>
       <c r="B279" s="3">
         <v>1001304096791</v>
@@ -5454,7 +5457,7 @@
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>395</v>
+        <v>468</v>
       </c>
       <c r="B280" s="3">
         <v>1001304096791</v>
@@ -5465,84 +5468,84 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B281" s="3">
-        <v>1001303636793</v>
+        <v>1001304096791</v>
       </c>
       <c r="C281" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B282" s="3">
-        <v>1001302596795</v>
+        <v>1001303636793</v>
       </c>
       <c r="C282" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B283" s="3">
-        <v>1001300516803</v>
+        <v>1001302596795</v>
       </c>
       <c r="C283" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B284" s="3">
-        <v>1001300456804</v>
+        <v>1001300516803</v>
       </c>
       <c r="C284" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B285" s="3">
-        <v>1001300366807</v>
+        <v>1001300456804</v>
       </c>
       <c r="C285" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B286" s="3">
-        <v>1001302596796</v>
+        <v>1001300366807</v>
       </c>
       <c r="C286" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>452</v>
+        <v>402</v>
       </c>
       <c r="B287" s="3">
-        <v>1001023696765</v>
+        <v>1001302596796</v>
       </c>
       <c r="C287" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="B288" s="3">
         <v>1001023696765</v>
@@ -5553,7 +5556,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>404</v>
+        <v>471</v>
       </c>
       <c r="B289" s="3">
         <v>1001023696765</v>
@@ -5564,18 +5567,18 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B290" s="3">
-        <v>1001023696767</v>
+        <v>1001023696765</v>
       </c>
       <c r="C290" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B291" s="3">
         <v>1001023696767</v>
@@ -5586,7 +5589,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="B292" s="3">
         <v>1001023696767</v>
@@ -5597,18 +5600,18 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B293" s="3">
-        <v>1001024976829</v>
+        <v>1001023696767</v>
       </c>
       <c r="C293" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B294" s="3">
         <v>1001024976829</v>
@@ -5619,29 +5622,29 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="B295" s="3">
-        <v>1001022376722</v>
+        <v>1001024976829</v>
       </c>
       <c r="C295" t="s">
-        <v>119</v>
+        <v>403</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>451</v>
+        <v>424</v>
       </c>
       <c r="B296" s="3">
-        <v>1001020846762</v>
+        <v>1001022376722</v>
       </c>
       <c r="C296" t="s">
-        <v>426</v>
+        <v>119</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="B297" s="3">
         <v>1001020846762</v>
@@ -5652,7 +5655,7 @@
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>425</v>
+        <v>470</v>
       </c>
       <c r="B298" s="3">
         <v>1001020846762</v>
@@ -5663,18 +5666,18 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>124</v>
+        <v>425</v>
       </c>
       <c r="B299" s="3">
-        <v>1001022656853</v>
+        <v>1001020846762</v>
       </c>
       <c r="C299" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>492</v>
+        <v>124</v>
       </c>
       <c r="B300" s="3">
         <v>1001022656853</v>
@@ -5685,18 +5688,18 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>576</v>
+        <v>492</v>
       </c>
       <c r="B301" s="3">
-        <v>1001022656948</v>
+        <v>1001022656853</v>
       </c>
       <c r="C301" t="s">
-        <v>567</v>
+        <v>429</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="B302" s="3">
         <v>1001022656948</v>
@@ -5707,7 +5710,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>428</v>
+        <v>570</v>
       </c>
       <c r="B303" s="3">
         <v>1001022656948</v>
@@ -5718,29 +5721,29 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B304" s="3">
-        <v>1001022656852</v>
+        <v>1001022656948</v>
       </c>
       <c r="C304" t="s">
-        <v>435</v>
+        <v>567</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="B305" s="3">
-        <v>1001020836759</v>
+        <v>1001022656852</v>
       </c>
       <c r="C305" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="B306" s="3">
         <v>1001020836759</v>
@@ -5751,7 +5754,7 @@
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>436</v>
+        <v>469</v>
       </c>
       <c r="B307" s="3">
         <v>1001020836759</v>
@@ -5762,51 +5765,51 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B308" s="3">
-        <v>1001023856870</v>
+        <v>1001020836759</v>
       </c>
       <c r="C308" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="B309" s="3">
-        <v>1001013956426</v>
+        <v>1001023856870</v>
       </c>
       <c r="C309" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B310" s="3">
-        <v>1001093345495</v>
+        <v>1001013956426</v>
       </c>
       <c r="C310" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>485</v>
+        <v>456</v>
       </c>
       <c r="B311" s="3">
-        <v>1001022656868</v>
+        <v>1001093345495</v>
       </c>
       <c r="C311" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>457</v>
+        <v>485</v>
       </c>
       <c r="B312" s="3">
         <v>1001022656868</v>
@@ -5817,18 +5820,18 @@
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>166</v>
+        <v>457</v>
       </c>
       <c r="B313" s="3">
-        <v>1001034065698</v>
+        <v>1001022656868</v>
       </c>
       <c r="C313" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="B314" s="3">
         <v>1001034065698</v>
@@ -5839,7 +5842,7 @@
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>483</v>
+        <v>185</v>
       </c>
       <c r="B315" s="3">
         <v>1001034065698</v>
@@ -5850,7 +5853,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="B316" s="3">
         <v>1001034065698</v>
@@ -5861,29 +5864,29 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B317" s="3">
-        <v>1001084216206</v>
+        <v>1001034065698</v>
       </c>
       <c r="C317" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="B318" s="3">
-        <v>1001015646861</v>
+        <v>1001084216206</v>
       </c>
       <c r="C318" t="s">
-        <v>427</v>
+        <v>388</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="B319" s="3">
         <v>1001015646861</v>
@@ -5894,18 +5897,18 @@
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="B320" s="3">
-        <v>1001025176768</v>
+        <v>1001015646861</v>
       </c>
       <c r="C320" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>472</v>
+        <v>449</v>
       </c>
       <c r="B321" s="3">
         <v>1001025176768</v>
@@ -5916,7 +5919,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="B322" s="3">
         <v>1001025176768</v>
@@ -5927,18 +5930,18 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="B323" s="3">
-        <v>1001025486770</v>
+        <v>1001025176768</v>
       </c>
       <c r="C323" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="B324" s="3">
         <v>1001025486770</v>
@@ -5949,7 +5952,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="B325" s="3">
         <v>1001025486770</v>
@@ -5960,18 +5963,18 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>208</v>
+        <v>465</v>
       </c>
       <c r="B326" s="3">
-        <v>1001012816340</v>
+        <v>1001025486770</v>
       </c>
       <c r="C326" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>487</v>
+        <v>208</v>
       </c>
       <c r="B327" s="3">
         <v>1001012816340</v>
@@ -5982,7 +5985,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>466</v>
+        <v>487</v>
       </c>
       <c r="B328" s="3">
         <v>1001012816340</v>
@@ -5993,18 +5996,18 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>310</v>
+        <v>466</v>
       </c>
       <c r="B329" s="3">
-        <v>1001203146834</v>
+        <v>1001012816340</v>
       </c>
       <c r="C329" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>460</v>
+        <v>310</v>
       </c>
       <c r="B330" s="3">
         <v>1001203146834</v>
@@ -6015,7 +6018,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="B331" s="3">
         <v>1001203146834</v>
@@ -6026,7 +6029,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="B332" s="3">
         <v>1001203146834</v>
@@ -6037,62 +6040,62 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="B333" s="3">
-        <v>1001300456788</v>
+        <v>1001203146834</v>
       </c>
       <c r="C333" t="s">
-        <v>480</v>
+        <v>433</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="B334" s="3">
-        <v>1001022556837</v>
+        <v>1001300456788</v>
       </c>
       <c r="C334" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B335" s="3">
-        <v>1001300516786</v>
+        <v>1001022556837</v>
       </c>
       <c r="C335" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B336" s="3">
-        <v>1001214196459</v>
+        <v>1001300516786</v>
       </c>
       <c r="C336" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>551</v>
+        <v>498</v>
       </c>
       <c r="B337" s="3">
-        <v>1001092436495</v>
+        <v>1001214196459</v>
       </c>
       <c r="C337" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="B338" s="3">
         <v>1001092436495</v>
@@ -6103,7 +6106,7 @@
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>500</v>
+        <v>558</v>
       </c>
       <c r="B339" s="3">
         <v>1001092436495</v>
@@ -6114,40 +6117,40 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B340" s="3">
-        <v>1001025526901</v>
+        <v>1001092436495</v>
       </c>
       <c r="C340" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B341" s="3">
-        <v>1001025546931</v>
+        <v>1001025526901</v>
       </c>
       <c r="C341" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="B342" s="3">
-        <v>1001010016324</v>
+        <v>1001025546931</v>
       </c>
       <c r="C342" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>544</v>
+        <v>514</v>
       </c>
       <c r="B343" s="3">
         <v>1001010016324</v>
@@ -6158,7 +6161,7 @@
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>507</v>
+        <v>544</v>
       </c>
       <c r="B344" s="3">
         <v>1001010016324</v>
@@ -6169,18 +6172,18 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B345" s="3">
-        <v>1001025766909</v>
+        <v>1001010016324</v>
       </c>
       <c r="C345" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>545</v>
+        <v>511</v>
       </c>
       <c r="B346" s="3">
         <v>1001025766909</v>
@@ -6191,7 +6194,7 @@
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>509</v>
+        <v>545</v>
       </c>
       <c r="B347" s="3">
         <v>1001025766909</v>
@@ -6202,18 +6205,18 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>543</v>
+        <v>509</v>
       </c>
       <c r="B348" s="3">
-        <v>1001010014558</v>
+        <v>1001025766909</v>
       </c>
       <c r="C348" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>512</v>
+        <v>543</v>
       </c>
       <c r="B349" s="3">
         <v>1001010014558</v>
@@ -6224,18 +6227,18 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>538</v>
+        <v>512</v>
       </c>
       <c r="B350" s="3">
-        <v>1001012596802</v>
+        <v>1001010014558</v>
       </c>
       <c r="C350" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="B351" s="3">
         <v>1001012596802</v>
@@ -6246,7 +6249,7 @@
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>515</v>
+        <v>547</v>
       </c>
       <c r="B352" s="3">
         <v>1001012596802</v>
@@ -6257,18 +6260,18 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="B353" s="3">
-        <v>1001012596801</v>
+        <v>1001012596802</v>
       </c>
       <c r="C353" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="B354" s="3">
         <v>1001012596801</v>
@@ -6279,7 +6282,7 @@
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="B355" s="3">
         <v>1001012596801</v>
@@ -6290,161 +6293,161 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B356" s="3">
-        <v>1001062353684</v>
+        <v>1001012596801</v>
       </c>
       <c r="C356" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B357" s="3">
-        <v>1001010014555</v>
+        <v>1001062353684</v>
       </c>
       <c r="C357" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B358" s="3">
-        <v>1001083424691</v>
+        <v>1001010014555</v>
       </c>
       <c r="C358" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B359" s="3">
-        <v>1001190765679</v>
+        <v>1001083424691</v>
       </c>
       <c r="C359" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B360" s="3">
-        <v>1001085636200</v>
+        <v>1001190765679</v>
       </c>
       <c r="C360" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B361" s="3">
-        <v>1001020836253</v>
+        <v>1001085636200</v>
       </c>
       <c r="C361" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B362" s="3">
-        <v>1001084226492</v>
+        <v>1001020836253</v>
       </c>
       <c r="C362" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B363" s="3">
-        <v>1001223296921</v>
+        <v>1001084226492</v>
       </c>
       <c r="C363" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B364" s="3">
-        <v>1001053944786</v>
+        <v>1001223296921</v>
       </c>
       <c r="C364" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B365" s="3">
-        <v>1001010016839</v>
+        <v>1001053944786</v>
       </c>
       <c r="C365" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="B366" s="3">
-        <v>1001023857038</v>
+        <v>1001010016839</v>
       </c>
       <c r="C366" t="s">
-        <v>589</v>
+        <v>542</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B367" s="3">
-        <v>1001040434903</v>
+        <v>1001023857038</v>
       </c>
       <c r="C367" t="s">
-        <v>550</v>
+        <v>589</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B368" s="3">
-        <v>1001080216842</v>
+        <v>1001040434903</v>
       </c>
       <c r="C368" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B369" s="3">
-        <v>1001022466951</v>
+        <v>1001080216842</v>
       </c>
       <c r="C369" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B370" s="3">
         <v>1001022466951</v>
@@ -6455,106 +6458,106 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B371" s="3">
-        <v>1001035276653</v>
+        <v>1001022466951</v>
       </c>
       <c r="C371" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B372" s="3">
-        <v>1001062353680</v>
+        <v>1001035276653</v>
       </c>
       <c r="C372" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B373" s="3">
-        <v>1001061971146</v>
+        <v>1001062353680</v>
       </c>
       <c r="C373" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B374" s="3">
-        <v>1001225636201</v>
+        <v>1001061971146</v>
       </c>
       <c r="C374" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B375" s="3">
-        <v>1001020836724</v>
+        <v>1001225636201</v>
       </c>
       <c r="C375" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B376" s="3">
-        <v>1001095227035</v>
+        <v>1001020836724</v>
       </c>
       <c r="C376" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B377" s="3">
-        <v>1001023857038</v>
+        <v>1001095227035</v>
       </c>
       <c r="C377" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B378" s="3">
-        <v>1001025027040</v>
+        <v>1001023857038</v>
       </c>
       <c r="C378" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B379" s="3">
-        <v>1001223297103</v>
+        <v>1001025027040</v>
       </c>
       <c r="C379" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B380" s="3">
         <v>1001223297103</v>
@@ -6565,7 +6568,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B381" s="3">
         <v>1001223297103</v>
@@ -6576,18 +6579,18 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>615</v>
+        <v>593</v>
       </c>
       <c r="B382" s="3">
-        <v>1001010032675</v>
+        <v>1001223297103</v>
       </c>
       <c r="C382" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>595</v>
+        <v>615</v>
       </c>
       <c r="B383" s="3">
         <v>1001010032675</v>
@@ -6598,18 +6601,18 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>620</v>
+        <v>595</v>
       </c>
       <c r="B384" s="3">
-        <v>1001035937001</v>
+        <v>1001010032675</v>
       </c>
       <c r="C384" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>597</v>
+        <v>620</v>
       </c>
       <c r="B385" s="3">
         <v>1001035937001</v>
@@ -6620,18 +6623,18 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>621</v>
+        <v>597</v>
       </c>
       <c r="B386" s="3">
-        <v>1001084217090</v>
+        <v>1001035937001</v>
       </c>
       <c r="C386" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>599</v>
+        <v>621</v>
       </c>
       <c r="B387" s="3">
         <v>1001084217090</v>
@@ -6642,18 +6645,18 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>622</v>
+        <v>599</v>
       </c>
       <c r="B388" s="3">
-        <v>1001022377066</v>
+        <v>1001084217090</v>
       </c>
       <c r="C388" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>601</v>
+        <v>622</v>
       </c>
       <c r="B389" s="3">
         <v>1001022377066</v>
@@ -6664,18 +6667,18 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>623</v>
+        <v>601</v>
       </c>
       <c r="B390" s="3">
-        <v>1001022467080</v>
+        <v>1001022377066</v>
       </c>
       <c r="C390" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>603</v>
+        <v>623</v>
       </c>
       <c r="B391" s="3">
         <v>1001022467080</v>
@@ -6686,18 +6689,18 @@
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>624</v>
+        <v>603</v>
       </c>
       <c r="B392" s="3">
-        <v>1001025507077</v>
+        <v>1001022467080</v>
       </c>
       <c r="C392" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>605</v>
+        <v>624</v>
       </c>
       <c r="B393" s="3">
         <v>1001025507077</v>
@@ -6708,18 +6711,18 @@
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>627</v>
+        <v>605</v>
       </c>
       <c r="B394" s="3">
-        <v>1001022657075</v>
+        <v>1001025507077</v>
       </c>
       <c r="C394" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>607</v>
+        <v>627</v>
       </c>
       <c r="B395" s="3">
         <v>1001022657075</v>
@@ -6730,18 +6733,18 @@
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>625</v>
+        <v>607</v>
       </c>
       <c r="B396" s="3">
-        <v>1001022467082</v>
+        <v>1001022657075</v>
       </c>
       <c r="C396" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="B397" s="3">
         <v>1001022467082</v>
@@ -6752,18 +6755,18 @@
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>626</v>
+        <v>609</v>
       </c>
       <c r="B398" s="3">
-        <v>1001022377070</v>
+        <v>1001022467082</v>
       </c>
       <c r="C398" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>611</v>
+        <v>626</v>
       </c>
       <c r="B399" s="3">
         <v>1001022377070</v>
@@ -6774,18 +6777,18 @@
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>628</v>
+        <v>611</v>
       </c>
       <c r="B400" s="3">
-        <v>1001022657073</v>
+        <v>1001022377070</v>
       </c>
       <c r="C400" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>613</v>
+        <v>628</v>
       </c>
       <c r="B401" s="3">
         <v>1001022657073</v>
@@ -6796,18 +6799,18 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>639</v>
+        <v>613</v>
       </c>
       <c r="B402" s="3">
-        <v>1001010027126</v>
+        <v>1001022657073</v>
       </c>
       <c r="C402" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>616</v>
+        <v>639</v>
       </c>
       <c r="B403" s="3">
         <v>1001010027126</v>
@@ -6818,18 +6821,18 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B404" s="3">
-        <v>1001010027125</v>
+        <v>1001010027126</v>
       </c>
       <c r="C404" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>640</v>
+        <v>618</v>
       </c>
       <c r="B405" s="3">
         <v>1001010027125</v>
@@ -6840,83 +6843,94 @@
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B406" s="3">
-        <v>1001016366888</v>
+        <v>1001010027125</v>
       </c>
       <c r="C406" t="s">
-        <v>642</v>
+        <v>619</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B407" s="3">
-        <v>1001300367133</v>
+        <v>1001016366888</v>
       </c>
       <c r="C407" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B408" s="3">
-        <v>1001303637131</v>
+        <v>1001300367133</v>
       </c>
       <c r="C408" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B409" s="3">
-        <v>1001304527146</v>
+        <v>1001303637131</v>
       </c>
       <c r="C409" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B410" s="3">
-        <v>1001300517134</v>
+        <v>1001304527146</v>
       </c>
       <c r="C410" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B411" s="3">
-        <v>1001300457135</v>
+        <v>1001300517134</v>
       </c>
       <c r="C411" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B412" s="3">
+        <v>1001300457135</v>
+      </c>
+      <c r="C412" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="B412" s="3">
+      <c r="B413" s="3">
         <v>1001304527144</v>
       </c>
-      <c r="C412" t="s">
+      <c r="C413" t="s">
         <v>654</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C412" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C413" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/NV/moduls/1С.xlsx
+++ b/NV/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\NV\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E90DA45-7A0D-44C0-AD57-9A5C016B6937}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC36533-EA56-4982-AFB0-A0F0C956DA5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$413</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$417</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="664">
   <si>
     <t>1С</t>
   </si>
@@ -2014,6 +2014,18 @@
   </si>
   <si>
     <t>7173 БОЯNСКАЯ ПМ п/к в/у 0,28кг 8шт_50с  Останкино</t>
+  </si>
+  <si>
+    <t>7134 САЛЯМИ ВЕНСКАЯ п/к в/у 0,84кг 6шт  Останкино</t>
+  </si>
+  <si>
+    <t>7144 МРАМОРНАЯ ПРЕМИУМ в/к в/у 0,33кг 8 шт  Останкино</t>
+  </si>
+  <si>
+    <t>7131 БАЛЫКОВАЯ в/к в/у 0,84кг  Останкино</t>
+  </si>
+  <si>
+    <t>6888 С ГРУДИНОЙ вар п/о в/у срез 0,4 кг 8 шт  Останкино</t>
   </si>
 </sst>
 </file>
@@ -2368,11 +2380,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F413"/>
+  <dimension ref="A1:F417"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6854,7 +6866,7 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>641</v>
+        <v>663</v>
       </c>
       <c r="B407" s="3">
         <v>1001016366888</v>
@@ -6865,72 +6877,116 @@
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B408" s="3">
-        <v>1001300367133</v>
+        <v>1001016366888</v>
       </c>
       <c r="C408" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B409" s="3">
-        <v>1001303637131</v>
+        <v>1001300367133</v>
       </c>
       <c r="C409" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>647</v>
+        <v>662</v>
       </c>
       <c r="B410" s="3">
-        <v>1001304527146</v>
+        <v>1001303637131</v>
       </c>
       <c r="C410" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B411" s="3">
-        <v>1001300517134</v>
+        <v>1001303637131</v>
       </c>
       <c r="C411" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B412" s="3">
-        <v>1001300457135</v>
+        <v>1001304527146</v>
       </c>
       <c r="C412" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B413" s="3">
+        <v>1001300517134</v>
+      </c>
+      <c r="C413" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B414" s="3">
+        <v>1001300517134</v>
+      </c>
+      <c r="C414" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B415" s="3">
+        <v>1001300457135</v>
+      </c>
+      <c r="C415" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="B413" s="3">
+      <c r="B416" s="3">
         <v>1001304527144</v>
       </c>
-      <c r="C413" t="s">
+      <c r="C416" t="s">
         <v>654</v>
       </c>
     </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B417" s="3">
+        <v>1001304527144</v>
+      </c>
+      <c r="C417" t="s">
+        <v>654</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C413" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C417" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/NV/moduls/1С.xlsx
+++ b/NV/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\NV\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC36533-EA56-4982-AFB0-A0F0C956DA5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9198236-984E-4411-AB9B-29670DC22D68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$417</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$419</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="666">
   <si>
     <t>1С</t>
   </si>
@@ -2026,6 +2026,12 @@
   </si>
   <si>
     <t>6888 С ГРУДИНОЙ вар п/о в/у срез 0,4 кг 8 шт  Останкино</t>
+  </si>
+  <si>
+    <t>7133 СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у 0,84кг  Останкино</t>
+  </si>
+  <si>
+    <t>7146 МРАМОРНАЯ ПРЕМИУМ в/к в/у  Останкино</t>
   </si>
 </sst>
 </file>
@@ -2380,11 +2386,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F417"/>
+  <dimension ref="A1:F419"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6888,7 +6894,7 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>643</v>
+        <v>664</v>
       </c>
       <c r="B409" s="3">
         <v>1001300367133</v>
@@ -6899,18 +6905,18 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>662</v>
+        <v>643</v>
       </c>
       <c r="B410" s="3">
-        <v>1001303637131</v>
+        <v>1001300367133</v>
       </c>
       <c r="C410" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>645</v>
+        <v>662</v>
       </c>
       <c r="B411" s="3">
         <v>1001303637131</v>
@@ -6921,72 +6927,94 @@
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B412" s="3">
-        <v>1001304527146</v>
+        <v>1001303637131</v>
       </c>
       <c r="C412" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="B413" s="3">
-        <v>1001300517134</v>
+        <v>1001304527146</v>
       </c>
       <c r="C413" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B414" s="3">
-        <v>1001300517134</v>
+        <v>1001304527146</v>
       </c>
       <c r="C414" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="B415" s="3">
-        <v>1001300457135</v>
+        <v>1001300517134</v>
       </c>
       <c r="C415" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B416" s="3">
-        <v>1001304527144</v>
+        <v>1001300517134</v>
       </c>
       <c r="C416" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B417" s="3">
+        <v>1001300457135</v>
+      </c>
+      <c r="C417" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="B418" s="3">
+        <v>1001304527144</v>
+      </c>
+      <c r="C418" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="B417" s="3">
+      <c r="B419" s="3">
         <v>1001304527144</v>
       </c>
-      <c r="C417" t="s">
+      <c r="C419" t="s">
         <v>654</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C417" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C419" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/NV/moduls/1С.xlsx
+++ b/NV/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\NV\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9198236-984E-4411-AB9B-29670DC22D68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524BF626-F8F3-463F-AE69-F6A8DFA54A0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$419</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$420</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="667">
   <si>
     <t>1С</t>
   </si>
@@ -2032,6 +2032,9 @@
   </si>
   <si>
     <t>7146 МРАМОРНАЯ ПРЕМИУМ в/к в/у  Останкино</t>
+  </si>
+  <si>
+    <t>6616 МОЛОЧНЫЕ КЛАССИЧЕСКИЕ сос п/о в/у 0,3 кг  Останкино</t>
   </si>
 </sst>
 </file>
@@ -2386,11 +2389,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F419"/>
+  <dimension ref="A1:F420"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4892,7 +4895,7 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>307</v>
+        <v>666</v>
       </c>
       <c r="B227" s="3">
         <v>1001024976616</v>
@@ -4903,29 +4906,29 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B228" s="3">
-        <v>1001010855247</v>
+        <v>1001024976616</v>
       </c>
       <c r="C228" t="s">
-        <v>23</v>
+        <v>306</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>386</v>
+        <v>308</v>
       </c>
       <c r="B229" s="3">
-        <v>1001223296919</v>
+        <v>1001010855247</v>
       </c>
       <c r="C229" t="s">
-        <v>389</v>
+        <v>23</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>66</v>
+        <v>386</v>
       </c>
       <c r="B230" s="3">
         <v>1001223296919</v>
@@ -4936,7 +4939,7 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>225</v>
+        <v>66</v>
       </c>
       <c r="B231" s="3">
         <v>1001223296919</v>
@@ -4947,29 +4950,29 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>459</v>
+        <v>225</v>
       </c>
       <c r="B232" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C232" t="s">
-        <v>475</v>
+        <v>389</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="B233" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C233" t="s">
-        <v>389</v>
+        <v>475</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>309</v>
+        <v>481</v>
       </c>
       <c r="B234" s="3">
         <v>1001223296919</v>
@@ -4980,73 +4983,73 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B235" s="3">
-        <v>1001014765993</v>
+        <v>1001223296919</v>
       </c>
       <c r="C235" t="s">
-        <v>296</v>
+        <v>389</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B236" s="3">
-        <v>1001025166776</v>
+        <v>1001014765993</v>
       </c>
       <c r="C236" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B237" s="3">
-        <v>1001025506777</v>
+        <v>1001025166776</v>
       </c>
       <c r="C237" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B238" s="3">
-        <v>1001025526778</v>
+        <v>1001025506777</v>
       </c>
       <c r="C238" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B239" s="3">
-        <v>1001304236685</v>
+        <v>1001025526778</v>
       </c>
       <c r="C239" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="B240" s="3">
-        <v>1001015496769</v>
+        <v>1001304236685</v>
       </c>
       <c r="C240" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="B241" s="3">
         <v>1001015496769</v>
@@ -5057,84 +5060,84 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B242" s="3">
-        <v>1001014766798</v>
+        <v>1001015496769</v>
       </c>
       <c r="C242" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B243" s="3">
-        <v>1001015026797</v>
+        <v>1001014766798</v>
       </c>
       <c r="C243" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B244" s="3">
-        <v>1001205386222</v>
+        <v>1001015026797</v>
       </c>
       <c r="C244" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B245" s="3">
-        <v>1001092675224</v>
+        <v>1001205386222</v>
       </c>
       <c r="C245" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B246" s="3">
-        <v>1001225406223</v>
+        <v>1001092675224</v>
       </c>
       <c r="C246" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B247" s="3">
-        <v>1001300366790</v>
+        <v>1001225406223</v>
       </c>
       <c r="C247" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>477</v>
+        <v>348</v>
       </c>
       <c r="B248" s="3">
-        <v>1001304096792</v>
+        <v>1001300366790</v>
       </c>
       <c r="C248" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>350</v>
+        <v>477</v>
       </c>
       <c r="B249" s="3">
         <v>1001304096792</v>
@@ -5145,29 +5148,29 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B250" s="3">
-        <v>1001303636793</v>
+        <v>1001304096792</v>
       </c>
       <c r="C250" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>397</v>
+        <v>351</v>
       </c>
       <c r="B251" s="3">
-        <v>1001303636794</v>
+        <v>1001303636793</v>
       </c>
       <c r="C251" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>497</v>
+        <v>397</v>
       </c>
       <c r="B252" s="3">
         <v>1001303636794</v>
@@ -5178,7 +5181,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>352</v>
+        <v>497</v>
       </c>
       <c r="B253" s="3">
         <v>1001303636794</v>
@@ -5189,51 +5192,51 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B254" s="3">
-        <v>1001302596795</v>
+        <v>1001303636794</v>
       </c>
       <c r="C254" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B255" s="3">
-        <v>1001302596796</v>
+        <v>1001302596795</v>
       </c>
       <c r="C255" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B256" s="3">
-        <v>1001300456804</v>
+        <v>1001302596796</v>
       </c>
       <c r="C256" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>446</v>
+        <v>355</v>
       </c>
       <c r="B257" s="3">
-        <v>1001300366806</v>
+        <v>1001300456804</v>
       </c>
       <c r="C257" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>356</v>
+        <v>446</v>
       </c>
       <c r="B258" s="3">
         <v>1001300366806</v>
@@ -5244,62 +5247,62 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B259" s="3">
-        <v>1001300516803</v>
+        <v>1001300366806</v>
       </c>
       <c r="C259" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B260" s="3">
-        <v>1001300366807</v>
+        <v>1001300516803</v>
       </c>
       <c r="C260" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="B261" s="3">
         <v>1001300366807</v>
       </c>
       <c r="C261" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B262" s="3">
-        <v>1001300516785</v>
+        <v>1001300366807</v>
       </c>
       <c r="C262" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>540</v>
+        <v>372</v>
       </c>
       <c r="B263" s="3">
-        <v>1001300456787</v>
+        <v>1001300516785</v>
       </c>
       <c r="C263" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="B264" s="3">
         <v>1001300456787</v>
@@ -5310,7 +5313,7 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>374</v>
+        <v>555</v>
       </c>
       <c r="B265" s="3">
         <v>1001300456787</v>
@@ -5321,73 +5324,73 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B266" s="3">
-        <v>1001303636793</v>
+        <v>1001300456787</v>
       </c>
       <c r="C266" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B267" s="3">
-        <v>1001302596795</v>
+        <v>1001303636793</v>
       </c>
       <c r="C267" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B268" s="3">
-        <v>1001012486332</v>
+        <v>1001302596795</v>
       </c>
       <c r="C268" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B269" s="3">
-        <v>1001012566345</v>
+        <v>1001012486332</v>
       </c>
       <c r="C269" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B270" s="3">
-        <v>1001031076528</v>
+        <v>1001012566345</v>
       </c>
       <c r="C270" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>414</v>
+        <v>383</v>
       </c>
       <c r="B271" s="3">
-        <v>1001020836761</v>
+        <v>1001031076528</v>
       </c>
       <c r="C271" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B272" s="3">
         <v>1001020836761</v>
@@ -5398,7 +5401,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>390</v>
+        <v>419</v>
       </c>
       <c r="B273" s="3">
         <v>1001020836761</v>
@@ -5409,18 +5412,18 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="B274" s="3">
-        <v>1001020846764</v>
+        <v>1001020836761</v>
       </c>
       <c r="C274" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B275" s="3">
         <v>1001020846764</v>
@@ -5431,7 +5434,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
       <c r="B276" s="3">
         <v>1001020846764</v>
@@ -5442,18 +5445,18 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>493</v>
+        <v>392</v>
       </c>
       <c r="B277" s="3">
-        <v>1001300366790</v>
+        <v>1001020846764</v>
       </c>
       <c r="C277" t="s">
-        <v>359</v>
+        <v>393</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>394</v>
+        <v>493</v>
       </c>
       <c r="B278" s="3">
         <v>1001300366790</v>
@@ -5464,18 +5467,18 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>349</v>
+        <v>394</v>
       </c>
       <c r="B279" s="3">
-        <v>1001304096791</v>
+        <v>1001300366790</v>
       </c>
       <c r="C279" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>468</v>
+        <v>349</v>
       </c>
       <c r="B280" s="3">
         <v>1001304096791</v>
@@ -5486,7 +5489,7 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>395</v>
+        <v>468</v>
       </c>
       <c r="B281" s="3">
         <v>1001304096791</v>
@@ -5497,84 +5500,84 @@
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B282" s="3">
-        <v>1001303636793</v>
+        <v>1001304096791</v>
       </c>
       <c r="C282" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B283" s="3">
-        <v>1001302596795</v>
+        <v>1001303636793</v>
       </c>
       <c r="C283" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B284" s="3">
-        <v>1001300516803</v>
+        <v>1001302596795</v>
       </c>
       <c r="C284" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B285" s="3">
-        <v>1001300456804</v>
+        <v>1001300516803</v>
       </c>
       <c r="C285" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B286" s="3">
-        <v>1001300366807</v>
+        <v>1001300456804</v>
       </c>
       <c r="C286" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B287" s="3">
-        <v>1001302596796</v>
+        <v>1001300366807</v>
       </c>
       <c r="C287" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>452</v>
+        <v>402</v>
       </c>
       <c r="B288" s="3">
-        <v>1001023696765</v>
+        <v>1001302596796</v>
       </c>
       <c r="C288" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="B289" s="3">
         <v>1001023696765</v>
@@ -5585,7 +5588,7 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>404</v>
+        <v>471</v>
       </c>
       <c r="B290" s="3">
         <v>1001023696765</v>
@@ -5596,18 +5599,18 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="B291" s="3">
-        <v>1001023696767</v>
+        <v>1001023696765</v>
       </c>
       <c r="C291" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B292" s="3">
         <v>1001023696767</v>
@@ -5618,7 +5621,7 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="B293" s="3">
         <v>1001023696767</v>
@@ -5629,18 +5632,18 @@
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B294" s="3">
-        <v>1001024976829</v>
+        <v>1001023696767</v>
       </c>
       <c r="C294" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B295" s="3">
         <v>1001024976829</v>
@@ -5651,29 +5654,29 @@
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="B296" s="3">
-        <v>1001022376722</v>
+        <v>1001024976829</v>
       </c>
       <c r="C296" t="s">
-        <v>119</v>
+        <v>403</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>451</v>
+        <v>424</v>
       </c>
       <c r="B297" s="3">
-        <v>1001020846762</v>
+        <v>1001022376722</v>
       </c>
       <c r="C297" t="s">
-        <v>426</v>
+        <v>119</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="B298" s="3">
         <v>1001020846762</v>
@@ -5684,7 +5687,7 @@
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>425</v>
+        <v>470</v>
       </c>
       <c r="B299" s="3">
         <v>1001020846762</v>
@@ -5695,18 +5698,18 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>124</v>
+        <v>425</v>
       </c>
       <c r="B300" s="3">
-        <v>1001022656853</v>
+        <v>1001020846762</v>
       </c>
       <c r="C300" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>492</v>
+        <v>124</v>
       </c>
       <c r="B301" s="3">
         <v>1001022656853</v>
@@ -5717,18 +5720,18 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>576</v>
+        <v>492</v>
       </c>
       <c r="B302" s="3">
-        <v>1001022656948</v>
+        <v>1001022656853</v>
       </c>
       <c r="C302" t="s">
-        <v>567</v>
+        <v>429</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="B303" s="3">
         <v>1001022656948</v>
@@ -5739,7 +5742,7 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>428</v>
+        <v>570</v>
       </c>
       <c r="B304" s="3">
         <v>1001022656948</v>
@@ -5750,29 +5753,29 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B305" s="3">
-        <v>1001022656852</v>
+        <v>1001022656948</v>
       </c>
       <c r="C305" t="s">
-        <v>435</v>
+        <v>567</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="B306" s="3">
-        <v>1001020836759</v>
+        <v>1001022656852</v>
       </c>
       <c r="C306" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="B307" s="3">
         <v>1001020836759</v>
@@ -5783,7 +5786,7 @@
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>436</v>
+        <v>469</v>
       </c>
       <c r="B308" s="3">
         <v>1001020836759</v>
@@ -5794,51 +5797,51 @@
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B309" s="3">
-        <v>1001023856870</v>
+        <v>1001020836759</v>
       </c>
       <c r="C309" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="B310" s="3">
-        <v>1001013956426</v>
+        <v>1001023856870</v>
       </c>
       <c r="C310" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B311" s="3">
-        <v>1001093345495</v>
+        <v>1001013956426</v>
       </c>
       <c r="C311" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>485</v>
+        <v>456</v>
       </c>
       <c r="B312" s="3">
-        <v>1001022656868</v>
+        <v>1001093345495</v>
       </c>
       <c r="C312" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>457</v>
+        <v>485</v>
       </c>
       <c r="B313" s="3">
         <v>1001022656868</v>
@@ -5849,18 +5852,18 @@
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>166</v>
+        <v>457</v>
       </c>
       <c r="B314" s="3">
-        <v>1001034065698</v>
+        <v>1001022656868</v>
       </c>
       <c r="C314" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="B315" s="3">
         <v>1001034065698</v>
@@ -5871,7 +5874,7 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>483</v>
+        <v>185</v>
       </c>
       <c r="B316" s="3">
         <v>1001034065698</v>
@@ -5882,7 +5885,7 @@
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="B317" s="3">
         <v>1001034065698</v>
@@ -5893,29 +5896,29 @@
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B318" s="3">
-        <v>1001084216206</v>
+        <v>1001034065698</v>
       </c>
       <c r="C318" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="B319" s="3">
-        <v>1001015646861</v>
+        <v>1001084216206</v>
       </c>
       <c r="C319" t="s">
-        <v>427</v>
+        <v>388</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="B320" s="3">
         <v>1001015646861</v>
@@ -5926,18 +5929,18 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="B321" s="3">
-        <v>1001025176768</v>
+        <v>1001015646861</v>
       </c>
       <c r="C321" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>472</v>
+        <v>449</v>
       </c>
       <c r="B322" s="3">
         <v>1001025176768</v>
@@ -5948,7 +5951,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="B323" s="3">
         <v>1001025176768</v>
@@ -5959,18 +5962,18 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="B324" s="3">
-        <v>1001025486770</v>
+        <v>1001025176768</v>
       </c>
       <c r="C324" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="B325" s="3">
         <v>1001025486770</v>
@@ -5981,7 +5984,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="B326" s="3">
         <v>1001025486770</v>
@@ -5992,18 +5995,18 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>208</v>
+        <v>465</v>
       </c>
       <c r="B327" s="3">
-        <v>1001012816340</v>
+        <v>1001025486770</v>
       </c>
       <c r="C327" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>487</v>
+        <v>208</v>
       </c>
       <c r="B328" s="3">
         <v>1001012816340</v>
@@ -6014,7 +6017,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>466</v>
+        <v>487</v>
       </c>
       <c r="B329" s="3">
         <v>1001012816340</v>
@@ -6025,18 +6028,18 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>310</v>
+        <v>466</v>
       </c>
       <c r="B330" s="3">
-        <v>1001203146834</v>
+        <v>1001012816340</v>
       </c>
       <c r="C330" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>460</v>
+        <v>310</v>
       </c>
       <c r="B331" s="3">
         <v>1001203146834</v>
@@ -6047,7 +6050,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="B332" s="3">
         <v>1001203146834</v>
@@ -6058,7 +6061,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="B333" s="3">
         <v>1001203146834</v>
@@ -6069,62 +6072,62 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="B334" s="3">
-        <v>1001300456788</v>
+        <v>1001203146834</v>
       </c>
       <c r="C334" t="s">
-        <v>480</v>
+        <v>433</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="B335" s="3">
-        <v>1001022556837</v>
+        <v>1001300456788</v>
       </c>
       <c r="C335" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B336" s="3">
-        <v>1001300516786</v>
+        <v>1001022556837</v>
       </c>
       <c r="C336" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B337" s="3">
-        <v>1001214196459</v>
+        <v>1001300516786</v>
       </c>
       <c r="C337" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>551</v>
+        <v>498</v>
       </c>
       <c r="B338" s="3">
-        <v>1001092436495</v>
+        <v>1001214196459</v>
       </c>
       <c r="C338" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="B339" s="3">
         <v>1001092436495</v>
@@ -6135,7 +6138,7 @@
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>500</v>
+        <v>558</v>
       </c>
       <c r="B340" s="3">
         <v>1001092436495</v>
@@ -6146,40 +6149,40 @@
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B341" s="3">
-        <v>1001025526901</v>
+        <v>1001092436495</v>
       </c>
       <c r="C341" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B342" s="3">
-        <v>1001025546931</v>
+        <v>1001025526901</v>
       </c>
       <c r="C342" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="B343" s="3">
-        <v>1001010016324</v>
+        <v>1001025546931</v>
       </c>
       <c r="C343" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>544</v>
+        <v>514</v>
       </c>
       <c r="B344" s="3">
         <v>1001010016324</v>
@@ -6190,7 +6193,7 @@
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>507</v>
+        <v>544</v>
       </c>
       <c r="B345" s="3">
         <v>1001010016324</v>
@@ -6201,18 +6204,18 @@
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B346" s="3">
-        <v>1001025766909</v>
+        <v>1001010016324</v>
       </c>
       <c r="C346" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>545</v>
+        <v>511</v>
       </c>
       <c r="B347" s="3">
         <v>1001025766909</v>
@@ -6223,7 +6226,7 @@
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>509</v>
+        <v>545</v>
       </c>
       <c r="B348" s="3">
         <v>1001025766909</v>
@@ -6234,18 +6237,18 @@
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>543</v>
+        <v>509</v>
       </c>
       <c r="B349" s="3">
-        <v>1001010014558</v>
+        <v>1001025766909</v>
       </c>
       <c r="C349" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>512</v>
+        <v>543</v>
       </c>
       <c r="B350" s="3">
         <v>1001010014558</v>
@@ -6256,18 +6259,18 @@
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>538</v>
+        <v>512</v>
       </c>
       <c r="B351" s="3">
-        <v>1001012596802</v>
+        <v>1001010014558</v>
       </c>
       <c r="C351" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="B352" s="3">
         <v>1001012596802</v>
@@ -6278,7 +6281,7 @@
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>515</v>
+        <v>547</v>
       </c>
       <c r="B353" s="3">
         <v>1001012596802</v>
@@ -6289,18 +6292,18 @@
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="B354" s="3">
-        <v>1001012596801</v>
+        <v>1001012596802</v>
       </c>
       <c r="C354" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="B355" s="3">
         <v>1001012596801</v>
@@ -6311,7 +6314,7 @@
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>517</v>
+        <v>546</v>
       </c>
       <c r="B356" s="3">
         <v>1001012596801</v>
@@ -6322,161 +6325,161 @@
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B357" s="3">
-        <v>1001062353684</v>
+        <v>1001012596801</v>
       </c>
       <c r="C357" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B358" s="3">
-        <v>1001010014555</v>
+        <v>1001062353684</v>
       </c>
       <c r="C358" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B359" s="3">
-        <v>1001083424691</v>
+        <v>1001010014555</v>
       </c>
       <c r="C359" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B360" s="3">
-        <v>1001190765679</v>
+        <v>1001083424691</v>
       </c>
       <c r="C360" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B361" s="3">
-        <v>1001085636200</v>
+        <v>1001190765679</v>
       </c>
       <c r="C361" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B362" s="3">
-        <v>1001020836253</v>
+        <v>1001085636200</v>
       </c>
       <c r="C362" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B363" s="3">
-        <v>1001084226492</v>
+        <v>1001020836253</v>
       </c>
       <c r="C363" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B364" s="3">
-        <v>1001223296921</v>
+        <v>1001084226492</v>
       </c>
       <c r="C364" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B365" s="3">
-        <v>1001053944786</v>
+        <v>1001223296921</v>
       </c>
       <c r="C365" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B366" s="3">
-        <v>1001010016839</v>
+        <v>1001053944786</v>
       </c>
       <c r="C366" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="B367" s="3">
-        <v>1001023857038</v>
+        <v>1001010016839</v>
       </c>
       <c r="C367" t="s">
-        <v>589</v>
+        <v>542</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B368" s="3">
-        <v>1001040434903</v>
+        <v>1001023857038</v>
       </c>
       <c r="C368" t="s">
-        <v>550</v>
+        <v>589</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B369" s="3">
-        <v>1001080216842</v>
+        <v>1001040434903</v>
       </c>
       <c r="C369" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B370" s="3">
-        <v>1001022466951</v>
+        <v>1001080216842</v>
       </c>
       <c r="C370" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B371" s="3">
         <v>1001022466951</v>
@@ -6487,106 +6490,106 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B372" s="3">
-        <v>1001035276653</v>
+        <v>1001022466951</v>
       </c>
       <c r="C372" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B373" s="3">
-        <v>1001062353680</v>
+        <v>1001035276653</v>
       </c>
       <c r="C373" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B374" s="3">
-        <v>1001061971146</v>
+        <v>1001062353680</v>
       </c>
       <c r="C374" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B375" s="3">
-        <v>1001225636201</v>
+        <v>1001061971146</v>
       </c>
       <c r="C375" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B376" s="3">
-        <v>1001020836724</v>
+        <v>1001225636201</v>
       </c>
       <c r="C376" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B377" s="3">
-        <v>1001095227035</v>
+        <v>1001020836724</v>
       </c>
       <c r="C377" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B378" s="3">
-        <v>1001023857038</v>
+        <v>1001095227035</v>
       </c>
       <c r="C378" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B379" s="3">
-        <v>1001025027040</v>
+        <v>1001023857038</v>
       </c>
       <c r="C379" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B380" s="3">
-        <v>1001223297103</v>
+        <v>1001025027040</v>
       </c>
       <c r="C380" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B381" s="3">
         <v>1001223297103</v>
@@ -6597,7 +6600,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B382" s="3">
         <v>1001223297103</v>
@@ -6608,18 +6611,18 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>615</v>
+        <v>593</v>
       </c>
       <c r="B383" s="3">
-        <v>1001010032675</v>
+        <v>1001223297103</v>
       </c>
       <c r="C383" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>595</v>
+        <v>615</v>
       </c>
       <c r="B384" s="3">
         <v>1001010032675</v>
@@ -6630,18 +6633,18 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>620</v>
+        <v>595</v>
       </c>
       <c r="B385" s="3">
-        <v>1001035937001</v>
+        <v>1001010032675</v>
       </c>
       <c r="C385" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>597</v>
+        <v>620</v>
       </c>
       <c r="B386" s="3">
         <v>1001035937001</v>
@@ -6652,18 +6655,18 @@
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>621</v>
+        <v>597</v>
       </c>
       <c r="B387" s="3">
-        <v>1001084217090</v>
+        <v>1001035937001</v>
       </c>
       <c r="C387" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>599</v>
+        <v>621</v>
       </c>
       <c r="B388" s="3">
         <v>1001084217090</v>
@@ -6674,18 +6677,18 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>622</v>
+        <v>599</v>
       </c>
       <c r="B389" s="3">
-        <v>1001022377066</v>
+        <v>1001084217090</v>
       </c>
       <c r="C389" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>601</v>
+        <v>622</v>
       </c>
       <c r="B390" s="3">
         <v>1001022377066</v>
@@ -6696,18 +6699,18 @@
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>623</v>
+        <v>601</v>
       </c>
       <c r="B391" s="3">
-        <v>1001022467080</v>
+        <v>1001022377066</v>
       </c>
       <c r="C391" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>603</v>
+        <v>623</v>
       </c>
       <c r="B392" s="3">
         <v>1001022467080</v>
@@ -6718,18 +6721,18 @@
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>624</v>
+        <v>603</v>
       </c>
       <c r="B393" s="3">
-        <v>1001025507077</v>
+        <v>1001022467080</v>
       </c>
       <c r="C393" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>605</v>
+        <v>624</v>
       </c>
       <c r="B394" s="3">
         <v>1001025507077</v>
@@ -6740,18 +6743,18 @@
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>627</v>
+        <v>605</v>
       </c>
       <c r="B395" s="3">
-        <v>1001022657075</v>
+        <v>1001025507077</v>
       </c>
       <c r="C395" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>607</v>
+        <v>627</v>
       </c>
       <c r="B396" s="3">
         <v>1001022657075</v>
@@ -6762,18 +6765,18 @@
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>625</v>
+        <v>607</v>
       </c>
       <c r="B397" s="3">
-        <v>1001022467082</v>
+        <v>1001022657075</v>
       </c>
       <c r="C397" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="B398" s="3">
         <v>1001022467082</v>
@@ -6784,18 +6787,18 @@
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>626</v>
+        <v>609</v>
       </c>
       <c r="B399" s="3">
-        <v>1001022377070</v>
+        <v>1001022467082</v>
       </c>
       <c r="C399" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>611</v>
+        <v>626</v>
       </c>
       <c r="B400" s="3">
         <v>1001022377070</v>
@@ -6806,18 +6809,18 @@
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>628</v>
+        <v>611</v>
       </c>
       <c r="B401" s="3">
-        <v>1001022657073</v>
+        <v>1001022377070</v>
       </c>
       <c r="C401" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>613</v>
+        <v>628</v>
       </c>
       <c r="B402" s="3">
         <v>1001022657073</v>
@@ -6828,18 +6831,18 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>639</v>
+        <v>613</v>
       </c>
       <c r="B403" s="3">
-        <v>1001010027126</v>
+        <v>1001022657073</v>
       </c>
       <c r="C403" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>616</v>
+        <v>639</v>
       </c>
       <c r="B404" s="3">
         <v>1001010027126</v>
@@ -6850,18 +6853,18 @@
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B405" s="3">
-        <v>1001010027125</v>
+        <v>1001010027126</v>
       </c>
       <c r="C405" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>640</v>
+        <v>618</v>
       </c>
       <c r="B406" s="3">
         <v>1001010027125</v>
@@ -6872,18 +6875,18 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>663</v>
+        <v>640</v>
       </c>
       <c r="B407" s="3">
-        <v>1001016366888</v>
+        <v>1001010027125</v>
       </c>
       <c r="C407" t="s">
-        <v>642</v>
+        <v>619</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>641</v>
+        <v>663</v>
       </c>
       <c r="B408" s="3">
         <v>1001016366888</v>
@@ -6894,18 +6897,18 @@
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>664</v>
+        <v>641</v>
       </c>
       <c r="B409" s="3">
-        <v>1001300367133</v>
+        <v>1001016366888</v>
       </c>
       <c r="C409" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>643</v>
+        <v>664</v>
       </c>
       <c r="B410" s="3">
         <v>1001300367133</v>
@@ -6916,18 +6919,18 @@
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>662</v>
+        <v>643</v>
       </c>
       <c r="B411" s="3">
-        <v>1001303637131</v>
+        <v>1001300367133</v>
       </c>
       <c r="C411" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>645</v>
+        <v>662</v>
       </c>
       <c r="B412" s="3">
         <v>1001303637131</v>
@@ -6938,18 +6941,18 @@
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>665</v>
+        <v>645</v>
       </c>
       <c r="B413" s="3">
-        <v>1001304527146</v>
+        <v>1001303637131</v>
       </c>
       <c r="C413" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>647</v>
+        <v>665</v>
       </c>
       <c r="B414" s="3">
         <v>1001304527146</v>
@@ -6960,18 +6963,18 @@
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="B415" s="3">
-        <v>1001300517134</v>
+        <v>1001304527146</v>
       </c>
       <c r="C415" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="B416" s="3">
         <v>1001300517134</v>
@@ -6982,29 +6985,29 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B417" s="3">
-        <v>1001300457135</v>
+        <v>1001300517134</v>
       </c>
       <c r="C417" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B418" s="3">
-        <v>1001304527144</v>
+        <v>1001300457135</v>
       </c>
       <c r="C418" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="B419" s="3">
         <v>1001304527144</v>
@@ -7013,8 +7016,19 @@
         <v>654</v>
       </c>
     </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B420" s="3">
+        <v>1001304527144</v>
+      </c>
+      <c r="C420" t="s">
+        <v>654</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C419" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C420" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/NV/moduls/1С.xlsx
+++ b/NV/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\NV\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524BF626-F8F3-463F-AE69-F6A8DFA54A0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4712B37-7A47-4761-965A-1F2D02F83BE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="675">
   <si>
     <t>1С</t>
   </si>
@@ -2035,6 +2035,30 @@
   </si>
   <si>
     <t>6616 МОЛОЧНЫЕ КЛАССИЧЕСКИЕ сос п/о в/у 0,3 кг  Останкино</t>
+  </si>
+  <si>
+    <t>РЕБРЫШКИ к/в в/у_30c</t>
+  </si>
+  <si>
+    <t>6620 РЕБРЫШКИ к/в мгс</t>
+  </si>
+  <si>
+    <t>ГРУДИНКА ПРЕМИУМ к/в мл/к в/у 0.3кг_50с</t>
+  </si>
+  <si>
+    <t>7187 Грудинка ПРЕМИУМ к/в мл/к в/у 0.3 кг</t>
+  </si>
+  <si>
+    <t>В ОБВЯЗКЕ вар п/о</t>
+  </si>
+  <si>
+    <t>6877 В ОБВЯЗКЕ вар п/о</t>
+  </si>
+  <si>
+    <t>В ОБВЯЗКЕ СО ШПИКОМ вар п/о</t>
+  </si>
+  <si>
+    <t>6878 В ОБВЯЗКЕ СО ШПИКОМ вар п/о</t>
   </si>
 </sst>
 </file>
@@ -2389,11 +2413,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F420"/>
+  <dimension ref="A1:F424"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7027,6 +7051,50 @@
         <v>654</v>
       </c>
     </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="B421" s="3">
+        <v>1001081596620</v>
+      </c>
+      <c r="C421" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B422" s="3">
+        <v>1001085637187</v>
+      </c>
+      <c r="C422" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B423" s="3">
+        <v>1001015676877</v>
+      </c>
+      <c r="C423" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B424" s="3">
+        <v>1001015686878</v>
+      </c>
+      <c r="C424" t="s">
+        <v>673</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C420" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NV/moduls/1С.xlsx
+++ b/NV/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\NV\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4712B37-7A47-4761-965A-1F2D02F83BE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC900F15-CDD3-48C1-A482-A327413B3312}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="681">
   <si>
     <t>1С</t>
   </si>
@@ -2059,6 +2059,24 @@
   </si>
   <si>
     <t>6878 В ОБВЯЗКЕ СО ШПИКОМ вар п/о</t>
+  </si>
+  <si>
+    <t>7232 БОЯNСКАЯ ПМ п/к в/у 0,28кг 8шт_209к  Останкино</t>
+  </si>
+  <si>
+    <t>7237 СЕРВЕЛАТ ШВАРЦЕР ПМ в/к в/у 0,28кг_209к  Останкино</t>
+  </si>
+  <si>
+    <t>7241 САЛЯМИ Папа может п/к в/у 0,28кг ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>БОЯNСКАЯ ПМ п/к в/у 0.28кг 8шт_209к</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ШВАРЦЕР ПМ в/к в/у 0.28кг_209к</t>
+  </si>
+  <si>
+    <t>САЛЯМИ Папа может п/к в/у 0.28кг_209к</t>
   </si>
 </sst>
 </file>
@@ -2413,11 +2431,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F424"/>
+  <dimension ref="A1:F427"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7095,6 +7113,39 @@
         <v>673</v>
       </c>
     </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B425" s="3">
+        <v>1001302277232</v>
+      </c>
+      <c r="C425" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B426" s="3">
+        <v>1001304497237</v>
+      </c>
+      <c r="C426" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B427" s="3">
+        <v>1001303107241</v>
+      </c>
+      <c r="C427" t="s">
+        <v>680</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C420" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NV/moduls/1С.xlsx
+++ b/NV/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\NV\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC900F15-CDD3-48C1-A482-A327413B3312}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5DF453-2667-4B57-817B-B40F0771758F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$420</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$432</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="689">
   <si>
     <t>1С</t>
   </si>
@@ -2077,6 +2077,30 @@
   </si>
   <si>
     <t>САЛЯМИ Папа может п/к в/у 0.28кг_209к</t>
+  </si>
+  <si>
+    <t>ФИЛЕЙНЫЕ ПМ сос ц/о мгс 0.33кг 8шт.</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ КАРЕЛЬСКИЙ в/к в/у 0.28кг_209к</t>
+  </si>
+  <si>
+    <t>6872 ШАШЛЫК ИЗ СВИНИНЫ зам.</t>
+  </si>
+  <si>
+    <t>ШАШЛЫК ИЗ СВИНИНЫ зам.</t>
+  </si>
+  <si>
+    <t>6620 РЕБРЫШКИ к/в в/у_30с  Останкино</t>
+  </si>
+  <si>
+    <t>7257 ФИЛЕЙНЫЕ ПМ сос ц/о мгс 0.33кг 8шт.</t>
+  </si>
+  <si>
+    <t>7236 СЕРВЕЛАТ КАРЕЛЬСКИЙ в/к в/у 0,28кг_209к  Останкино</t>
+  </si>
+  <si>
+    <t>7257 ФИЛЕЙНЫЕ ПМ сос ц/о мгс 0,33кг 8шт  Останкино</t>
   </si>
 </sst>
 </file>
@@ -2431,11 +2455,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F427"/>
+  <dimension ref="A1:F432"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2890,481 +2914,481 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>486</v>
+        <v>686</v>
       </c>
       <c r="B41" s="3">
-        <v>1001022556069</v>
+        <v>1001022557257</v>
       </c>
       <c r="C41" t="s">
-        <v>476</v>
+        <v>681</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>51</v>
+        <v>688</v>
       </c>
       <c r="B42" s="3">
-        <v>1001022556069</v>
+        <v>1001022557257</v>
       </c>
       <c r="C42" t="s">
-        <v>476</v>
-      </c>
-      <c r="F42" s="3"/>
+        <v>681</v>
+      </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>52</v>
+        <v>486</v>
       </c>
       <c r="B43" s="3">
-        <v>1001010106325</v>
+        <v>1001022557257</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>681</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B44" s="3">
-        <v>1001012486333</v>
+        <v>1001022556069</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B45" s="3">
-        <v>1001012506353</v>
+        <v>1001010106325</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="B46" s="3">
-        <v>1001304506684</v>
+        <v>1001012486333</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="B47" s="3">
-        <v>1001303056692</v>
+        <v>1001012506353</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>658</v>
+        <v>203</v>
       </c>
       <c r="B48" s="3">
-        <v>1001303637149</v>
+        <v>1001304507236</v>
       </c>
       <c r="C48" t="s">
-        <v>632</v>
+        <v>682</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>631</v>
+        <v>115</v>
       </c>
       <c r="B49" s="3">
-        <v>1001303637149</v>
+        <v>1001304507236</v>
       </c>
       <c r="C49" t="s">
-        <v>632</v>
+        <v>682</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>61</v>
+        <v>687</v>
       </c>
       <c r="B50" s="3">
-        <v>1001013956426</v>
+        <v>1001304507236</v>
       </c>
       <c r="C50" t="s">
-        <v>432</v>
+        <v>682</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="B51" s="3">
-        <v>1001024636438</v>
+        <v>1001303056692</v>
       </c>
       <c r="C51" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>64</v>
+        <v>658</v>
       </c>
       <c r="B52" s="3">
-        <v>1001234146448</v>
+        <v>1001303637149</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>632</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>291</v>
+        <v>631</v>
       </c>
       <c r="B53" s="3">
-        <v>1001202506453</v>
+        <v>1001303637149</v>
       </c>
       <c r="C53" t="s">
-        <v>68</v>
+        <v>632</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B54" s="3">
-        <v>1001202506453</v>
+        <v>1001013956426</v>
       </c>
       <c r="C54" t="s">
-        <v>68</v>
+        <v>432</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B55" s="3">
-        <v>1001201976454</v>
+        <v>1001024636438</v>
       </c>
       <c r="C55" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B56" s="3">
-        <v>1001025176475</v>
+        <v>1001234146448</v>
       </c>
       <c r="C56" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>118</v>
+        <v>291</v>
       </c>
       <c r="B57" s="3">
-        <v>1001301876697</v>
+        <v>1001202506453</v>
       </c>
       <c r="C57" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3">
-        <v>1001024636517</v>
+        <v>1001202506453</v>
       </c>
       <c r="C58" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B59" s="3">
-        <v>1001031076527</v>
+        <v>1001201976454</v>
       </c>
       <c r="C59" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B60" s="3">
-        <v>1001304506562</v>
+        <v>1001025176475</v>
       </c>
       <c r="C60" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="B61" s="3">
-        <v>1001020846563</v>
+        <v>1001301876697</v>
       </c>
       <c r="C61" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B62" s="3">
-        <v>1001020836589</v>
+        <v>1001024636517</v>
       </c>
       <c r="C62" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B63" s="3">
-        <v>6751</v>
+        <v>1001031076527</v>
       </c>
       <c r="C63" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B64" s="3">
-        <v>1001010016592</v>
+        <v>1001304506562</v>
       </c>
       <c r="C64" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B65" s="3">
-        <v>1001010026594</v>
+        <v>1001020846563</v>
       </c>
       <c r="C65" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B66" s="3">
-        <v>1001022296601</v>
+        <v>1001020836589</v>
       </c>
       <c r="C66" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B67" s="3">
-        <v>1001031896648</v>
+        <v>6751</v>
       </c>
       <c r="C67" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B68" s="3">
-        <v>1001035266650</v>
+        <v>1001010016592</v>
       </c>
       <c r="C68" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B69" s="3">
-        <v>1001305256658</v>
+        <v>1001010026594</v>
       </c>
       <c r="C69" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B70" s="3">
-        <v>1001010016593</v>
+        <v>1001022296601</v>
       </c>
       <c r="C70" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B71" s="3">
-        <v>1001010026595</v>
+        <v>1001031896648</v>
       </c>
       <c r="C71" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B72" s="3">
-        <v>1001010036597</v>
+        <v>1001035266650</v>
       </c>
       <c r="C72" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>112</v>
+      <c r="A73" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="B73" s="3">
-        <v>1001020886646</v>
+        <v>1001305256658</v>
       </c>
       <c r="C73" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>317</v>
+      <c r="A74" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="B74" s="3">
-        <v>1001305306566</v>
+        <v>1001010016593</v>
       </c>
       <c r="C74" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B75" s="3">
-        <v>1001305306566</v>
+        <v>1001010026595</v>
       </c>
       <c r="C75" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>656</v>
+        <v>106</v>
       </c>
       <c r="B76" s="3">
-        <v>1001300387154</v>
+        <v>1001010036597</v>
       </c>
       <c r="C76" t="s">
-        <v>636</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>635</v>
+      <c r="A77" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="B77" s="3">
-        <v>1001300387154</v>
+        <v>1001020886646</v>
       </c>
       <c r="C77" t="s">
-        <v>636</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>657</v>
+      <c r="A78" s="4" t="s">
+        <v>317</v>
       </c>
       <c r="B78" s="3">
-        <v>1001303987169</v>
+        <v>1001305306566</v>
       </c>
       <c r="C78" t="s">
-        <v>638</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>637</v>
+        <v>113</v>
       </c>
       <c r="B79" s="3">
-        <v>1001303987169</v>
+        <v>1001305306566</v>
       </c>
       <c r="C79" t="s">
-        <v>638</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>234</v>
+        <v>656</v>
       </c>
       <c r="B80" s="3">
-        <v>1001303106773</v>
+        <v>1001300387154</v>
       </c>
       <c r="C80" t="s">
-        <v>340</v>
+        <v>636</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B81" s="5">
-        <v>1001303106773</v>
+        <v>635</v>
+      </c>
+      <c r="B81" s="3">
+        <v>1001300387154</v>
       </c>
       <c r="C81" t="s">
-        <v>340</v>
+        <v>636</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B82" s="5">
-        <v>1001303106773</v>
+        <v>657</v>
+      </c>
+      <c r="B82" s="3">
+        <v>1001303987169</v>
       </c>
       <c r="C82" t="s">
-        <v>340</v>
+        <v>638</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>117</v>
+        <v>637</v>
       </c>
       <c r="B83" s="3">
-        <v>1001303106773</v>
+        <v>1001303987169</v>
       </c>
       <c r="C83" t="s">
-        <v>340</v>
+        <v>638</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>387</v>
+        <v>234</v>
       </c>
       <c r="B84" s="3">
         <v>1001303106773</v>
@@ -3375,9 +3399,9 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B85" s="3">
+        <v>347</v>
+      </c>
+      <c r="B85" s="5">
         <v>1001303106773</v>
       </c>
       <c r="C85" t="s">
@@ -3386,9 +3410,9 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B86" s="3">
+        <v>266</v>
+      </c>
+      <c r="B86" s="5">
         <v>1001303106773</v>
       </c>
       <c r="C86" t="s">
@@ -3397,392 +3421,392 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>223</v>
+        <v>117</v>
       </c>
       <c r="B87" s="3">
-        <v>1001012566392</v>
+        <v>1001303106773</v>
       </c>
       <c r="C87" t="s">
-        <v>56</v>
+        <v>340</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="B88" s="3">
-        <v>1001012566392</v>
+        <v>1001303106773</v>
       </c>
       <c r="C88" t="s">
-        <v>56</v>
+        <v>340</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>120</v>
+        <v>385</v>
       </c>
       <c r="B89" s="3">
-        <v>1001012566392</v>
+        <v>1001303106773</v>
       </c>
       <c r="C89" t="s">
-        <v>56</v>
+        <v>340</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>659</v>
+        <v>382</v>
       </c>
       <c r="B90" s="3">
-        <v>1001302277173</v>
+        <v>1001303106773</v>
       </c>
       <c r="C90" t="s">
-        <v>634</v>
+        <v>340</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>633</v>
+        <v>223</v>
       </c>
       <c r="B91" s="3">
-        <v>1001302277173</v>
+        <v>1001012566392</v>
       </c>
       <c r="C91" t="s">
-        <v>634</v>
+        <v>56</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>123</v>
+        <v>417</v>
       </c>
       <c r="B92" s="3">
-        <v>1001012426268</v>
+        <v>1001012566392</v>
       </c>
       <c r="C92" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B93" s="3">
-        <v>1001024906041</v>
+        <v>1001012566392</v>
       </c>
       <c r="C93" t="s">
-        <v>127</v>
+        <v>56</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>125</v>
+        <v>659</v>
       </c>
       <c r="B94" s="3">
-        <v>1001011086247</v>
+        <v>1001302277173</v>
       </c>
       <c r="C94" t="s">
-        <v>126</v>
+        <v>634</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>148</v>
+        <v>633</v>
       </c>
       <c r="B95" s="3">
-        <v>1001014486158</v>
+        <v>1001302277173</v>
       </c>
       <c r="C95" t="s">
-        <v>141</v>
+        <v>634</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="B96" s="3">
-        <v>1001015356259</v>
+        <v>1001012426268</v>
       </c>
       <c r="C96" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="B97" s="3">
-        <v>1001012816716</v>
+        <v>1001024906041</v>
       </c>
       <c r="C97" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>322</v>
+        <v>125</v>
       </c>
       <c r="B98" s="3">
-        <v>1001020966227</v>
+        <v>1001011086247</v>
       </c>
       <c r="C98" t="s">
-        <v>321</v>
+        <v>126</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="B99" s="3">
-        <v>1001020966227</v>
+        <v>1001014486158</v>
       </c>
       <c r="C99" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>221</v>
+        <v>150</v>
       </c>
       <c r="B100" s="3">
-        <v>1001022726303</v>
+        <v>1001015356259</v>
       </c>
       <c r="C100" t="s">
-        <v>254</v>
+        <v>142</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>253</v>
+        <v>152</v>
       </c>
       <c r="B101" s="3">
-        <v>1001022726303</v>
+        <v>1001012816716</v>
       </c>
       <c r="C101" t="s">
-        <v>254</v>
+        <v>143</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="B102" s="3">
-        <v>1001022726303</v>
+        <v>1001020966227</v>
       </c>
       <c r="C102" t="s">
-        <v>254</v>
+        <v>321</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="B103" s="3">
-        <v>1001022726303</v>
+        <v>1001020966227</v>
       </c>
       <c r="C103" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>108</v>
+        <v>221</v>
       </c>
       <c r="B104" s="3">
-        <v>1001022466726</v>
+        <v>1001022726303</v>
       </c>
       <c r="C104" t="s">
-        <v>109</v>
+        <v>254</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>147</v>
+        <v>253</v>
       </c>
       <c r="B105" s="3">
-        <v>1001020966144</v>
+        <v>1001022726303</v>
       </c>
       <c r="C105" t="s">
-        <v>144</v>
+        <v>254</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>121</v>
+        <v>339</v>
       </c>
       <c r="B106" s="3">
-        <v>1001022376722</v>
+        <v>1001022726303</v>
       </c>
       <c r="C106" t="s">
-        <v>119</v>
+        <v>254</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>577</v>
+        <v>153</v>
       </c>
       <c r="B107" s="3">
-        <v>1001022376955</v>
+        <v>1001022726303</v>
       </c>
       <c r="C107" t="s">
-        <v>568</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>575</v>
+        <v>108</v>
       </c>
       <c r="B108" s="3">
-        <v>1001022376955</v>
+        <v>1001022466726</v>
       </c>
       <c r="C108" t="s">
-        <v>568</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="B109" s="3">
-        <v>1001022376955</v>
+        <v>1001020966144</v>
       </c>
       <c r="C109" t="s">
-        <v>568</v>
+        <v>144</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>246</v>
+        <v>121</v>
       </c>
       <c r="B110" s="3">
-        <v>1001022246661</v>
+        <v>1001022376722</v>
       </c>
       <c r="C110" t="s">
-        <v>247</v>
+        <v>119</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>318</v>
+        <v>577</v>
       </c>
       <c r="B111" s="3">
-        <v>1001022246661</v>
+        <v>1001022376955</v>
       </c>
       <c r="C111" t="s">
-        <v>247</v>
+        <v>568</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>133</v>
+        <v>575</v>
       </c>
       <c r="B112" s="3">
-        <v>1001022246661</v>
+        <v>1001022376955</v>
       </c>
       <c r="C112" t="s">
-        <v>135</v>
+        <v>568</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B113" s="3">
-        <v>1001022246713</v>
+        <v>1001022376955</v>
       </c>
       <c r="C113" t="s">
-        <v>110</v>
+        <v>568</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>136</v>
+        <v>246</v>
       </c>
       <c r="B114" s="3">
-        <v>1001025166241</v>
+        <v>1001022246661</v>
       </c>
       <c r="C114" t="s">
-        <v>140</v>
+        <v>247</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>154</v>
+        <v>318</v>
       </c>
       <c r="B115" s="3">
-        <v>6606</v>
+        <v>1001022246661</v>
       </c>
       <c r="C115" t="s">
-        <v>156</v>
+        <v>247</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B116" s="3">
-        <v>1001035326217</v>
+        <v>1001022246661</v>
       </c>
       <c r="C116" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B117" s="3">
-        <v>1001303636301</v>
+        <v>1001022246713</v>
       </c>
       <c r="C117" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="B118" s="3">
-        <v>1001303636302</v>
+        <v>1001025166241</v>
       </c>
       <c r="C118" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="B119" s="3">
-        <v>1001305196215</v>
+        <v>6606</v>
       </c>
       <c r="C119" t="s">
-        <v>79</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B120" s="3">
-        <v>1001301876212</v>
+        <v>1001035326217</v>
       </c>
       <c r="C120" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="B121" s="3">
-        <v>1001301876213</v>
+        <v>1001303636301</v>
       </c>
       <c r="C121" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="B122" s="3">
         <v>1001303636302</v>
@@ -3793,1019 +3817,1019 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="B123" s="3">
-        <v>6645</v>
+        <v>1001305196215</v>
       </c>
       <c r="C123" t="s">
-        <v>158</v>
+        <v>79</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B124" s="3">
-        <v>1001225416228</v>
+        <v>1001301876212</v>
       </c>
       <c r="C124" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="B125" s="3">
-        <v>6225</v>
+        <v>1001301876213</v>
       </c>
       <c r="C125" t="s">
-        <v>270</v>
+        <v>78</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B126" s="3">
-        <v>1001022376722</v>
+        <v>1001303636302</v>
       </c>
       <c r="C126" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B127" s="3">
-        <v>1001022376722</v>
+        <v>6645</v>
       </c>
       <c r="C127" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B128" s="3">
-        <v>3297</v>
+        <v>1001225416228</v>
       </c>
       <c r="C128" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>312</v>
+        <v>162</v>
       </c>
       <c r="B129" s="3">
-        <v>1001022466726</v>
+        <v>6225</v>
       </c>
       <c r="C129" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>289</v>
+        <v>163</v>
       </c>
       <c r="B130" s="3">
-        <v>1001022466726</v>
+        <v>1001022376722</v>
       </c>
       <c r="C130" t="s">
-        <v>288</v>
+        <v>119</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B131" s="3">
-        <v>1001022466726</v>
+        <v>1001022376722</v>
       </c>
       <c r="C131" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B132" s="3">
-        <v>1001021966602</v>
+        <v>3297</v>
       </c>
       <c r="C132" t="s">
-        <v>281</v>
+        <v>165</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>171</v>
+        <v>312</v>
       </c>
       <c r="B133" s="3">
-        <v>6233</v>
+        <v>1001022466726</v>
       </c>
       <c r="C133" t="s">
-        <v>170</v>
+        <v>288</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="B134" s="3">
-        <v>1001012816341</v>
+        <v>1001022466726</v>
       </c>
       <c r="C134" t="s">
-        <v>442</v>
+        <v>288</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>488</v>
+        <v>168</v>
       </c>
       <c r="B135" s="3">
-        <v>1001012816341</v>
+        <v>1001022466726</v>
       </c>
       <c r="C135" t="s">
-        <v>442</v>
+        <v>109</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>491</v>
+        <v>169</v>
       </c>
       <c r="B136" s="3">
-        <v>1001012816341</v>
+        <v>1001021966602</v>
       </c>
       <c r="C136" t="s">
-        <v>442</v>
+        <v>281</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B137" s="3">
-        <v>1001012816341</v>
+        <v>6233</v>
       </c>
       <c r="C137" t="s">
-        <v>442</v>
+        <v>170</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>173</v>
+        <v>261</v>
       </c>
       <c r="B138" s="3">
-        <v>6750</v>
+        <v>1001012816341</v>
       </c>
       <c r="C138" t="s">
-        <v>85</v>
+        <v>442</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>174</v>
+        <v>488</v>
       </c>
       <c r="B139" s="3">
-        <v>6751</v>
+        <v>1001012816341</v>
       </c>
       <c r="C139" t="s">
-        <v>87</v>
+        <v>442</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>175</v>
+        <v>491</v>
       </c>
       <c r="B140" s="3">
-        <v>5982</v>
+        <v>1001012816341</v>
       </c>
       <c r="C140" t="s">
-        <v>176</v>
+        <v>442</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>539</v>
+        <v>172</v>
       </c>
       <c r="B141" s="3">
-        <v>1001022656854</v>
+        <v>1001012816341</v>
       </c>
       <c r="C141" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>556</v>
+        <v>173</v>
       </c>
       <c r="B142" s="3">
-        <v>1001022656854</v>
+        <v>6750</v>
       </c>
       <c r="C142" t="s">
-        <v>431</v>
+        <v>85</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>455</v>
+        <v>174</v>
       </c>
       <c r="B143" s="3">
-        <v>1001022656854</v>
+        <v>6751</v>
       </c>
       <c r="C143" t="s">
-        <v>431</v>
+        <v>87</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B144" s="3">
-        <v>1001022656854</v>
+        <v>5982</v>
       </c>
       <c r="C144" t="s">
-        <v>431</v>
+        <v>176</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>183</v>
+        <v>539</v>
       </c>
       <c r="B145" s="3">
-        <v>1001094966025</v>
+        <v>1001022656854</v>
       </c>
       <c r="C145" t="s">
-        <v>179</v>
+        <v>431</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>178</v>
+        <v>556</v>
       </c>
       <c r="B146" s="3">
-        <v>6025</v>
+        <v>1001022656854</v>
       </c>
       <c r="C146" t="s">
-        <v>179</v>
+        <v>431</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>182</v>
+        <v>455</v>
       </c>
       <c r="B147" s="3">
-        <v>6221</v>
+        <v>1001022656854</v>
       </c>
       <c r="C147" t="s">
-        <v>181</v>
+        <v>431</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B148" s="3">
-        <v>1001205376221</v>
+        <v>1001022656854</v>
       </c>
       <c r="C148" t="s">
-        <v>181</v>
+        <v>431</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B149" s="3">
-        <v>1001022373812</v>
+        <v>1001094966025</v>
       </c>
       <c r="C149" t="s">
-        <v>3</v>
+        <v>179</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B150" s="3">
-        <v>1001100606827</v>
+        <v>6025</v>
       </c>
       <c r="C150" t="s">
-        <v>329</v>
+        <v>179</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>341</v>
+        <v>182</v>
       </c>
       <c r="B151" s="3">
-        <v>1001100606827</v>
+        <v>6221</v>
       </c>
       <c r="C151" t="s">
-        <v>329</v>
+        <v>181</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B152" s="3">
-        <v>1001100616826</v>
+        <v>1001205376221</v>
       </c>
       <c r="C152" t="s">
-        <v>330</v>
+        <v>181</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>342</v>
+        <v>186</v>
       </c>
       <c r="B153" s="3">
-        <v>1001100616826</v>
+        <v>1001022373812</v>
       </c>
       <c r="C153" t="s">
-        <v>330</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B154" s="3">
-        <v>1001100626828</v>
+        <v>1001100606827</v>
       </c>
       <c r="C154" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B155" s="3">
-        <v>1001100626828</v>
+        <v>1001100606827</v>
       </c>
       <c r="C155" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B156" s="3">
-        <v>1001035026308</v>
+        <v>1001100616826</v>
       </c>
       <c r="C156" t="s">
-        <v>191</v>
+        <v>330</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>560</v>
+        <v>342</v>
       </c>
       <c r="B157" s="3">
-        <v>1001014486159</v>
+        <v>1001100616826</v>
       </c>
       <c r="C157" t="s">
-        <v>561</v>
+        <v>330</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B158" s="3">
-        <v>1001014486159</v>
+        <v>1001100626828</v>
       </c>
       <c r="C158" t="s">
-        <v>193</v>
+        <v>331</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>194</v>
+        <v>343</v>
       </c>
       <c r="B159" s="3">
-        <v>1001035326217</v>
+        <v>1001100626828</v>
       </c>
       <c r="C159" t="s">
-        <v>285</v>
+        <v>331</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>506</v>
+        <v>190</v>
       </c>
       <c r="B160" s="3">
-        <v>1001012426220</v>
+        <v>1001035026308</v>
       </c>
       <c r="C160" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>195</v>
+        <v>560</v>
       </c>
       <c r="B161" s="3">
-        <v>1001012426220</v>
+        <v>1001014486159</v>
       </c>
       <c r="C161" t="s">
-        <v>196</v>
+        <v>561</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B162" s="3">
-        <v>1001022466236</v>
+        <v>1001014486159</v>
       </c>
       <c r="C162" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B163" s="3">
-        <v>1001021966602</v>
+        <v>1001035326217</v>
       </c>
       <c r="C163" t="s">
-        <v>200</v>
+        <v>285</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>201</v>
+        <v>506</v>
       </c>
       <c r="B164" s="3">
-        <v>1001022296656</v>
+        <v>1001012426220</v>
       </c>
       <c r="C164" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B165" s="3">
-        <v>1001304506684</v>
+        <v>1001012426220</v>
       </c>
       <c r="C165" t="s">
-        <v>59</v>
+        <v>196</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B166" s="3">
-        <v>1001301876697</v>
+        <v>1001022466236</v>
       </c>
       <c r="C166" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B167" s="3">
-        <v>1001022246713</v>
+        <v>1001021966602</v>
       </c>
       <c r="C167" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B168" s="3">
-        <v>1001022376722</v>
+        <v>1001022296656</v>
       </c>
       <c r="C168" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B169" s="3">
-        <v>1001020846751</v>
+        <v>1001301876697</v>
       </c>
       <c r="C169" t="s">
-        <v>87</v>
+        <v>205</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B170" s="3">
-        <v>1001022725819</v>
+        <v>1001022246713</v>
       </c>
       <c r="C170" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B171" s="3">
-        <v>1001012825337</v>
+        <v>1001022376722</v>
       </c>
       <c r="C171" t="s">
-        <v>27</v>
+        <v>210</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B172" s="3">
-        <v>1001012815336</v>
+        <v>1001020846751</v>
       </c>
       <c r="C172" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B173" s="3">
-        <v>1001234146448</v>
+        <v>1001022725819</v>
       </c>
       <c r="C173" t="s">
-        <v>65</v>
+        <v>213</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B174" s="3">
-        <v>1001022725819</v>
+        <v>1001012825337</v>
       </c>
       <c r="C174" t="s">
-        <v>213</v>
+        <v>27</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B175" s="3">
-        <v>1001092676027</v>
+        <v>1001012815336</v>
       </c>
       <c r="C175" t="s">
-        <v>219</v>
+        <v>25</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B176" s="3">
-        <v>1001301876213</v>
+        <v>1001234146448</v>
       </c>
       <c r="C176" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B177" s="3">
-        <v>1001035026308</v>
+        <v>1001022725819</v>
       </c>
       <c r="C177" t="s">
-        <v>407</v>
+        <v>213</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B178" s="3">
-        <v>1001234146448</v>
+        <v>1001092676027</v>
       </c>
       <c r="C178" t="s">
-        <v>65</v>
+        <v>219</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B179" s="3">
-        <v>1001201976454</v>
+        <v>1001301876213</v>
       </c>
       <c r="C179" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B180" s="3">
-        <v>1001025176475</v>
+        <v>1001035026308</v>
       </c>
       <c r="C180" t="s">
-        <v>72</v>
+        <v>407</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B181" s="3">
-        <v>1001012456498</v>
+        <v>1001234146448</v>
       </c>
       <c r="C181" t="s">
-        <v>229</v>
+        <v>65</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B182" s="3">
-        <v>1001010036596</v>
+        <v>1001201976454</v>
       </c>
       <c r="C182" t="s">
-        <v>231</v>
+        <v>70</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>571</v>
+        <v>227</v>
       </c>
       <c r="B183" s="3">
-        <v>1001033856608</v>
+        <v>1001025176475</v>
       </c>
       <c r="C183" t="s">
-        <v>562</v>
+        <v>72</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>564</v>
+        <v>228</v>
       </c>
       <c r="B184" s="3">
-        <v>1001033856608</v>
+        <v>1001012456498</v>
       </c>
       <c r="C184" t="s">
-        <v>562</v>
+        <v>229</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>572</v>
+        <v>230</v>
       </c>
       <c r="B185" s="3">
-        <v>1001033856609</v>
+        <v>1001010036596</v>
       </c>
       <c r="C185" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>232</v>
+        <v>571</v>
       </c>
       <c r="B186" s="3">
-        <v>1001033856609</v>
+        <v>1001033856608</v>
       </c>
       <c r="C186" t="s">
-        <v>233</v>
+        <v>562</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>235</v>
+        <v>564</v>
       </c>
       <c r="B187" s="3">
-        <v>1001093345495</v>
+        <v>1001033856608</v>
       </c>
       <c r="C187" t="s">
-        <v>443</v>
+        <v>562</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>237</v>
+        <v>572</v>
       </c>
       <c r="B188" s="3">
-        <v>6550</v>
+        <v>1001033856609</v>
       </c>
       <c r="C188" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B189" s="3">
-        <v>1001304506684</v>
+        <v>1001033856609</v>
       </c>
       <c r="C189" t="s">
-        <v>59</v>
+        <v>233</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B190" s="3">
-        <v>1001010113248</v>
+        <v>1001093345495</v>
       </c>
       <c r="C190" t="s">
-        <v>241</v>
+        <v>443</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>415</v>
+        <v>237</v>
       </c>
       <c r="B191" s="3">
-        <v>1001063926780</v>
+        <v>6550</v>
       </c>
       <c r="C191" t="s">
-        <v>416</v>
+        <v>238</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B192" s="3">
-        <v>6586</v>
+        <v>1001304506684</v>
       </c>
       <c r="C192" t="s">
-        <v>243</v>
+        <v>59</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B193" s="3">
-        <v>1001303636467</v>
+        <v>1001010113248</v>
       </c>
       <c r="C193" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>248</v>
+        <v>415</v>
       </c>
       <c r="B194" s="3">
-        <v>1001304496701</v>
+        <v>1001063926780</v>
       </c>
       <c r="C194" t="s">
-        <v>249</v>
+        <v>416</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B195" s="3">
-        <v>6144</v>
+        <v>6586</v>
       </c>
       <c r="C195" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B196" s="3">
-        <v>1001022725819</v>
+        <v>1001303636467</v>
       </c>
       <c r="C196" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B197" s="3">
-        <v>1001022373812</v>
+        <v>1001304496701</v>
       </c>
       <c r="C197" t="s">
-        <v>3</v>
+        <v>249</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B198" s="3">
-        <v>1001024906062</v>
+        <v>6144</v>
       </c>
       <c r="C198" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B199" s="3">
-        <v>1001303056692</v>
+        <v>1001022725819</v>
       </c>
       <c r="C199" t="s">
-        <v>60</v>
+        <v>213</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B200" s="3">
-        <v>1001301876697</v>
+        <v>1001022373812</v>
       </c>
       <c r="C200" t="s">
-        <v>205</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B201" s="3">
-        <v>1001012634574</v>
+        <v>1001024906062</v>
       </c>
       <c r="C201" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B202" s="3">
-        <v>1001092485452</v>
+        <v>1001303056692</v>
       </c>
       <c r="C202" t="s">
-        <v>263</v>
+        <v>60</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B203" s="3">
-        <v>1001020966144</v>
+        <v>1001301876697</v>
       </c>
       <c r="C203" t="s">
-        <v>144</v>
+        <v>205</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B204" s="3">
-        <v>6586</v>
+        <v>1001012634574</v>
       </c>
       <c r="C204" t="s">
-        <v>243</v>
+        <v>11</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B205" s="3">
-        <v>1001304496701</v>
+        <v>1001092485452</v>
       </c>
       <c r="C205" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B206" s="3">
-        <v>1001063655015</v>
+        <v>1001020966144</v>
       </c>
       <c r="C206" t="s">
-        <v>269</v>
+        <v>144</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B207" s="3">
-        <v>1001060763287</v>
+        <v>6586</v>
       </c>
       <c r="C207" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B208" s="3">
-        <v>1001225416228</v>
+        <v>1001304496701</v>
       </c>
       <c r="C208" t="s">
-        <v>160</v>
+        <v>249</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B209" s="3">
-        <v>1001032736550</v>
+        <v>1001063655015</v>
       </c>
       <c r="C209" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B210" s="3">
-        <v>6758</v>
+        <v>1001060763287</v>
       </c>
       <c r="C210" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B211" s="3">
-        <v>1001020965976</v>
+        <v>1001225416228</v>
       </c>
       <c r="C211" t="s">
-        <v>278</v>
+        <v>160</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B212" s="3">
-        <v>1001215576586</v>
+        <v>1001032736550</v>
       </c>
       <c r="C212" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B213" s="3">
-        <v>1001094896026</v>
+        <v>6758</v>
       </c>
       <c r="C213" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>496</v>
+        <v>277</v>
       </c>
       <c r="B214" s="3">
-        <v>1001215576586</v>
+        <v>1001020965976</v>
       </c>
       <c r="C214" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B215" s="3">
         <v>1001215576586</v>
@@ -4816,117 +4840,117 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B216" s="3">
-        <v>1001092436470</v>
+        <v>1001094896026</v>
       </c>
       <c r="C216" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>293</v>
+        <v>496</v>
       </c>
       <c r="B217" s="3">
-        <v>1001203146555</v>
+        <v>1001215576586</v>
       </c>
       <c r="C217" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="B218" s="3">
-        <v>1001014765992</v>
+        <v>1001215576586</v>
       </c>
       <c r="C218" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B219" s="3">
-        <v>1001014765992</v>
+        <v>1001092436470</v>
       </c>
       <c r="C219" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B220" s="3">
-        <v>1001014765993</v>
+        <v>1001203146555</v>
       </c>
       <c r="C220" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B221" s="3">
-        <v>1001025166776</v>
+        <v>1001014765992</v>
       </c>
       <c r="C221" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B222" s="3">
-        <v>1001025506777</v>
+        <v>1001014765992</v>
       </c>
       <c r="C222" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="B223" s="3">
-        <v>1001025546822</v>
+        <v>1001014765993</v>
       </c>
       <c r="C223" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="B224" s="3">
-        <v>1001025546822</v>
+        <v>1001025166776</v>
       </c>
       <c r="C224" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>336</v>
+        <v>300</v>
       </c>
       <c r="B225" s="3">
-        <v>1001025546822</v>
+        <v>1001025506777</v>
       </c>
       <c r="C225" t="s">
-        <v>554</v>
+        <v>301</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="B226" s="3">
         <v>1001025546822</v>
@@ -4937,84 +4961,84 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>666</v>
+        <v>324</v>
       </c>
       <c r="B227" s="3">
-        <v>1001024976616</v>
+        <v>1001025546822</v>
       </c>
       <c r="C227" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>307</v>
+        <v>336</v>
       </c>
       <c r="B228" s="3">
-        <v>1001024976616</v>
+        <v>1001025546822</v>
       </c>
       <c r="C228" t="s">
-        <v>306</v>
+        <v>554</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B229" s="3">
-        <v>1001010855247</v>
+        <v>1001025546822</v>
       </c>
       <c r="C229" t="s">
-        <v>23</v>
+        <v>303</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>386</v>
+        <v>666</v>
       </c>
       <c r="B230" s="3">
-        <v>1001223296919</v>
+        <v>1001024976616</v>
       </c>
       <c r="C230" t="s">
-        <v>389</v>
+        <v>306</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>66</v>
+        <v>307</v>
       </c>
       <c r="B231" s="3">
-        <v>1001223296919</v>
+        <v>1001024976616</v>
       </c>
       <c r="C231" t="s">
-        <v>389</v>
+        <v>306</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>225</v>
+        <v>308</v>
       </c>
       <c r="B232" s="3">
-        <v>1001223296919</v>
+        <v>1001010855247</v>
       </c>
       <c r="C232" t="s">
-        <v>389</v>
+        <v>23</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>459</v>
+        <v>386</v>
       </c>
       <c r="B233" s="3">
         <v>1001223296919</v>
       </c>
       <c r="C233" t="s">
-        <v>475</v>
+        <v>389</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>481</v>
+        <v>66</v>
       </c>
       <c r="B234" s="3">
         <v>1001223296919</v>
@@ -5025,7 +5049,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>309</v>
+        <v>225</v>
       </c>
       <c r="B235" s="3">
         <v>1001223296919</v>
@@ -5036,909 +5060,909 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>311</v>
+        <v>459</v>
       </c>
       <c r="B236" s="3">
-        <v>1001014765993</v>
+        <v>1001223296919</v>
       </c>
       <c r="C236" t="s">
-        <v>296</v>
+        <v>475</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>313</v>
+        <v>481</v>
       </c>
       <c r="B237" s="3">
-        <v>1001025166776</v>
+        <v>1001223296919</v>
       </c>
       <c r="C237" t="s">
-        <v>299</v>
+        <v>389</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B238" s="3">
-        <v>1001025506777</v>
+        <v>1001223296919</v>
       </c>
       <c r="C238" t="s">
-        <v>301</v>
+        <v>389</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B239" s="3">
-        <v>1001025526778</v>
+        <v>1001014765993</v>
       </c>
       <c r="C239" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B240" s="3">
-        <v>1001304236685</v>
+        <v>1001025166776</v>
       </c>
       <c r="C240" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="B241" s="3">
-        <v>1001015496769</v>
+        <v>1001025506777</v>
       </c>
       <c r="C241" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="B242" s="3">
-        <v>1001015496769</v>
+        <v>1001025526778</v>
       </c>
       <c r="C242" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B243" s="3">
-        <v>1001014766798</v>
+        <v>1001304236685</v>
       </c>
       <c r="C243" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="B244" s="3">
-        <v>1001015026797</v>
+        <v>1001015496769</v>
       </c>
       <c r="C244" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B245" s="3">
-        <v>1001205386222</v>
+        <v>1001015496769</v>
       </c>
       <c r="C245" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B246" s="3">
-        <v>1001092675224</v>
+        <v>1001014766798</v>
       </c>
       <c r="C246" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="B247" s="3">
-        <v>1001225406223</v>
+        <v>1001015026797</v>
       </c>
       <c r="C247" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="B248" s="3">
-        <v>1001300366790</v>
+        <v>1001205386222</v>
       </c>
       <c r="C248" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>477</v>
+        <v>337</v>
       </c>
       <c r="B249" s="3">
-        <v>1001304096792</v>
+        <v>1001092675224</v>
       </c>
       <c r="C249" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B250" s="3">
-        <v>1001304096792</v>
+        <v>1001225406223</v>
       </c>
       <c r="C250" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B251" s="3">
-        <v>1001303636793</v>
+        <v>1001300366790</v>
       </c>
       <c r="C251" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>397</v>
+        <v>477</v>
       </c>
       <c r="B252" s="3">
-        <v>1001303636794</v>
+        <v>1001304096792</v>
       </c>
       <c r="C252" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>497</v>
+        <v>350</v>
       </c>
       <c r="B253" s="3">
-        <v>1001303636794</v>
+        <v>1001304096792</v>
       </c>
       <c r="C253" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B254" s="3">
-        <v>1001303636794</v>
+        <v>1001303636793</v>
       </c>
       <c r="C254" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>353</v>
+        <v>397</v>
       </c>
       <c r="B255" s="3">
-        <v>1001302596795</v>
+        <v>1001303636794</v>
       </c>
       <c r="C255" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>354</v>
+        <v>497</v>
       </c>
       <c r="B256" s="3">
-        <v>1001302596796</v>
+        <v>1001303636794</v>
       </c>
       <c r="C256" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B257" s="3">
-        <v>1001300456804</v>
+        <v>1001303636794</v>
       </c>
       <c r="C257" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>446</v>
+        <v>353</v>
       </c>
       <c r="B258" s="3">
-        <v>1001300366806</v>
+        <v>1001302596795</v>
       </c>
       <c r="C258" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B259" s="3">
-        <v>1001300366806</v>
+        <v>1001302596796</v>
       </c>
       <c r="C259" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B260" s="3">
-        <v>1001300516803</v>
+        <v>1001300456804</v>
       </c>
       <c r="C260" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>358</v>
+        <v>446</v>
       </c>
       <c r="B261" s="3">
-        <v>1001300366807</v>
+        <v>1001300366806</v>
       </c>
       <c r="C261" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="B262" s="3">
-        <v>1001300366807</v>
+        <v>1001300366806</v>
       </c>
       <c r="C262" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="B263" s="3">
-        <v>1001300516785</v>
+        <v>1001300516803</v>
       </c>
       <c r="C263" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>540</v>
+        <v>358</v>
       </c>
       <c r="B264" s="3">
-        <v>1001300456787</v>
+        <v>1001300366807</v>
       </c>
       <c r="C264" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>555</v>
+        <v>370</v>
       </c>
       <c r="B265" s="3">
-        <v>1001300456787</v>
+        <v>1001300366807</v>
       </c>
       <c r="C265" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B266" s="3">
-        <v>1001300456787</v>
+        <v>1001300516785</v>
       </c>
       <c r="C266" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>376</v>
+        <v>540</v>
       </c>
       <c r="B267" s="3">
-        <v>1001303636793</v>
+        <v>1001300456787</v>
       </c>
       <c r="C267" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>377</v>
+        <v>555</v>
       </c>
       <c r="B268" s="3">
-        <v>1001302596795</v>
+        <v>1001300456787</v>
       </c>
       <c r="C268" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B269" s="3">
-        <v>1001012486332</v>
+        <v>1001300456787</v>
       </c>
       <c r="C269" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B270" s="3">
-        <v>1001012566345</v>
+        <v>1001303636793</v>
       </c>
       <c r="C270" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B271" s="3">
-        <v>1001031076528</v>
+        <v>1001302596795</v>
       </c>
       <c r="C271" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>414</v>
+        <v>378</v>
       </c>
       <c r="B272" s="3">
-        <v>1001020836761</v>
+        <v>1001012486332</v>
       </c>
       <c r="C272" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>419</v>
+        <v>380</v>
       </c>
       <c r="B273" s="3">
-        <v>1001020836761</v>
+        <v>1001012566345</v>
       </c>
       <c r="C273" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B274" s="3">
-        <v>1001020836761</v>
+        <v>1001031076528</v>
       </c>
       <c r="C274" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B275" s="3">
-        <v>1001020846764</v>
+        <v>1001020836761</v>
       </c>
       <c r="C275" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B276" s="3">
-        <v>1001020846764</v>
+        <v>1001020836761</v>
       </c>
       <c r="C276" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B277" s="3">
-        <v>1001020846764</v>
+        <v>1001020836761</v>
       </c>
       <c r="C277" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>493</v>
+        <v>410</v>
       </c>
       <c r="B278" s="3">
-        <v>1001300366790</v>
+        <v>1001020846764</v>
       </c>
       <c r="C278" t="s">
-        <v>359</v>
+        <v>393</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="B279" s="3">
-        <v>1001300366790</v>
+        <v>1001020846764</v>
       </c>
       <c r="C279" t="s">
-        <v>359</v>
+        <v>393</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="B280" s="3">
-        <v>1001304096791</v>
+        <v>1001020846764</v>
       </c>
       <c r="C280" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>468</v>
+        <v>493</v>
       </c>
       <c r="B281" s="3">
-        <v>1001304096791</v>
+        <v>1001300366790</v>
       </c>
       <c r="C281" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B282" s="3">
-        <v>1001304096791</v>
+        <v>1001300366790</v>
       </c>
       <c r="C282" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>396</v>
+        <v>349</v>
       </c>
       <c r="B283" s="3">
-        <v>1001303636793</v>
+        <v>1001304096791</v>
       </c>
       <c r="C283" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>398</v>
+        <v>468</v>
       </c>
       <c r="B284" s="3">
-        <v>1001302596795</v>
+        <v>1001304096791</v>
       </c>
       <c r="C284" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B285" s="3">
-        <v>1001300516803</v>
+        <v>1001304096791</v>
       </c>
       <c r="C285" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B286" s="3">
-        <v>1001300456804</v>
+        <v>1001303636793</v>
       </c>
       <c r="C286" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B287" s="3">
-        <v>1001300366807</v>
+        <v>1001302596795</v>
       </c>
       <c r="C287" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B288" s="3">
-        <v>1001302596796</v>
+        <v>1001300516803</v>
       </c>
       <c r="C288" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>452</v>
+        <v>400</v>
       </c>
       <c r="B289" s="3">
-        <v>1001023696765</v>
+        <v>1001300456804</v>
       </c>
       <c r="C289" t="s">
-        <v>405</v>
+        <v>366</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>471</v>
+        <v>401</v>
       </c>
       <c r="B290" s="3">
-        <v>1001023696765</v>
+        <v>1001300366807</v>
       </c>
       <c r="C290" t="s">
-        <v>405</v>
+        <v>369</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B291" s="3">
-        <v>1001023696765</v>
+        <v>1001302596796</v>
       </c>
       <c r="C291" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>413</v>
+        <v>452</v>
       </c>
       <c r="B292" s="3">
-        <v>1001023696767</v>
+        <v>1001023696765</v>
       </c>
       <c r="C292" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>421</v>
+        <v>471</v>
       </c>
       <c r="B293" s="3">
-        <v>1001023696767</v>
+        <v>1001023696765</v>
       </c>
       <c r="C293" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B294" s="3">
-        <v>1001023696767</v>
+        <v>1001023696765</v>
       </c>
       <c r="C294" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B295" s="3">
-        <v>1001024976829</v>
+        <v>1001023696767</v>
       </c>
       <c r="C295" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="B296" s="3">
-        <v>1001024976829</v>
+        <v>1001023696767</v>
       </c>
       <c r="C296" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="B297" s="3">
-        <v>1001022376722</v>
+        <v>1001023696767</v>
       </c>
       <c r="C297" t="s">
-        <v>119</v>
+        <v>409</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>451</v>
+        <v>411</v>
       </c>
       <c r="B298" s="3">
-        <v>1001020846762</v>
+        <v>1001024976829</v>
       </c>
       <c r="C298" t="s">
-        <v>426</v>
+        <v>403</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>470</v>
+        <v>412</v>
       </c>
       <c r="B299" s="3">
-        <v>1001020846762</v>
+        <v>1001024976829</v>
       </c>
       <c r="C299" t="s">
-        <v>426</v>
+        <v>403</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B300" s="3">
-        <v>1001020846762</v>
+        <v>1001022376722</v>
       </c>
       <c r="C300" t="s">
-        <v>426</v>
+        <v>119</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>124</v>
+        <v>451</v>
       </c>
       <c r="B301" s="3">
-        <v>1001022656853</v>
+        <v>1001020846762</v>
       </c>
       <c r="C301" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>492</v>
+        <v>470</v>
       </c>
       <c r="B302" s="3">
-        <v>1001022656853</v>
+        <v>1001020846762</v>
       </c>
       <c r="C302" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>576</v>
+        <v>425</v>
       </c>
       <c r="B303" s="3">
-        <v>1001022656948</v>
+        <v>1001020846762</v>
       </c>
       <c r="C303" t="s">
-        <v>567</v>
+        <v>426</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>570</v>
+        <v>124</v>
       </c>
       <c r="B304" s="3">
-        <v>1001022656948</v>
+        <v>1001022656853</v>
       </c>
       <c r="C304" t="s">
-        <v>567</v>
+        <v>429</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>428</v>
+        <v>492</v>
       </c>
       <c r="B305" s="3">
-        <v>1001022656948</v>
+        <v>1001022656853</v>
       </c>
       <c r="C305" t="s">
-        <v>567</v>
+        <v>429</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>434</v>
+        <v>576</v>
       </c>
       <c r="B306" s="3">
-        <v>1001022656852</v>
+        <v>1001022656948</v>
       </c>
       <c r="C306" t="s">
-        <v>435</v>
+        <v>567</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>453</v>
+        <v>570</v>
       </c>
       <c r="B307" s="3">
-        <v>1001020836759</v>
+        <v>1001022656948</v>
       </c>
       <c r="C307" t="s">
-        <v>437</v>
+        <v>567</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>469</v>
+        <v>428</v>
       </c>
       <c r="B308" s="3">
-        <v>1001020836759</v>
+        <v>1001022656948</v>
       </c>
       <c r="C308" t="s">
-        <v>437</v>
+        <v>567</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B309" s="3">
-        <v>1001020836759</v>
+        <v>1001022656852</v>
       </c>
       <c r="C309" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="B310" s="3">
-        <v>1001023856870</v>
+        <v>1001020836759</v>
       </c>
       <c r="C310" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="B311" s="3">
-        <v>1001013956426</v>
+        <v>1001020836759</v>
       </c>
       <c r="C311" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="B312" s="3">
-        <v>1001093345495</v>
+        <v>1001020836759</v>
       </c>
       <c r="C312" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>485</v>
+        <v>438</v>
       </c>
       <c r="B313" s="3">
-        <v>1001022656868</v>
+        <v>1001023856870</v>
       </c>
       <c r="C313" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B314" s="3">
-        <v>1001022656868</v>
+        <v>1001013956426</v>
       </c>
       <c r="C314" t="s">
-        <v>458</v>
+        <v>432</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>166</v>
+        <v>456</v>
       </c>
       <c r="B315" s="3">
-        <v>1001034065698</v>
+        <v>1001093345495</v>
       </c>
       <c r="C315" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>185</v>
+        <v>485</v>
       </c>
       <c r="B316" s="3">
-        <v>1001034065698</v>
+        <v>1001022656868</v>
       </c>
       <c r="C316" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>483</v>
+        <v>457</v>
       </c>
       <c r="B317" s="3">
-        <v>1001034065698</v>
+        <v>1001022656868</v>
       </c>
       <c r="C317" t="s">
-        <v>430</v>
+        <v>458</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>461</v>
+        <v>166</v>
       </c>
       <c r="B318" s="3">
         <v>1001034065698</v>
@@ -5949,172 +5973,172 @@
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>462</v>
+        <v>185</v>
       </c>
       <c r="B319" s="3">
-        <v>1001084216206</v>
+        <v>1001034065698</v>
       </c>
       <c r="C319" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="B320" s="3">
-        <v>1001015646861</v>
+        <v>1001034065698</v>
       </c>
       <c r="C320" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B321" s="3">
-        <v>1001015646861</v>
+        <v>1001034065698</v>
       </c>
       <c r="C321" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="B322" s="3">
-        <v>1001025176768</v>
+        <v>1001084216206</v>
       </c>
       <c r="C322" t="s">
-        <v>450</v>
+        <v>388</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B323" s="3">
-        <v>1001025176768</v>
+        <v>1001015646861</v>
       </c>
       <c r="C323" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B324" s="3">
-        <v>1001025176768</v>
+        <v>1001015646861</v>
       </c>
       <c r="C324" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B325" s="3">
-        <v>1001025486770</v>
+        <v>1001025176768</v>
       </c>
       <c r="C325" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B326" s="3">
-        <v>1001025486770</v>
+        <v>1001025176768</v>
       </c>
       <c r="C326" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B327" s="3">
-        <v>1001025486770</v>
+        <v>1001025176768</v>
       </c>
       <c r="C327" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>208</v>
+        <v>448</v>
       </c>
       <c r="B328" s="3">
-        <v>1001012816340</v>
+        <v>1001025486770</v>
       </c>
       <c r="C328" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="B329" s="3">
-        <v>1001012816340</v>
+        <v>1001025486770</v>
       </c>
       <c r="C329" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B330" s="3">
-        <v>1001012816340</v>
+        <v>1001025486770</v>
       </c>
       <c r="C330" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>310</v>
+        <v>208</v>
       </c>
       <c r="B331" s="3">
-        <v>1001203146834</v>
+        <v>1001012816340</v>
       </c>
       <c r="C331" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>460</v>
+        <v>487</v>
       </c>
       <c r="B332" s="3">
-        <v>1001203146834</v>
+        <v>1001012816340</v>
       </c>
       <c r="C332" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="B333" s="3">
-        <v>1001203146834</v>
+        <v>1001012816340</v>
       </c>
       <c r="C333" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>467</v>
+        <v>310</v>
       </c>
       <c r="B334" s="3">
         <v>1001203146834</v>
@@ -6125,1029 +6149,1084 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="B335" s="3">
-        <v>1001300456788</v>
+        <v>1001203146834</v>
       </c>
       <c r="C335" t="s">
-        <v>480</v>
+        <v>433</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B336" s="3">
-        <v>1001022556837</v>
+        <v>1001203146834</v>
       </c>
       <c r="C336" t="s">
-        <v>490</v>
+        <v>433</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>494</v>
+        <v>467</v>
       </c>
       <c r="B337" s="3">
-        <v>1001300516786</v>
+        <v>1001203146834</v>
       </c>
       <c r="C337" t="s">
-        <v>495</v>
+        <v>433</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="B338" s="3">
-        <v>1001214196459</v>
+        <v>1001300456788</v>
       </c>
       <c r="C338" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>551</v>
+        <v>489</v>
       </c>
       <c r="B339" s="3">
-        <v>1001092436495</v>
+        <v>1001022556837</v>
       </c>
       <c r="C339" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>558</v>
+        <v>494</v>
       </c>
       <c r="B340" s="3">
-        <v>1001092436495</v>
+        <v>1001300516786</v>
       </c>
       <c r="C340" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B341" s="3">
-        <v>1001092436495</v>
+        <v>1001214196459</v>
       </c>
       <c r="C341" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>502</v>
+        <v>551</v>
       </c>
       <c r="B342" s="3">
-        <v>1001025526901</v>
+        <v>1001092436495</v>
       </c>
       <c r="C342" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>504</v>
+        <v>558</v>
       </c>
       <c r="B343" s="3">
-        <v>1001025546931</v>
+        <v>1001092436495</v>
       </c>
       <c r="C343" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="B344" s="3">
-        <v>1001010016324</v>
+        <v>1001092436495</v>
       </c>
       <c r="C344" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>544</v>
+        <v>502</v>
       </c>
       <c r="B345" s="3">
-        <v>1001010016324</v>
+        <v>1001025526901</v>
       </c>
       <c r="C345" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B346" s="3">
-        <v>1001010016324</v>
+        <v>1001025546931</v>
       </c>
       <c r="C346" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B347" s="3">
-        <v>1001025766909</v>
+        <v>1001010016324</v>
       </c>
       <c r="C347" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B348" s="3">
-        <v>1001025766909</v>
+        <v>1001010016324</v>
       </c>
       <c r="C348" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B349" s="3">
-        <v>1001025766909</v>
+        <v>1001010016324</v>
       </c>
       <c r="C349" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>543</v>
+        <v>511</v>
       </c>
       <c r="B350" s="3">
-        <v>1001010014558</v>
+        <v>1001025766909</v>
       </c>
       <c r="C350" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>512</v>
+        <v>545</v>
       </c>
       <c r="B351" s="3">
-        <v>1001010014558</v>
+        <v>1001025766909</v>
       </c>
       <c r="C351" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>538</v>
+        <v>509</v>
       </c>
       <c r="B352" s="3">
-        <v>1001012596802</v>
+        <v>1001025766909</v>
       </c>
       <c r="C352" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B353" s="3">
-        <v>1001012596802</v>
+        <v>1001010014558</v>
       </c>
       <c r="C353" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B354" s="3">
-        <v>1001012596802</v>
+        <v>1001010014558</v>
       </c>
       <c r="C354" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="B355" s="3">
-        <v>1001012596801</v>
+        <v>1001012596802</v>
       </c>
       <c r="C355" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B356" s="3">
-        <v>1001012596801</v>
+        <v>1001012596802</v>
       </c>
       <c r="C356" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B357" s="3">
-        <v>1001012596801</v>
+        <v>1001012596802</v>
       </c>
       <c r="C357" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="B358" s="3">
-        <v>1001062353684</v>
+        <v>1001012596801</v>
       </c>
       <c r="C358" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>521</v>
+        <v>546</v>
       </c>
       <c r="B359" s="3">
-        <v>1001010014555</v>
+        <v>1001012596801</v>
       </c>
       <c r="C359" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B360" s="3">
-        <v>1001083424691</v>
+        <v>1001012596801</v>
       </c>
       <c r="C360" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B361" s="3">
-        <v>1001190765679</v>
+        <v>1001062353684</v>
       </c>
       <c r="C361" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B362" s="3">
-        <v>1001085636200</v>
+        <v>1001010014555</v>
       </c>
       <c r="C362" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B363" s="3">
-        <v>1001020836253</v>
+        <v>1001083424691</v>
       </c>
       <c r="C363" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B364" s="3">
-        <v>1001084226492</v>
+        <v>1001190765679</v>
       </c>
       <c r="C364" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="B365" s="3">
-        <v>1001223296921</v>
+        <v>1001085636200</v>
       </c>
       <c r="C365" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="B366" s="3">
-        <v>1001053944786</v>
+        <v>1001020836253</v>
       </c>
       <c r="C366" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="B367" s="3">
-        <v>1001010016839</v>
+        <v>1001084226492</v>
       </c>
       <c r="C367" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="B368" s="3">
-        <v>1001023857038</v>
+        <v>1001223296921</v>
       </c>
       <c r="C368" t="s">
-        <v>589</v>
+        <v>535</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="B369" s="3">
-        <v>1001040434903</v>
+        <v>1001053944786</v>
       </c>
       <c r="C369" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="B370" s="3">
-        <v>1001080216842</v>
+        <v>1001010016839</v>
       </c>
       <c r="C370" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="B371" s="3">
-        <v>1001022466951</v>
+        <v>1001023857038</v>
       </c>
       <c r="C371" t="s">
-        <v>566</v>
+        <v>589</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="B372" s="3">
-        <v>1001022466951</v>
+        <v>1001040434903</v>
       </c>
       <c r="C372" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>573</v>
+        <v>552</v>
       </c>
       <c r="B373" s="3">
-        <v>1001035276653</v>
+        <v>1001080216842</v>
       </c>
       <c r="C373" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="B374" s="3">
-        <v>1001062353680</v>
+        <v>1001022466951</v>
       </c>
       <c r="C374" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="B375" s="3">
-        <v>1001061971146</v>
+        <v>1001022466951</v>
       </c>
       <c r="C375" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="B376" s="3">
-        <v>1001225636201</v>
+        <v>1001035276653</v>
       </c>
       <c r="C376" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="B377" s="3">
-        <v>1001020836724</v>
+        <v>1001062353680</v>
       </c>
       <c r="C377" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="B378" s="3">
-        <v>1001095227035</v>
+        <v>1001061971146</v>
       </c>
       <c r="C378" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="B379" s="3">
-        <v>1001023857038</v>
+        <v>1001225636201</v>
       </c>
       <c r="C379" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="B380" s="3">
-        <v>1001025027040</v>
+        <v>1001020836724</v>
       </c>
       <c r="C380" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="B381" s="3">
-        <v>1001223297103</v>
+        <v>1001095227035</v>
       </c>
       <c r="C381" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="B382" s="3">
-        <v>1001223297103</v>
+        <v>1001023857038</v>
       </c>
       <c r="C382" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B383" s="3">
-        <v>1001223297103</v>
+        <v>1001025027040</v>
       </c>
       <c r="C383" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
-        <v>615</v>
+        <v>592</v>
       </c>
       <c r="B384" s="3">
-        <v>1001010032675</v>
+        <v>1001223297103</v>
       </c>
       <c r="C384" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B385" s="3">
-        <v>1001010032675</v>
+        <v>1001223297103</v>
       </c>
       <c r="C385" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>620</v>
+        <v>593</v>
       </c>
       <c r="B386" s="3">
-        <v>1001035937001</v>
+        <v>1001223297103</v>
       </c>
       <c r="C386" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
       <c r="B387" s="3">
-        <v>1001035937001</v>
+        <v>1001010032675</v>
       </c>
       <c r="C387" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>621</v>
+        <v>595</v>
       </c>
       <c r="B388" s="3">
-        <v>1001084217090</v>
+        <v>1001010032675</v>
       </c>
       <c r="C388" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>599</v>
+        <v>620</v>
       </c>
       <c r="B389" s="3">
-        <v>1001084217090</v>
+        <v>1001035937001</v>
       </c>
       <c r="C389" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>622</v>
+        <v>597</v>
       </c>
       <c r="B390" s="3">
-        <v>1001022377066</v>
+        <v>1001035937001</v>
       </c>
       <c r="C390" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="B391" s="3">
-        <v>1001022377066</v>
+        <v>1001084217090</v>
       </c>
       <c r="C391" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>623</v>
+        <v>599</v>
       </c>
       <c r="B392" s="3">
-        <v>1001022467080</v>
+        <v>1001084217090</v>
       </c>
       <c r="C392" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>603</v>
+        <v>622</v>
       </c>
       <c r="B393" s="3">
-        <v>1001022467080</v>
+        <v>1001022377066</v>
       </c>
       <c r="C393" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>624</v>
+        <v>601</v>
       </c>
       <c r="B394" s="3">
-        <v>1001025507077</v>
+        <v>1001022377066</v>
       </c>
       <c r="C394" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="B395" s="3">
-        <v>1001025507077</v>
+        <v>1001022467080</v>
       </c>
       <c r="C395" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>627</v>
+        <v>603</v>
       </c>
       <c r="B396" s="3">
-        <v>1001022657075</v>
+        <v>1001022467080</v>
       </c>
       <c r="C396" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>607</v>
+        <v>624</v>
       </c>
       <c r="B397" s="3">
-        <v>1001022657075</v>
+        <v>1001025507077</v>
       </c>
       <c r="C397" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="B398" s="3">
-        <v>1001022467082</v>
+        <v>1001025507077</v>
       </c>
       <c r="C398" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="B399" s="3">
-        <v>1001022467082</v>
+        <v>1001022657075</v>
       </c>
       <c r="C399" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>626</v>
+        <v>607</v>
       </c>
       <c r="B400" s="3">
-        <v>1001022377070</v>
+        <v>1001022657075</v>
       </c>
       <c r="C400" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="B401" s="3">
-        <v>1001022377070</v>
+        <v>1001022467082</v>
       </c>
       <c r="C401" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>628</v>
+        <v>609</v>
       </c>
       <c r="B402" s="3">
-        <v>1001022657073</v>
+        <v>1001022467082</v>
       </c>
       <c r="C402" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>613</v>
+        <v>626</v>
       </c>
       <c r="B403" s="3">
-        <v>1001022657073</v>
+        <v>1001022377070</v>
       </c>
       <c r="C403" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>639</v>
+        <v>611</v>
       </c>
       <c r="B404" s="3">
-        <v>1001010027126</v>
+        <v>1001022377070</v>
       </c>
       <c r="C404" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="B405" s="3">
-        <v>1001010027126</v>
+        <v>1001022657073</v>
       </c>
       <c r="C405" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B406" s="3">
-        <v>1001010027125</v>
+        <v>1001022657073</v>
       </c>
       <c r="C406" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B407" s="3">
-        <v>1001010027125</v>
+        <v>1001010027126</v>
       </c>
       <c r="C407" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>663</v>
+        <v>616</v>
       </c>
       <c r="B408" s="3">
-        <v>1001016366888</v>
+        <v>1001010027126</v>
       </c>
       <c r="C408" t="s">
-        <v>642</v>
+        <v>617</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>641</v>
+        <v>618</v>
       </c>
       <c r="B409" s="3">
-        <v>1001016366888</v>
+        <v>1001010027125</v>
       </c>
       <c r="C409" t="s">
-        <v>642</v>
+        <v>619</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>664</v>
+        <v>640</v>
       </c>
       <c r="B410" s="3">
-        <v>1001300367133</v>
+        <v>1001010027125</v>
       </c>
       <c r="C410" t="s">
-        <v>644</v>
+        <v>619</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>643</v>
+        <v>663</v>
       </c>
       <c r="B411" s="3">
-        <v>1001300367133</v>
+        <v>1001016366888</v>
       </c>
       <c r="C411" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>662</v>
+        <v>641</v>
       </c>
       <c r="B412" s="3">
-        <v>1001303637131</v>
+        <v>1001016366888</v>
       </c>
       <c r="C412" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>645</v>
+        <v>664</v>
       </c>
       <c r="B413" s="3">
-        <v>1001303637131</v>
+        <v>1001300367133</v>
       </c>
       <c r="C413" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>665</v>
+        <v>643</v>
       </c>
       <c r="B414" s="3">
-        <v>1001304527146</v>
+        <v>1001300367133</v>
       </c>
       <c r="C414" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>647</v>
+        <v>662</v>
       </c>
       <c r="B415" s="3">
-        <v>1001304527146</v>
+        <v>1001303637131</v>
       </c>
       <c r="C415" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>660</v>
+        <v>645</v>
       </c>
       <c r="B416" s="3">
-        <v>1001300517134</v>
+        <v>1001303637131</v>
       </c>
       <c r="C416" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>649</v>
+        <v>665</v>
       </c>
       <c r="B417" s="3">
-        <v>1001300517134</v>
+        <v>1001304527146</v>
       </c>
       <c r="C417" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B418" s="3">
-        <v>1001300457135</v>
+        <v>1001304527146</v>
       </c>
       <c r="C418" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="B419" s="3">
-        <v>1001304527144</v>
+        <v>1001300517134</v>
       </c>
       <c r="C419" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="B420" s="3">
-        <v>1001304527144</v>
+        <v>1001300517134</v>
       </c>
       <c r="C420" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>668</v>
+        <v>651</v>
       </c>
       <c r="B421" s="3">
-        <v>1001081596620</v>
+        <v>1001300457135</v>
       </c>
       <c r="C421" t="s">
-        <v>667</v>
+        <v>652</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>670</v>
+        <v>653</v>
       </c>
       <c r="B422" s="3">
-        <v>1001085637187</v>
+        <v>1001304527144</v>
       </c>
       <c r="C422" t="s">
-        <v>669</v>
+        <v>654</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="B423" s="3">
-        <v>1001015676877</v>
+        <v>1001304527144</v>
       </c>
       <c r="C423" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>674</v>
+        <v>685</v>
       </c>
       <c r="B424" s="3">
-        <v>1001015686878</v>
+        <v>1001081596620</v>
       </c>
       <c r="C424" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="B425" s="3">
-        <v>1001302277232</v>
+        <v>1001081596620</v>
       </c>
       <c r="C425" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="B426" s="3">
-        <v>1001304497237</v>
+        <v>1001085637187</v>
       </c>
       <c r="C426" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B427" s="3">
+        <v>1001015676877</v>
+      </c>
+      <c r="C427" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B428" s="3">
+        <v>1001015686878</v>
+      </c>
+      <c r="C428" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B429" s="3">
+        <v>1001302277232</v>
+      </c>
+      <c r="C429" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B430" s="3">
+        <v>1001304497237</v>
+      </c>
+      <c r="C430" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="B427" s="3">
+      <c r="B431" s="3">
         <v>1001303107241</v>
       </c>
-      <c r="C427" t="s">
+      <c r="C431" t="s">
         <v>680</v>
       </c>
     </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B432" s="3">
+        <v>1002162216872</v>
+      </c>
+      <c r="C432" t="s">
+        <v>684</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C420" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C432" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
